--- a/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_1.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>Element</t>
   </si>
@@ -49,6 +49,9 @@
     <t>Stream-biodiesel</t>
   </si>
   <si>
+    <t>Stream-natural gas</t>
+  </si>
+  <si>
     <t>biorefinery</t>
   </si>
   <si>
@@ -62,6 +65,9 @@
   </si>
   <si>
     <t>Price [USD/gal]</t>
+  </si>
+  <si>
+    <t>Price [USD/cf]</t>
   </si>
   <si>
     <t>Electricity price [USD/kWh]</t>
@@ -428,7 +434,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -475,55 +481,55 @@
         <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4">
-        <v>-0.04951276951276952</v>
+        <v>0.7131006891006892</v>
       </c>
       <c r="D4">
-        <v>0.9359428199428199</v>
+        <v>0.9342515862515863</v>
       </c>
       <c r="E4">
-        <v>0.9386124146124147</v>
+        <v>0.936799944799945</v>
       </c>
       <c r="F4">
-        <v>-0.9989685509685512</v>
+        <v>-0.9982920862920862</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5">
-        <v>0.05889052689052689</v>
+        <v>0.1518918078918079</v>
       </c>
       <c r="D5">
-        <v>-0.1001844281844282</v>
+        <v>-0.146010158010158</v>
       </c>
       <c r="E5">
-        <v>-0.1018840138840139</v>
+        <v>-0.1480611880611881</v>
       </c>
       <c r="F5">
-        <v>0.03273850473850474</v>
+        <v>0.07563126363126363</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6">
-        <v>0.3694265494265495</v>
+        <v>0.5108561948561949</v>
       </c>
       <c r="D6">
-        <v>0.3927206607206608</v>
+        <v>0.3182191142191143</v>
       </c>
       <c r="E6">
-        <v>0.3855362055362056</v>
+        <v>0.3110450150450151</v>
       </c>
       <c r="F6">
-        <v>-0.02827698427698428</v>
+        <v>0.05582589182589183</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -531,19 +537,19 @@
         <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7">
-        <v>0.4374632214632215</v>
+        <v>0.04962794562794563</v>
       </c>
       <c r="D7">
-        <v>0.01654072054072054</v>
+        <v>0.01102199902199902</v>
       </c>
       <c r="E7">
-        <v>0.01653184053184053</v>
+        <v>0.0114997074997075</v>
       </c>
       <c r="F7">
-        <v>-0.01436497436497437</v>
+        <v>-0.02419136419136419</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -551,19 +557,19 @@
         <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8">
-        <v>0.1774570534570535</v>
+        <v>-0.03935556335556336</v>
       </c>
       <c r="D8">
-        <v>0.01154164754164754</v>
+        <v>-0.0145985545985546</v>
       </c>
       <c r="E8">
-        <v>0.01124681924681925</v>
+        <v>-0.0146004746004746</v>
       </c>
       <c r="F8">
-        <v>0.004647388647388648</v>
+        <v>0.01045190245190245</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -571,62 +577,82 @@
         <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9">
-        <v>0.2632688872688873</v>
+        <v>0.4217814017814018</v>
       </c>
       <c r="D9">
-        <v>0.002630774630774631</v>
+        <v>0.04146192546192547</v>
       </c>
       <c r="E9">
-        <v>0.002863442863442864</v>
+        <v>0.04139508539508539</v>
       </c>
       <c r="F9">
-        <v>0.0006054846054846055</v>
+        <v>-0.03745396945396946</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B10" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C10">
-        <v>0.2579230259230259</v>
+        <v>0.01131419931419931</v>
       </c>
       <c r="D10">
-        <v>-0.02554254154254154</v>
+        <v>0.0110957150957151</v>
       </c>
       <c r="E10">
-        <v>-0.02571069771069771</v>
+        <v>0.01071749871749872</v>
       </c>
       <c r="F10">
-        <v>0.03576988776988777</v>
+        <v>0.002768282768282768</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11">
-        <v>-0.6711427551427552</v>
+        <v>0.006857574857574859</v>
       </c>
       <c r="D11">
-        <v>-0.02785459585459586</v>
+        <v>0.01432754632754633</v>
       </c>
       <c r="E11">
-        <v>-0.02807760407760408</v>
+        <v>0.01431777831777832</v>
       </c>
       <c r="F11">
-        <v>0.02972173772173773</v>
+        <v>-0.003403647403647404</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12">
+        <v>-0.04123574923574924</v>
+      </c>
+      <c r="D12">
+        <v>-0.03217422817422817</v>
+      </c>
+      <c r="E12">
+        <v>-0.03213940413940414</v>
+      </c>
+      <c r="F12">
+        <v>0.006139218139218139</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A10:A12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_1.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>Element</t>
   </si>
@@ -28,15 +28,24 @@
     <t>MFPP [USD/ton]</t>
   </si>
   <si>
+    <t>Biodiesel production [gal/ton]</t>
+  </si>
+  <si>
+    <t>Ethanol production [gal/ton]</t>
+  </si>
+  <si>
+    <t>Electricity production [kWhr/ton]</t>
+  </si>
+  <si>
+    <t>Natural gas consumption [cf/ton]</t>
+  </si>
+  <si>
+    <t>Productivity [GGE/ton]</t>
+  </si>
+  <si>
     <t>TCI [10^6*USD]</t>
   </si>
   <si>
-    <t>Installed equipment cost [10^6*USD]</t>
-  </si>
-  <si>
-    <t>Productivity [GGE/ton]</t>
-  </si>
-  <si>
     <t>Parameter</t>
   </si>
   <si>
@@ -55,6 +64,12 @@
     <t>biorefinery</t>
   </si>
   <si>
+    <t>Fermentation</t>
+  </si>
+  <si>
+    <t>Capacity [ton/hr]</t>
+  </si>
+  <si>
     <t>Lipid content [dry wt. %]</t>
   </si>
   <si>
@@ -77,6 +92,9 @@
   </si>
   <si>
     <t>IRR [%]</t>
+  </si>
+  <si>
+    <t>Solids loading [%]</t>
   </si>
 </sst>
 </file>
@@ -434,13 +452,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -450,8 +468,11 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -467,192 +488,305 @@
       <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C4">
-        <v>0.7131006891006892</v>
+        <v>0.4597017157017158</v>
       </c>
       <c r="D4">
-        <v>0.9342515862515863</v>
+        <v>0.005396309396309397</v>
       </c>
       <c r="E4">
-        <v>0.936799944799945</v>
+        <v>0.007411819411819412</v>
       </c>
       <c r="F4">
-        <v>-0.9982920862920862</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.02746269946269946</v>
+      </c>
+      <c r="H4">
+        <v>0.1044981564981565</v>
+      </c>
+      <c r="I4">
+        <v>0.9948455268455269</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C5">
-        <v>0.1518918078918079</v>
+        <v>-0.03570545970545971</v>
       </c>
       <c r="D5">
-        <v>-0.146010158010158</v>
+        <v>0.9765082605082605</v>
       </c>
       <c r="E5">
-        <v>-0.1480611880611881</v>
+        <v>-0.9987138027138028</v>
       </c>
       <c r="F5">
-        <v>0.07563126363126363</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>0.9952183072183074</v>
+      </c>
+      <c r="H5">
+        <v>0.8597326277326278</v>
+      </c>
+      <c r="I5">
+        <v>0.08320599520599521</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6">
+        <v>0.05738055338055339</v>
+      </c>
+      <c r="D6">
+        <v>0.1483606603606604</v>
+      </c>
+      <c r="E6">
+        <v>-0.0140995220995221</v>
+      </c>
+      <c r="F6">
+        <v>-0.04252917052917052</v>
+      </c>
+      <c r="H6">
+        <v>0.1072073632073632</v>
+      </c>
+      <c r="I6">
+        <v>0.04577926577926578</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>-0.009752265752265753</v>
+      </c>
+      <c r="D7">
+        <v>0.2083350883350883</v>
+      </c>
+      <c r="E7">
+        <v>-0.0493984573984574</v>
+      </c>
+      <c r="F7">
+        <v>0.1167738927738928</v>
+      </c>
+      <c r="H7">
+        <v>0.4967283287283287</v>
+      </c>
+      <c r="I7">
+        <v>0.04369080769080769</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8">
+        <v>0.7572390612390613</v>
+      </c>
+      <c r="D8">
+        <v>-0.04483794883794884</v>
+      </c>
+      <c r="E8">
+        <v>0.04252630252630253</v>
+      </c>
+      <c r="F8">
+        <v>-0.04472543672543673</v>
+      </c>
+      <c r="H8">
+        <v>-0.04314382314382315</v>
+      </c>
+      <c r="I8">
+        <v>0.0006233046233046233</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9">
+        <v>0.2158805158805159</v>
+      </c>
+      <c r="D9">
+        <v>0.05093357093357093</v>
+      </c>
+      <c r="E9">
+        <v>-0.05352565752565753</v>
+      </c>
+      <c r="F9">
+        <v>0.04997899397899398</v>
+      </c>
+      <c r="H9">
+        <v>0.03795861795861796</v>
+      </c>
+      <c r="I9">
+        <v>-0.003427659427659427</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10">
+        <v>0.01476739476739477</v>
+      </c>
+      <c r="D10">
+        <v>0.0006385566385566386</v>
+      </c>
+      <c r="E10">
+        <v>0.003117651117651118</v>
+      </c>
+      <c r="F10">
+        <v>-0.001177105177105177</v>
+      </c>
+      <c r="H10">
+        <v>0.01034614634614635</v>
+      </c>
+      <c r="I10">
+        <v>0.02117866517866518</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C6">
-        <v>0.5108561948561949</v>
-      </c>
-      <c r="D6">
-        <v>0.3182191142191143</v>
-      </c>
-      <c r="E6">
-        <v>0.3110450150450151</v>
-      </c>
-      <c r="F6">
-        <v>0.05582589182589183</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7">
-        <v>0.04962794562794563</v>
-      </c>
-      <c r="D7">
-        <v>0.01102199902199902</v>
-      </c>
-      <c r="E7">
-        <v>0.0114997074997075</v>
-      </c>
-      <c r="F7">
-        <v>-0.02419136419136419</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8">
-        <v>-0.03935556335556336</v>
-      </c>
-      <c r="D8">
-        <v>-0.0145985545985546</v>
-      </c>
-      <c r="E8">
-        <v>-0.0146004746004746</v>
-      </c>
-      <c r="F8">
-        <v>0.01045190245190245</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9">
-        <v>0.4217814017814018</v>
-      </c>
-      <c r="D9">
-        <v>0.04146192546192547</v>
-      </c>
-      <c r="E9">
-        <v>0.04139508539508539</v>
-      </c>
-      <c r="F9">
-        <v>-0.03745396945396946</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10">
-        <v>0.01131419931419931</v>
-      </c>
-      <c r="D10">
-        <v>0.0110957150957151</v>
-      </c>
-      <c r="E10">
-        <v>0.01071749871749872</v>
-      </c>
-      <c r="F10">
-        <v>0.002768282768282768</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C11">
-        <v>0.006857574857574859</v>
+        <v>0.1305628905628906</v>
       </c>
       <c r="D11">
-        <v>0.01432754632754633</v>
+        <v>-0.0243005163005163</v>
       </c>
       <c r="E11">
-        <v>0.01431777831777832</v>
+        <v>0.01358683358683359</v>
       </c>
       <c r="F11">
-        <v>-0.003403647403647404</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>-0.01022804222804223</v>
+      </c>
+      <c r="H11">
+        <v>-0.02304279504279505</v>
+      </c>
+      <c r="I11">
+        <v>0.09574285174285176</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C12">
-        <v>-0.04123574923574924</v>
+        <v>0.07859127059127059</v>
       </c>
       <c r="D12">
-        <v>-0.03217422817422817</v>
+        <v>-0.0348916548916549</v>
       </c>
       <c r="E12">
-        <v>-0.03213940413940414</v>
+        <v>0.0351949671949672</v>
       </c>
       <c r="F12">
-        <v>0.006139218139218139</v>
+        <v>-0.03743962943962944</v>
+      </c>
+      <c r="H12">
+        <v>-0.02906664506664507</v>
+      </c>
+      <c r="I12">
+        <v>-0.05660633660633661</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13">
+        <v>-0.2580323220323221</v>
+      </c>
+      <c r="D13">
+        <v>-0.00120985320985321</v>
+      </c>
+      <c r="E13">
+        <v>0.005321429321429321</v>
+      </c>
+      <c r="F13">
+        <v>-0.002868758868758869</v>
+      </c>
+      <c r="H13">
+        <v>0.01178182778182778</v>
+      </c>
+      <c r="I13">
+        <v>-0.004049524049524049</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14">
+        <v>0.0006936726936726937</v>
+      </c>
+      <c r="D14">
+        <v>-0.004248160248160248</v>
+      </c>
+      <c r="E14">
+        <v>-0.005463377463377463</v>
+      </c>
+      <c r="F14">
+        <v>0.005083337083337084</v>
+      </c>
+      <c r="H14">
+        <v>-0.01305546105546106</v>
+      </c>
+      <c r="I14">
+        <v>-0.007314151314151315</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A11:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_1.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>Element</t>
   </si>
@@ -28,24 +28,27 @@
     <t>MFPP [USD/ton]</t>
   </si>
   <si>
-    <t>Biodiesel production [gal/ton]</t>
-  </si>
-  <si>
-    <t>Ethanol production [gal/ton]</t>
-  </si>
-  <si>
-    <t>Electricity production [kWhr/ton]</t>
-  </si>
-  <si>
-    <t>Natural gas consumption [cf/ton]</t>
-  </si>
-  <si>
-    <t>Productivity [GGE/ton]</t>
+    <t>Biodiesel production [MMGal/yr]</t>
+  </si>
+  <si>
+    <t>Ethanol production [MMGal/yr]</t>
+  </si>
+  <si>
+    <t>Electricity production [MMWhr/yr]</t>
+  </si>
+  <si>
+    <t>Natural gas consumption [MMcf/yr]</t>
+  </si>
+  <si>
+    <t>Productivity [MMGGE/yr]</t>
   </si>
   <si>
     <t>TCI [10^6*USD]</t>
   </si>
   <si>
+    <t>Heat exchanger network error [%]</t>
+  </si>
+  <si>
     <t>Parameter</t>
   </si>
   <si>
@@ -64,21 +67,18 @@
     <t>biorefinery</t>
   </si>
   <si>
-    <t>Fermentation</t>
+    <t>Lipid content [dry wt. %]</t>
+  </si>
+  <si>
+    <t>Lipid retention [%]</t>
+  </si>
+  <si>
+    <t>Additional lipid extraction efficiency [%]</t>
   </si>
   <si>
     <t>Capacity [ton/hr]</t>
   </si>
   <si>
-    <t>Lipid content [dry wt. %]</t>
-  </si>
-  <si>
-    <t>Efficiency [%]</t>
-  </si>
-  <si>
-    <t>Lipid retention [%]</t>
-  </si>
-  <si>
     <t>Price [USD/gal]</t>
   </si>
   <si>
@@ -92,9 +92,6 @@
   </si>
   <si>
     <t>IRR [%]</t>
-  </si>
-  <si>
-    <t>Solids loading [%]</t>
   </si>
 </sst>
 </file>
@@ -452,13 +449,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -471,8 +468,9 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -497,294 +495,301 @@
       <c r="I2" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C4">
-        <v>0.4597017157017158</v>
+        <v>0.01243446846537874</v>
       </c>
       <c r="D4">
-        <v>0.005396309396309397</v>
+        <v>0.9656979317159171</v>
       </c>
       <c r="E4">
-        <v>0.007411819411819412</v>
+        <v>-0.9710174906486995</v>
       </c>
       <c r="F4">
-        <v>0.02746269946269946</v>
+        <v>0.8874372113054882</v>
       </c>
       <c r="H4">
-        <v>0.1044981564981565</v>
+        <v>0.2822626935945077</v>
       </c>
       <c r="I4">
-        <v>0.9948455268455269</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>0.7359404309416171</v>
+      </c>
+      <c r="J4">
+        <v>0.8128816605944312</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C5">
-        <v>-0.03570545970545971</v>
+        <v>0.02509148922765957</v>
       </c>
       <c r="D5">
-        <v>0.9765082605082605</v>
+        <v>0.05113234697329388</v>
       </c>
       <c r="E5">
-        <v>-0.9987138027138028</v>
+        <v>0.002162529782501191</v>
       </c>
       <c r="F5">
-        <v>0.9952183072183074</v>
+        <v>0.02141216898448675</v>
       </c>
       <c r="H5">
-        <v>0.8597326277326278</v>
+        <v>0.05909610255584409</v>
       </c>
       <c r="I5">
-        <v>0.08320599520599521</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>0.0280392776335711</v>
+      </c>
+      <c r="J5">
+        <v>0.007775770778389963</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C6">
-        <v>0.05738055338055339</v>
+        <v>0.04700840933633637</v>
       </c>
       <c r="D6">
-        <v>0.1483606603606604</v>
+        <v>0.07846696883467874</v>
       </c>
       <c r="E6">
-        <v>-0.0140995220995221</v>
+        <v>0.006183976087359043</v>
       </c>
       <c r="F6">
-        <v>-0.04252917052917052</v>
+        <v>-0.04582844180113766</v>
       </c>
       <c r="H6">
-        <v>0.1072073632073632</v>
+        <v>0.0131443425097737</v>
       </c>
       <c r="I6">
-        <v>0.04577926577926578</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>-0.03494218690168747</v>
+      </c>
+      <c r="J6">
+        <v>-0.00186048525922314</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C7">
-        <v>-0.009752265752265753</v>
+        <v>0.08224410194576406</v>
       </c>
       <c r="D7">
-        <v>0.2083350883350883</v>
+        <v>0.1696790897951636</v>
       </c>
       <c r="E7">
-        <v>-0.0493984573984574</v>
+        <v>0.1878381166335246</v>
       </c>
       <c r="F7">
-        <v>0.1167738927738928</v>
+        <v>0.3346338050333522</v>
       </c>
       <c r="H7">
-        <v>0.4967283287283287</v>
+        <v>0.7480470345298813</v>
       </c>
       <c r="I7">
-        <v>0.04369080769080769</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>0.651344777029791</v>
+      </c>
+      <c r="J7">
+        <v>-0.05503422352114372</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C8">
-        <v>0.7572390612390613</v>
+        <v>0.6458100750804029</v>
       </c>
       <c r="D8">
-        <v>-0.04483794883794884</v>
+        <v>-9.880109195204365E-05</v>
       </c>
       <c r="E8">
-        <v>0.04252630252630253</v>
+        <v>-0.01255370450214818</v>
       </c>
       <c r="F8">
-        <v>-0.04472543672543673</v>
+        <v>-0.006136763861470554</v>
       </c>
       <c r="H8">
-        <v>-0.04314382314382315</v>
+        <v>-0.02582272029690881</v>
       </c>
       <c r="I8">
-        <v>0.0006233046233046233</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>-0.01007252075490083</v>
+      </c>
+      <c r="J8">
+        <v>0.005903371006685095</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C9">
-        <v>0.2158805158805159</v>
+        <v>0.4012926813317072</v>
       </c>
       <c r="D9">
-        <v>0.05093357093357093</v>
+        <v>-0.008648459673938385</v>
       </c>
       <c r="E9">
-        <v>-0.05352565752565753</v>
+        <v>0.01109807113192284</v>
       </c>
       <c r="F9">
-        <v>0.04997899397899398</v>
+        <v>-0.004602154168086166</v>
       </c>
       <c r="H9">
-        <v>0.03795861795861796</v>
+        <v>0.007134161373366454</v>
       </c>
       <c r="I9">
-        <v>-0.003427659427659427</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>-0.00381772325670893</v>
+      </c>
+      <c r="J9">
+        <v>0.0004124588326765355</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C10">
-        <v>0.01476739476739477</v>
+        <v>0.02957110303884412</v>
       </c>
       <c r="D10">
-        <v>0.0006385566385566386</v>
+        <v>0.004337107085484283</v>
       </c>
       <c r="E10">
-        <v>0.003117651117651118</v>
+        <v>-0.01196715311868612</v>
       </c>
       <c r="F10">
-        <v>-0.001177105177105177</v>
+        <v>0.005288213395528535</v>
       </c>
       <c r="H10">
-        <v>0.01034614634614635</v>
+        <v>-0.005754100742164029</v>
       </c>
       <c r="I10">
-        <v>0.02117866517866518</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>-0.008027295681091826</v>
+      </c>
+      <c r="J10">
+        <v>-0.005842889612239713</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C11">
-        <v>0.1305628905628906</v>
+        <v>0.1943246190689847</v>
       </c>
       <c r="D11">
-        <v>-0.0243005163005163</v>
+        <v>0.0001026954281078171</v>
       </c>
       <c r="E11">
-        <v>0.01358683358683359</v>
+        <v>-0.001599571359982854</v>
       </c>
       <c r="F11">
-        <v>-0.01022804222804223</v>
+        <v>0.0001663083906523356</v>
       </c>
       <c r="H11">
-        <v>-0.02304279504279505</v>
+        <v>-0.004358397582335903</v>
       </c>
       <c r="I11">
-        <v>0.09574285174285176</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>0.002187953655518146</v>
+      </c>
+      <c r="J11">
+        <v>0.001440911530258935</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C12">
-        <v>0.07859127059127059</v>
+        <v>0.2058898845875954</v>
       </c>
       <c r="D12">
-        <v>-0.0348916548916549</v>
+        <v>0.1628570201142808</v>
       </c>
       <c r="E12">
-        <v>0.0351949671949672</v>
+        <v>0.1141017462280698</v>
       </c>
       <c r="F12">
-        <v>-0.03743962943962944</v>
+        <v>0.2876288941291557</v>
       </c>
       <c r="H12">
-        <v>-0.02906664506664507</v>
+        <v>0.575809326232373</v>
       </c>
       <c r="I12">
-        <v>-0.05660633660633661</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>0.01952330132493205</v>
+      </c>
+      <c r="J12">
+        <v>0.0188931194838866</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C13">
-        <v>-0.2580323220323221</v>
+        <v>-0.46037575111903</v>
       </c>
       <c r="D13">
-        <v>-0.00120985320985321</v>
+        <v>0.01137455632698225</v>
       </c>
       <c r="E13">
-        <v>0.005321429321429321</v>
+        <v>-0.01509476546779062</v>
       </c>
       <c r="F13">
-        <v>-0.002868758868758869</v>
+        <v>0.005795905863836234</v>
       </c>
       <c r="H13">
-        <v>0.01178182778182778</v>
+        <v>-0.009326392117055684</v>
       </c>
       <c r="I13">
-        <v>-0.004049524049524049</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14">
-        <v>0.0006936726936726937</v>
-      </c>
-      <c r="D14">
-        <v>-0.004248160248160248</v>
-      </c>
-      <c r="E14">
-        <v>-0.005463377463377463</v>
-      </c>
-      <c r="F14">
-        <v>0.005083337083337084</v>
-      </c>
-      <c r="H14">
-        <v>-0.01305546105546106</v>
-      </c>
-      <c r="I14">
-        <v>-0.007314151314151315</v>
+        <v>0.009080876331235051</v>
+      </c>
+      <c r="J13">
+        <v>0.005744321992254426</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="C1:J1"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A11:A13"/>
   </mergeCells>

--- a/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_1.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_1.xlsx
@@ -73,7 +73,7 @@
     <t>Lipid retention [%]</t>
   </si>
   <si>
-    <t>Additional lipid extraction efficiency [%]</t>
+    <t>Bagasse lipid extraction efficiency [%]</t>
   </si>
   <si>
     <t>Capacity [ton/hr]</t>
@@ -515,25 +515,25 @@
         <v>17</v>
       </c>
       <c r="C4">
-        <v>0.01243446846537874</v>
+        <v>-0.02039300982524563</v>
       </c>
       <c r="D4">
-        <v>0.9656979317159171</v>
+        <v>0.9029070726768171</v>
       </c>
       <c r="E4">
-        <v>-0.9710174906486995</v>
+        <v>-0.9732258306457664</v>
       </c>
       <c r="F4">
-        <v>0.8874372113054882</v>
+        <v>0.8416905422635568</v>
       </c>
       <c r="H4">
-        <v>0.2822626935945077</v>
+        <v>0.1085607140178505</v>
       </c>
       <c r="I4">
-        <v>0.7359404309416171</v>
+        <v>0.6205175129378234</v>
       </c>
       <c r="J4">
-        <v>0.8128816605944312</v>
+        <v>0.7601530038250958</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -542,25 +542,25 @@
         <v>18</v>
       </c>
       <c r="C5">
-        <v>0.02509148922765957</v>
+        <v>0.1104372609315233</v>
       </c>
       <c r="D5">
-        <v>0.05113234697329388</v>
+        <v>0.2149898747468687</v>
       </c>
       <c r="E5">
-        <v>0.002162529782501191</v>
+        <v>-0.04046801170029252</v>
       </c>
       <c r="F5">
-        <v>0.02141216898448675</v>
+        <v>0.1897907447686192</v>
       </c>
       <c r="H5">
-        <v>0.05909610255584409</v>
+        <v>0.2767329183229582</v>
       </c>
       <c r="I5">
-        <v>0.0280392776335711</v>
+        <v>0.1823130578264457</v>
       </c>
       <c r="J5">
-        <v>0.007775770778389963</v>
+        <v>0.1504582614565364</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -569,25 +569,25 @@
         <v>19</v>
       </c>
       <c r="C6">
-        <v>0.04700840933633637</v>
+        <v>0.1106262656566414</v>
       </c>
       <c r="D6">
-        <v>0.07846696883467874</v>
+        <v>0.337094427360684</v>
       </c>
       <c r="E6">
-        <v>0.006183976087359043</v>
+        <v>-0.01311032775819396</v>
       </c>
       <c r="F6">
-        <v>-0.04582844180113766</v>
+        <v>-0.1315667891697292</v>
       </c>
       <c r="H6">
-        <v>0.0131443425097737</v>
+        <v>0.05746793669841747</v>
       </c>
       <c r="I6">
-        <v>-0.03494218690168747</v>
+        <v>-0.1340403510087753</v>
       </c>
       <c r="J6">
-        <v>-0.00186048525922314</v>
+        <v>0.1284437110927774</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -596,25 +596,25 @@
         <v>20</v>
       </c>
       <c r="C7">
-        <v>0.08224410194576406</v>
+        <v>0.1360939023475587</v>
       </c>
       <c r="D7">
-        <v>0.1696790897951636</v>
+        <v>0.08491862296557415</v>
       </c>
       <c r="E7">
-        <v>0.1878381166335246</v>
+        <v>0.2463901597539939</v>
       </c>
       <c r="F7">
-        <v>0.3346338050333522</v>
+        <v>0.2850956273906848</v>
       </c>
       <c r="H7">
-        <v>0.7480470345298813</v>
+        <v>0.7307012675316885</v>
       </c>
       <c r="I7">
-        <v>0.651344777029791</v>
+        <v>0.6927743193579841</v>
       </c>
       <c r="J7">
-        <v>-0.05503422352114372</v>
+        <v>-0.1410440261006525</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -625,25 +625,25 @@
         <v>21</v>
       </c>
       <c r="C8">
-        <v>0.6458100750804029</v>
+        <v>0.6631080777019427</v>
       </c>
       <c r="D8">
-        <v>-9.880109195204365E-05</v>
+        <v>0.0461921548038701</v>
       </c>
       <c r="E8">
-        <v>-0.01255370450214818</v>
+        <v>-0.02728568214205356</v>
       </c>
       <c r="F8">
-        <v>-0.006136763861470554</v>
+        <v>0.06711617790444763</v>
       </c>
       <c r="H8">
-        <v>-0.02582272029690881</v>
+        <v>0.04327608190204756</v>
       </c>
       <c r="I8">
-        <v>-0.01007252075490083</v>
+        <v>0.06610965274131855</v>
       </c>
       <c r="J8">
-        <v>0.005903371006685095</v>
+        <v>0.03392934823370585</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -654,25 +654,25 @@
         <v>21</v>
       </c>
       <c r="C9">
-        <v>0.4012926813317072</v>
+        <v>0.4182374559363984</v>
       </c>
       <c r="D9">
-        <v>-0.008648459673938385</v>
+        <v>-0.09282082052051303</v>
       </c>
       <c r="E9">
-        <v>0.01109807113192284</v>
+        <v>0.07926798169954251</v>
       </c>
       <c r="F9">
-        <v>-0.004602154168086166</v>
+        <v>-0.0819545488637216</v>
       </c>
       <c r="H9">
-        <v>0.007134161373366454</v>
+        <v>-0.02108602715067877</v>
       </c>
       <c r="I9">
-        <v>-0.00381772325670893</v>
+        <v>-0.02833570839270982</v>
       </c>
       <c r="J9">
-        <v>0.0004124588326765355</v>
+        <v>-0.0726558163954099</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -683,25 +683,25 @@
         <v>22</v>
       </c>
       <c r="C10">
-        <v>0.02957110303884412</v>
+        <v>0.102977574439361</v>
       </c>
       <c r="D10">
-        <v>0.004337107085484283</v>
+        <v>-0.002338558463961599</v>
       </c>
       <c r="E10">
-        <v>-0.01196715311868612</v>
+        <v>-0.04251406285157129</v>
       </c>
       <c r="F10">
-        <v>0.005288213395528535</v>
+        <v>0.02496662416560414</v>
       </c>
       <c r="H10">
-        <v>-0.005754100742164029</v>
+        <v>0.01120978024450611</v>
       </c>
       <c r="I10">
-        <v>-0.008027295681091826</v>
+        <v>-0.006360159003975101</v>
       </c>
       <c r="J10">
-        <v>-0.005842889612239713</v>
+        <v>0.03134028350708768</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -712,25 +712,25 @@
         <v>23</v>
       </c>
       <c r="C11">
-        <v>0.1943246190689847</v>
+        <v>0.192606315157879</v>
       </c>
       <c r="D11">
-        <v>0.0001026954281078171</v>
+        <v>0.063841596039901</v>
       </c>
       <c r="E11">
-        <v>-0.001599571359982854</v>
+        <v>-0.03549688742218556</v>
       </c>
       <c r="F11">
-        <v>0.0001663083906523356</v>
+        <v>0.07115577889447237</v>
       </c>
       <c r="H11">
-        <v>-0.004358397582335903</v>
+        <v>0.08450311257781445</v>
       </c>
       <c r="I11">
-        <v>0.002187953655518146</v>
+        <v>0.1063811595289882</v>
       </c>
       <c r="J11">
-        <v>0.001440911530258935</v>
+        <v>0.00633015825395635</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -739,25 +739,25 @@
         <v>24</v>
       </c>
       <c r="C12">
-        <v>0.2058898845875954</v>
+        <v>0.1868896722418061</v>
       </c>
       <c r="D12">
-        <v>0.1628570201142808</v>
+        <v>0.1116717917947949</v>
       </c>
       <c r="E12">
-        <v>0.1141017462280698</v>
+        <v>0.1335498387459687</v>
       </c>
       <c r="F12">
-        <v>0.2876288941291557</v>
+        <v>0.2536038400960025</v>
       </c>
       <c r="H12">
-        <v>0.575809326232373</v>
+        <v>0.5272991824795621</v>
       </c>
       <c r="I12">
-        <v>0.01952330132493205</v>
+        <v>-0.06806570164254108</v>
       </c>
       <c r="J12">
-        <v>0.0188931194838866</v>
+        <v>0.003169579239480987</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -766,25 +766,25 @@
         <v>25</v>
       </c>
       <c r="C13">
-        <v>-0.46037575111903</v>
+        <v>-0.3846066151653792</v>
       </c>
       <c r="D13">
-        <v>0.01137455632698225</v>
+        <v>-0.001168529213230331</v>
       </c>
       <c r="E13">
-        <v>-0.01509476546779062</v>
+        <v>-0.008241206030150754</v>
       </c>
       <c r="F13">
-        <v>0.005795905863836234</v>
+        <v>0.01636690917272932</v>
       </c>
       <c r="H13">
-        <v>-0.009326392117055684</v>
+        <v>0.0086987174679367</v>
       </c>
       <c r="I13">
-        <v>0.009080876331235051</v>
+        <v>0.05195979899497488</v>
       </c>
       <c r="J13">
-        <v>0.005744321992254426</v>
+        <v>-0.0214310357758944</v>
       </c>
     </row>
   </sheetData>

--- a/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_1.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>Element</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>TCI [10^6*USD]</t>
+  </si>
+  <si>
+    <t>Feedstock consumption [ton/yr]</t>
   </si>
   <si>
     <t>Heat exchanger network error [%]</t>
@@ -449,13 +452,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -469,8 +472,9 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -498,298 +502,361 @@
       <c r="J2" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4">
-        <v>-0.02039300982524563</v>
+        <v>-0.6692507312682818</v>
       </c>
       <c r="D4">
-        <v>0.9029070726768171</v>
+        <v>0.9455111377784444</v>
       </c>
       <c r="E4">
-        <v>-0.9732258306457664</v>
+        <v>-0.9746238655966399</v>
       </c>
       <c r="F4">
-        <v>0.8416905422635568</v>
+        <v>-0.7387399684992125</v>
+      </c>
+      <c r="G4">
+        <v>0.9717001008114807</v>
       </c>
       <c r="H4">
-        <v>0.1085607140178505</v>
+        <v>-0.9712562814070353</v>
       </c>
       <c r="I4">
-        <v>0.6205175129378234</v>
+        <v>0.8680792019800497</v>
       </c>
       <c r="J4">
-        <v>0.7601530038250958</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>-0.06124653116327909</v>
+      </c>
+      <c r="K4">
+        <v>0.8636015900397511</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5">
-        <v>0.1104372609315233</v>
+        <v>-0.04949223730593266</v>
       </c>
       <c r="D5">
-        <v>0.2149898747468687</v>
+        <v>0.06121503037575941</v>
       </c>
       <c r="E5">
-        <v>-0.04046801170029252</v>
+        <v>-0.04262056551413786</v>
       </c>
       <c r="F5">
-        <v>0.1897907447686192</v>
+        <v>-0.00648766219155479</v>
+      </c>
+      <c r="G5">
+        <v>0.05310671232785925</v>
       </c>
       <c r="H5">
-        <v>0.2767329183229582</v>
+        <v>-0.0487302182554564</v>
       </c>
       <c r="I5">
-        <v>0.1823130578264457</v>
+        <v>0.1414355358883972</v>
       </c>
       <c r="J5">
-        <v>0.1504582614565364</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>0.1361659041476037</v>
+      </c>
+      <c r="K5">
+        <v>-0.003388584714617866</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6">
-        <v>0.1106262656566414</v>
+        <v>0.09575189379734496</v>
       </c>
       <c r="D6">
-        <v>0.337094427360684</v>
+        <v>0.2289492237305933</v>
       </c>
       <c r="E6">
-        <v>-0.01311032775819396</v>
+        <v>-0.01302932573314333</v>
       </c>
       <c r="F6">
-        <v>-0.1315667891697292</v>
+        <v>-0.1023730593264832</v>
+      </c>
+      <c r="G6">
+        <v>0.0746671101052974</v>
       </c>
       <c r="H6">
-        <v>0.05746793669841747</v>
+        <v>-0.02339908497712443</v>
       </c>
       <c r="I6">
-        <v>-0.1340403510087753</v>
+        <v>-0.005352133803345085</v>
       </c>
       <c r="J6">
-        <v>0.1284437110927774</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>-0.06355658891472288</v>
+      </c>
+      <c r="K6">
+        <v>0.257598439960999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7">
-        <v>0.1360939023475587</v>
+        <v>0.2084497112427811</v>
       </c>
       <c r="D7">
-        <v>0.08491862296557415</v>
+        <v>0.07732843321083029</v>
       </c>
       <c r="E7">
-        <v>0.2463901597539939</v>
+        <v>0.2422320558013951</v>
       </c>
       <c r="F7">
-        <v>0.2850956273906848</v>
+        <v>0.098775969399235</v>
+      </c>
+      <c r="G7">
+        <v>-0.1894033808159956</v>
       </c>
       <c r="H7">
-        <v>0.7307012675316885</v>
+        <v>0.2846921173029326</v>
       </c>
       <c r="I7">
-        <v>0.6927743193579841</v>
+        <v>0.2273846846171155</v>
       </c>
       <c r="J7">
-        <v>-0.1410440261006525</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>0.7776224405610143</v>
+      </c>
+      <c r="K7">
+        <v>0.05440336008400212</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8">
-        <v>0.6631080777019427</v>
+        <v>0.404707117677942</v>
       </c>
       <c r="D8">
-        <v>0.0461921548038701</v>
+        <v>0.05014775369384235</v>
       </c>
       <c r="E8">
-        <v>-0.02728568214205356</v>
+        <v>-0.02640666016650417</v>
       </c>
       <c r="F8">
-        <v>0.06711617790444763</v>
+        <v>-0.02898822470561765</v>
+      </c>
+      <c r="G8">
+        <v>0.05632516182572641</v>
       </c>
       <c r="H8">
-        <v>0.04327608190204756</v>
+        <v>-0.02670366759168979</v>
       </c>
       <c r="I8">
-        <v>0.06610965274131855</v>
+        <v>0.08715967899197483</v>
       </c>
       <c r="J8">
-        <v>0.03392934823370585</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>0.02759318982974574</v>
+      </c>
+      <c r="K8">
+        <v>0.02388509712742819</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9">
-        <v>0.4182374559363984</v>
+        <v>0.4829295732393311</v>
       </c>
       <c r="D9">
-        <v>-0.09282082052051303</v>
+        <v>-0.08734718367959199</v>
       </c>
       <c r="E9">
-        <v>0.07926798169954251</v>
+        <v>0.07976299407485186</v>
       </c>
       <c r="F9">
-        <v>-0.0819545488637216</v>
+        <v>0.07667141678541965</v>
+      </c>
+      <c r="G9">
+        <v>-0.1064590552522034</v>
       </c>
       <c r="H9">
-        <v>-0.02108602715067877</v>
+        <v>0.08326258156453914</v>
       </c>
       <c r="I9">
-        <v>-0.02833570839270982</v>
+        <v>-0.06393309832745819</v>
       </c>
       <c r="J9">
-        <v>-0.0726558163954099</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>-0.01898597464936624</v>
+      </c>
+      <c r="K9">
+        <v>-0.02834170854271357</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10">
-        <v>0.102977574439361</v>
+        <v>0.0346388659716493</v>
       </c>
       <c r="D10">
-        <v>-0.002338558463961599</v>
+        <v>0.01862296557413936</v>
       </c>
       <c r="E10">
-        <v>-0.04251406285157129</v>
+        <v>-0.04279906997674943</v>
       </c>
       <c r="F10">
-        <v>0.02496662416560414</v>
+        <v>0.01545938648466212</v>
+      </c>
+      <c r="G10">
+        <v>0.03014522538480182</v>
       </c>
       <c r="H10">
-        <v>0.01120978024450611</v>
+        <v>-0.03860196504912623</v>
       </c>
       <c r="I10">
-        <v>-0.006360159003975101</v>
+        <v>0.0005055126378159455</v>
       </c>
       <c r="J10">
-        <v>0.03134028350708768</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>-0.0102377559438986</v>
+      </c>
+      <c r="K10">
+        <v>0.02878271956798921</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11">
-        <v>0.192606315157879</v>
+        <v>-0.02483162079051977</v>
       </c>
       <c r="D11">
-        <v>0.063841596039901</v>
+        <v>0.07964449111227782</v>
       </c>
       <c r="E11">
-        <v>-0.03549688742218556</v>
+        <v>-0.03649891247281183</v>
       </c>
       <c r="F11">
-        <v>0.07115577889447237</v>
+        <v>0.001512037800945024</v>
+      </c>
+      <c r="G11">
+        <v>0.06364587184619598</v>
       </c>
       <c r="H11">
-        <v>0.08450311257781445</v>
+        <v>-0.04004050101252531</v>
       </c>
       <c r="I11">
-        <v>0.1063811595289882</v>
+        <v>0.1291982299557489</v>
       </c>
       <c r="J11">
-        <v>0.00633015825395635</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>0.09863796594914874</v>
+      </c>
+      <c r="K11">
+        <v>0.04034200855021376</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12">
-        <v>0.1868896722418061</v>
+        <v>0.1043786094652366</v>
       </c>
       <c r="D12">
-        <v>0.1116717917947949</v>
+        <v>0.1072541813545339</v>
       </c>
       <c r="E12">
-        <v>0.1335498387459687</v>
+        <v>0.1292282307057677</v>
       </c>
       <c r="F12">
-        <v>0.2536038400960025</v>
+        <v>0.05785344633615841</v>
+      </c>
+      <c r="G12">
+        <v>-0.003881881669681422</v>
       </c>
       <c r="H12">
-        <v>0.5272991824795621</v>
+        <v>0.05946898672466813</v>
       </c>
       <c r="I12">
-        <v>-0.06806570164254108</v>
+        <v>-0.06612465311632792</v>
       </c>
       <c r="J12">
-        <v>0.003169579239480987</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>0.5283537088427211</v>
+      </c>
+      <c r="K12">
+        <v>-0.02064501612540313</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13">
-        <v>-0.3846066151653792</v>
+        <v>-0.2452381309532738</v>
       </c>
       <c r="D13">
-        <v>-0.001168529213230331</v>
+        <v>-0.000475511887797195</v>
       </c>
       <c r="E13">
-        <v>-0.008241206030150754</v>
+        <v>-0.008041701042526064</v>
       </c>
       <c r="F13">
-        <v>0.01636690917272932</v>
+        <v>-0.03633990849771244</v>
+      </c>
+      <c r="G13">
+        <v>0.01312861104015852</v>
       </c>
       <c r="H13">
-        <v>0.0086987174679367</v>
+        <v>-0.00301057526438161</v>
       </c>
       <c r="I13">
-        <v>0.05195979899497488</v>
+        <v>0.05337283432085803</v>
       </c>
       <c r="J13">
-        <v>-0.0214310357758944</v>
+        <v>0.004314107852696318</v>
+      </c>
+      <c r="K13">
+        <v>0.006396159903997601</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="C1:K1"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A11:A13"/>
   </mergeCells>

--- a/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_1.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>Element</t>
   </si>
@@ -38,9 +38,6 @@
   </si>
   <si>
     <t>Natural gas consumption [MMcf/yr]</t>
-  </si>
-  <si>
-    <t>Productivity [MMGGE/yr]</t>
   </si>
   <si>
     <t>TCI [10^6*USD]</t>
@@ -452,13 +449,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -472,9 +469,8 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-    </row>
-    <row r="2" spans="1:11">
+    </row>
+    <row r="2" spans="1:10">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -502,361 +498,298 @@
       <c r="J2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4">
-        <v>-0.6692507312682818</v>
+        <v>0.3558658966474162</v>
       </c>
       <c r="D4">
-        <v>0.9455111377784444</v>
+        <v>0.9535798394959876</v>
       </c>
       <c r="E4">
         <v>-0.9746238655966399</v>
       </c>
       <c r="F4">
-        <v>-0.7387399684992125</v>
-      </c>
-      <c r="G4">
-        <v>0.9717001008114807</v>
+        <v>0.9023400585014626</v>
       </c>
       <c r="H4">
-        <v>-0.9712562814070353</v>
+        <v>0.6878151953798847</v>
       </c>
       <c r="I4">
-        <v>0.8680792019800497</v>
+        <v>-0.06124653116327909</v>
       </c>
       <c r="J4">
-        <v>-0.06124653116327909</v>
-      </c>
-      <c r="K4">
-        <v>0.8636015900397511</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>0.5722403060076502</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5">
-        <v>-0.04949223730593266</v>
+        <v>0.01585239630990775</v>
       </c>
       <c r="D5">
-        <v>0.06121503037575941</v>
+        <v>0.06031350783769595</v>
       </c>
       <c r="E5">
         <v>-0.04262056551413786</v>
       </c>
       <c r="F5">
-        <v>-0.00648766219155479</v>
-      </c>
-      <c r="G5">
-        <v>0.05310671232785925</v>
+        <v>0.1866481662041551</v>
       </c>
       <c r="H5">
-        <v>-0.0487302182554564</v>
+        <v>0.1701027525688142</v>
       </c>
       <c r="I5">
-        <v>0.1414355358883972</v>
+        <v>0.1361659041476037</v>
       </c>
       <c r="J5">
-        <v>0.1361659041476037</v>
-      </c>
-      <c r="K5">
-        <v>-0.003388584714617866</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>0.118631965799145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6">
-        <v>0.09575189379734496</v>
+        <v>0.06752268806720169</v>
       </c>
       <c r="D6">
-        <v>0.2289492237305933</v>
+        <v>0.1881962049051226</v>
       </c>
       <c r="E6">
         <v>-0.01302932573314333</v>
       </c>
       <c r="F6">
-        <v>-0.1023730593264832</v>
-      </c>
-      <c r="G6">
-        <v>0.0746671101052974</v>
+        <v>-0.09484137103427587</v>
       </c>
       <c r="H6">
-        <v>-0.02339908497712443</v>
+        <v>-0.087107177679442</v>
       </c>
       <c r="I6">
-        <v>-0.005352133803345085</v>
+        <v>-0.06355658891472288</v>
       </c>
       <c r="J6">
-        <v>-0.06355658891472288</v>
-      </c>
-      <c r="K6">
-        <v>0.257598439960999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>-0.1515577889447237</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7">
-        <v>0.2084497112427811</v>
+        <v>0.06601215030375761</v>
       </c>
       <c r="D7">
-        <v>0.07732843321083029</v>
+        <v>0.08183754593864848</v>
       </c>
       <c r="E7">
         <v>0.2422320558013951</v>
       </c>
       <c r="F7">
-        <v>0.098775969399235</v>
-      </c>
-      <c r="G7">
-        <v>-0.1894033808159956</v>
+        <v>0.242017550438761</v>
       </c>
       <c r="H7">
-        <v>0.2846921173029326</v>
+        <v>0.6335963399084977</v>
       </c>
       <c r="I7">
-        <v>0.2273846846171155</v>
+        <v>0.7776224405610143</v>
       </c>
       <c r="J7">
-        <v>0.7776224405610143</v>
-      </c>
-      <c r="K7">
-        <v>0.05440336008400212</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>-0.3276561914047852</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8">
-        <v>0.404707117677942</v>
+        <v>0.5264936623415586</v>
       </c>
       <c r="D8">
-        <v>0.05014775369384235</v>
+        <v>0.04685817145428636</v>
       </c>
       <c r="E8">
         <v>-0.02640666016650417</v>
       </c>
       <c r="F8">
-        <v>-0.02898822470561765</v>
-      </c>
-      <c r="G8">
-        <v>0.05632516182572641</v>
+        <v>0.06905572639315984</v>
       </c>
       <c r="H8">
-        <v>-0.02670366759168979</v>
+        <v>0.06849771244281108</v>
       </c>
       <c r="I8">
-        <v>0.08715967899197483</v>
+        <v>0.02759318982974574</v>
       </c>
       <c r="J8">
-        <v>0.02759318982974574</v>
-      </c>
-      <c r="K8">
-        <v>0.02388509712742819</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>-0.004944123603090078</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9">
-        <v>0.4829295732393311</v>
+        <v>0.5479936998424961</v>
       </c>
       <c r="D9">
-        <v>-0.08734718367959199</v>
+        <v>-0.09268431710792772</v>
       </c>
       <c r="E9">
         <v>0.07976299407485186</v>
       </c>
       <c r="F9">
-        <v>0.07667141678541965</v>
-      </c>
-      <c r="G9">
-        <v>-0.1064590552522034</v>
+        <v>-0.09442136053401337</v>
       </c>
       <c r="H9">
-        <v>0.08326258156453914</v>
+        <v>-0.04297607440186005</v>
       </c>
       <c r="I9">
-        <v>-0.06393309832745819</v>
+        <v>-0.01898597464936624</v>
       </c>
       <c r="J9">
-        <v>-0.01898597464936624</v>
-      </c>
-      <c r="K9">
-        <v>-0.02834170854271357</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>0.002896572414310358</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10">
-        <v>0.0346388659716493</v>
+        <v>0.07757893947348685</v>
       </c>
       <c r="D10">
-        <v>0.01862296557413936</v>
+        <v>0.02118652966324159</v>
       </c>
       <c r="E10">
         <v>-0.04279906997674943</v>
       </c>
       <c r="F10">
-        <v>0.01545938648466212</v>
-      </c>
-      <c r="G10">
-        <v>0.03014522538480182</v>
+        <v>0.006670666766669168</v>
       </c>
       <c r="H10">
-        <v>-0.03860196504912623</v>
+        <v>-0.008301207530188256</v>
       </c>
       <c r="I10">
-        <v>0.0005055126378159455</v>
+        <v>-0.0102377559438986</v>
       </c>
       <c r="J10">
-        <v>-0.0102377559438986</v>
-      </c>
-      <c r="K10">
-        <v>0.02878271956798921</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>-0.001057526438160954</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11">
-        <v>-0.02483162079051977</v>
+        <v>0.1060571514287857</v>
       </c>
       <c r="D11">
-        <v>0.07964449111227782</v>
+        <v>0.08260406510162754</v>
       </c>
       <c r="E11">
         <v>-0.03649891247281183</v>
       </c>
       <c r="F11">
-        <v>0.001512037800945024</v>
-      </c>
-      <c r="G11">
-        <v>0.06364587184619598</v>
+        <v>0.08135303382584565</v>
       </c>
       <c r="H11">
-        <v>-0.04004050101252531</v>
+        <v>0.1111797794944874</v>
       </c>
       <c r="I11">
-        <v>0.1291982299557489</v>
+        <v>0.09863796594914874</v>
       </c>
       <c r="J11">
-        <v>0.09863796594914874</v>
-      </c>
-      <c r="K11">
-        <v>0.04034200855021376</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>-0.01653041326033151</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12">
-        <v>0.1043786094652366</v>
+        <v>0.1327068176704418</v>
       </c>
       <c r="D12">
-        <v>0.1072541813545339</v>
+        <v>0.108308707717693</v>
       </c>
       <c r="E12">
         <v>0.1292282307057677</v>
       </c>
       <c r="F12">
-        <v>0.05785344633615841</v>
-      </c>
-      <c r="G12">
-        <v>-0.003881881669681422</v>
+        <v>0.1687197179929498</v>
       </c>
       <c r="H12">
-        <v>0.05946898672466813</v>
+        <v>-0.08404860121503038</v>
       </c>
       <c r="I12">
-        <v>-0.06612465311632792</v>
+        <v>0.5283537088427211</v>
       </c>
       <c r="J12">
-        <v>0.5283537088427211</v>
-      </c>
-      <c r="K12">
-        <v>-0.02064501612540313</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>0.01925598139953499</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13">
-        <v>-0.2452381309532738</v>
+        <v>-0.3364254106352659</v>
       </c>
       <c r="D13">
-        <v>-0.000475511887797195</v>
+        <v>0.001074026850671267</v>
       </c>
       <c r="E13">
         <v>-0.008041701042526064</v>
       </c>
       <c r="F13">
-        <v>-0.03633990849771244</v>
-      </c>
-      <c r="G13">
-        <v>0.01312861104015852</v>
+        <v>0.01932798319957999</v>
       </c>
       <c r="H13">
-        <v>-0.00301057526438161</v>
+        <v>0.04852771319282983</v>
       </c>
       <c r="I13">
-        <v>0.05337283432085803</v>
+        <v>0.004314107852696318</v>
       </c>
       <c r="J13">
-        <v>0.004314107852696318</v>
-      </c>
-      <c r="K13">
-        <v>0.006396159903997601</v>
+        <v>0.03407335183379585</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="C1:K1"/>
+    <mergeCell ref="C1:J1"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A11:A13"/>
   </mergeCells>

--- a/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_1.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>Element</t>
   </si>
@@ -67,7 +67,10 @@
     <t>biorefinery</t>
   </si>
   <si>
-    <t>Lipid content [dry wt. %]</t>
+    <t>Cane lipid content [dry wt. %]</t>
+  </si>
+  <si>
+    <t>Relative sorghum lipid content [dry wt. %]</t>
   </si>
   <si>
     <t>Lipid retention [%]</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -515,25 +518,19 @@
         <v>17</v>
       </c>
       <c r="C4">
-        <v>0.3558658966474162</v>
-      </c>
-      <c r="D4">
-        <v>0.9535798394959876</v>
+        <v>-0.1221694443563052</v>
       </c>
       <c r="E4">
-        <v>-0.9746238655966399</v>
+        <v>-0.2105447891250356</v>
       </c>
       <c r="F4">
-        <v>0.9023400585014626</v>
+        <v>0.07872374125458387</v>
       </c>
       <c r="H4">
-        <v>0.6878151953798847</v>
-      </c>
-      <c r="I4">
-        <v>-0.06124653116327909</v>
+        <v>-0.1218682693922388</v>
       </c>
       <c r="J4">
-        <v>0.5722403060076502</v>
+        <v>-0.0362195254164425</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -542,25 +539,19 @@
         <v>18</v>
       </c>
       <c r="C5">
-        <v>0.01585239630990775</v>
-      </c>
-      <c r="D5">
-        <v>0.06031350783769595</v>
+        <v>0.02762625626147606</v>
       </c>
       <c r="E5">
-        <v>-0.04262056551413786</v>
+        <v>-0.02517104561379097</v>
       </c>
       <c r="F5">
-        <v>0.1866481662041551</v>
+        <v>0.01545272093409461</v>
       </c>
       <c r="H5">
-        <v>0.1701027525688142</v>
-      </c>
-      <c r="I5">
-        <v>0.1361659041476037</v>
+        <v>-0.06774445672438328</v>
       </c>
       <c r="J5">
-        <v>0.118631965799145</v>
+        <v>-0.01579366211432677</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -569,25 +560,19 @@
         <v>19</v>
       </c>
       <c r="C6">
-        <v>0.06752268806720169</v>
-      </c>
-      <c r="D6">
-        <v>0.1881962049051226</v>
+        <v>0.05954993016362617</v>
       </c>
       <c r="E6">
-        <v>-0.01302932573314333</v>
+        <v>0.09336726656346749</v>
       </c>
       <c r="F6">
-        <v>-0.09484137103427587</v>
+        <v>0.00470592787612138</v>
       </c>
       <c r="H6">
-        <v>-0.087107177679442</v>
-      </c>
-      <c r="I6">
-        <v>-0.06355658891472288</v>
+        <v>-0.03114748099302703</v>
       </c>
       <c r="J6">
-        <v>-0.1515577889447237</v>
+        <v>-0.01481752154144417</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -596,168 +581,132 @@
         <v>20</v>
       </c>
       <c r="C7">
-        <v>0.06601215030375761</v>
-      </c>
-      <c r="D7">
-        <v>0.08183754593864848</v>
+        <v>0.06568909822173195</v>
       </c>
       <c r="E7">
-        <v>0.2422320558013951</v>
+        <v>0.0684313311974136</v>
       </c>
       <c r="F7">
-        <v>0.242017550438761</v>
+        <v>0.04970176603052903</v>
       </c>
       <c r="H7">
-        <v>0.6335963399084977</v>
-      </c>
-      <c r="I7">
-        <v>0.7776224405610143</v>
+        <v>-0.1178816639905893</v>
       </c>
       <c r="J7">
-        <v>-0.3276561914047852</v>
+        <v>-0.03513943642980868</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C8">
-        <v>0.5264936623415586</v>
-      </c>
-      <c r="D8">
-        <v>0.04685817145428636</v>
+        <v>0.001841750417431737</v>
       </c>
       <c r="E8">
-        <v>-0.02640666016650417</v>
+        <v>0.009283292509133775</v>
       </c>
       <c r="F8">
-        <v>0.06905572639315984</v>
+        <v>0.06453240305017129</v>
       </c>
       <c r="H8">
-        <v>0.06849771244281108</v>
-      </c>
-      <c r="I8">
-        <v>0.02759318982974574</v>
+        <v>-0.08367850717379995</v>
       </c>
       <c r="J8">
-        <v>-0.004944123603090078</v>
+        <v>-0.0722449596540839</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9">
-        <v>0.5479936998424961</v>
-      </c>
-      <c r="D9">
-        <v>-0.09268431710792772</v>
+        <v>-0.02025925459174911</v>
       </c>
       <c r="E9">
-        <v>0.07976299407485186</v>
+        <v>-0.09391585714152066</v>
       </c>
       <c r="F9">
-        <v>-0.09442136053401337</v>
+        <v>0.01568512209458814</v>
       </c>
       <c r="H9">
-        <v>-0.04297607440186005</v>
-      </c>
-      <c r="I9">
-        <v>-0.01898597464936624</v>
+        <v>0.01848869440733945</v>
       </c>
       <c r="J9">
-        <v>0.002896572414310358</v>
+        <v>-0.02711429404942112</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C10">
-        <v>0.07757893947348685</v>
-      </c>
-      <c r="D10">
-        <v>0.02118652966324159</v>
+        <v>0.1074354410168513</v>
       </c>
       <c r="E10">
-        <v>-0.04279906997674943</v>
+        <v>0.09596772839449881</v>
       </c>
       <c r="F10">
-        <v>0.006670666766669168</v>
+        <v>-0.08779834145068958</v>
       </c>
       <c r="H10">
-        <v>-0.008301207530188256</v>
-      </c>
-      <c r="I10">
-        <v>-0.0102377559438986</v>
+        <v>0.07650942158728057</v>
       </c>
       <c r="J10">
-        <v>-0.001057526438160954</v>
+        <v>0.08050317386842927</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C11">
-        <v>0.1060571514287857</v>
-      </c>
-      <c r="D11">
-        <v>0.08260406510162754</v>
+        <v>0.1074354410168513</v>
       </c>
       <c r="E11">
-        <v>-0.03649891247281183</v>
+        <v>0.1396911099206339</v>
       </c>
       <c r="F11">
-        <v>0.08135303382584565</v>
+        <v>-0.02825356465299545</v>
       </c>
       <c r="H11">
-        <v>0.1111797794944874</v>
-      </c>
-      <c r="I11">
-        <v>0.09863796594914874</v>
+        <v>0.1161064029350837</v>
       </c>
       <c r="J11">
-        <v>-0.01653041326033151</v>
+        <v>-0.008521333636653165</v>
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="B12" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C12">
-        <v>0.1327068176704418</v>
-      </c>
-      <c r="D12">
-        <v>0.108308707717693</v>
+        <v>-0.05954993016362617</v>
       </c>
       <c r="E12">
-        <v>0.1292282307057677</v>
+        <v>-0.01662158205971535</v>
       </c>
       <c r="F12">
-        <v>0.1687197179929498</v>
+        <v>0.1387294078958157</v>
       </c>
       <c r="H12">
-        <v>-0.08404860121503038</v>
-      </c>
-      <c r="I12">
-        <v>0.5283537088427211</v>
+        <v>-0.08777954577937573</v>
       </c>
       <c r="J12">
-        <v>0.01925598139953499</v>
+        <v>-0.02743263606653426</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -766,32 +715,47 @@
         <v>25</v>
       </c>
       <c r="C13">
-        <v>-0.3364254106352659</v>
-      </c>
-      <c r="D13">
-        <v>0.001074026850671267</v>
+        <v>-0.01289225292202216</v>
       </c>
       <c r="E13">
-        <v>-0.008041701042526064</v>
+        <v>0.01694931149595491</v>
       </c>
       <c r="F13">
-        <v>0.01932798319957999</v>
+        <v>-0.04956795930176004</v>
       </c>
       <c r="H13">
-        <v>0.04852771319282983</v>
-      </c>
-      <c r="I13">
-        <v>0.004314107852696318</v>
+        <v>0.082577474184671</v>
       </c>
       <c r="J13">
-        <v>0.03407335183379585</v>
+        <v>0.02265588161587249</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14">
+        <v>-0.01780358736850679</v>
+      </c>
+      <c r="E14">
+        <v>-0.03805223736859823</v>
+      </c>
+      <c r="F14">
+        <v>0.08648218403671616</v>
+      </c>
+      <c r="H14">
+        <v>-0.003321655703158676</v>
+      </c>
+      <c r="J14">
+        <v>-0.04003069655499328</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="C1:J1"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A12:A14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_1.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>Element</t>
   </si>
@@ -28,16 +28,16 @@
     <t>MFPP [USD/ton]</t>
   </si>
   <si>
-    <t>Biodiesel production [MMGal/yr]</t>
-  </si>
-  <si>
-    <t>Ethanol production [MMGal/yr]</t>
-  </si>
-  <si>
-    <t>Electricity production [MMWhr/yr]</t>
-  </si>
-  <si>
-    <t>Natural gas consumption [MMcf/yr]</t>
+    <t>Biodiesel production [Gal/ton]</t>
+  </si>
+  <si>
+    <t>Ethanol production [Gal/ton]</t>
+  </si>
+  <si>
+    <t>Electricity production [kWhr/ton]</t>
+  </si>
+  <si>
+    <t>Natural gas consumption [cf/ton]</t>
   </si>
   <si>
     <t>TCI [10^6*USD]</t>
@@ -47,6 +47,24 @@
   </si>
   <si>
     <t>Heat exchanger network error [%]</t>
+  </si>
+  <si>
+    <t>MFPP derivative [USD/ton]</t>
+  </si>
+  <si>
+    <t>Biodiesel production derivative [Gal/ton]</t>
+  </si>
+  <si>
+    <t>Ethanol production derivative [Gal/ton]</t>
+  </si>
+  <si>
+    <t>Electricity production derivative [kWhr/ton]</t>
+  </si>
+  <si>
+    <t>Natural gas consumption derivative [cf/ton]</t>
+  </si>
+  <si>
+    <t>TCI derivative [10^6*USD]</t>
   </si>
   <si>
     <t>Parameter</t>
@@ -452,13 +470,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -472,8 +490,14 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+    </row>
+    <row r="2" spans="1:16">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -501,259 +525,508 @@
       <c r="J2" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C4">
-        <v>-0.1221694443563052</v>
+        <v>0.3767560247560248</v>
+      </c>
+      <c r="D4">
+        <v>0.9797517677517679</v>
       </c>
       <c r="E4">
-        <v>-0.2105447891250356</v>
+        <v>-0.999809727809728</v>
       </c>
       <c r="F4">
-        <v>0.07872374125458387</v>
+        <v>0.9811925131925133</v>
       </c>
       <c r="H4">
-        <v>-0.1218682693922388</v>
+        <v>0.7023654303654304</v>
+      </c>
+      <c r="I4">
+        <v>-0.04342405942405943</v>
       </c>
       <c r="J4">
-        <v>-0.0362195254164425</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>0.566283657079061</v>
+      </c>
+      <c r="K4">
+        <v>-0.05018360618360618</v>
+      </c>
+      <c r="L4">
+        <v>-0.00742822342822343</v>
+      </c>
+      <c r="M4">
+        <v>-0.1641305841305842</v>
+      </c>
+      <c r="N4">
+        <v>-0.3845258285258286</v>
+      </c>
+      <c r="P4">
+        <v>-0.7755159555159556</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C5">
-        <v>0.02762625626147606</v>
+        <v>0.05782232182232182</v>
+      </c>
+      <c r="D5">
+        <v>0.003121695121695122</v>
       </c>
       <c r="E5">
-        <v>-0.02517104561379097</v>
+        <v>-0.0001463401463401463</v>
       </c>
       <c r="F5">
-        <v>0.01545272093409461</v>
+        <v>0.004088356088356089</v>
       </c>
       <c r="H5">
-        <v>-0.06774445672438328</v>
+        <v>0.03378717378717379</v>
+      </c>
+      <c r="I5">
+        <v>0.008772572772572774</v>
       </c>
       <c r="J5">
-        <v>-0.01579366211432677</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>-0.0331249895224894</v>
+      </c>
+      <c r="K5">
+        <v>-0.002283626283626284</v>
+      </c>
+      <c r="L5">
+        <v>0.0047003087003087</v>
+      </c>
+      <c r="M5">
+        <v>-0.06898308898308898</v>
+      </c>
+      <c r="N5">
+        <v>0.0008333048333048334</v>
+      </c>
+      <c r="P5">
+        <v>-0.01261608061608062</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C6">
-        <v>0.05954993016362617</v>
+        <v>-0.01227427227427227</v>
+      </c>
+      <c r="D6">
+        <v>-0.0464036864036864</v>
       </c>
       <c r="E6">
-        <v>0.09336726656346749</v>
+        <v>-0.009864237864237865</v>
       </c>
       <c r="F6">
-        <v>0.00470592787612138</v>
+        <v>0.0608023328023328</v>
       </c>
       <c r="H6">
-        <v>-0.03114748099302703</v>
+        <v>0.0637869037869038</v>
+      </c>
+      <c r="I6">
+        <v>0.06633054633054633</v>
       </c>
       <c r="J6">
-        <v>-0.01481752154144417</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>-0.03706230750705521</v>
+      </c>
+      <c r="K6">
+        <v>-0.001797625797625798</v>
+      </c>
+      <c r="L6">
+        <v>-0.2680804720804721</v>
+      </c>
+      <c r="M6">
+        <v>0.0321008361008361</v>
+      </c>
+      <c r="N6">
+        <v>0.1294167694167694</v>
+      </c>
+      <c r="P6">
+        <v>0.07448769848769848</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C7">
-        <v>0.06568909822173195</v>
+        <v>0.07268012468012469</v>
+      </c>
+      <c r="D7">
+        <v>0.1786286386286386</v>
       </c>
       <c r="E7">
-        <v>0.0684313311974136</v>
+        <v>0.003262983262983263</v>
       </c>
       <c r="F7">
-        <v>0.04970176603052903</v>
+        <v>-0.1462887622887623</v>
       </c>
       <c r="H7">
-        <v>-0.1178816639905893</v>
+        <v>-0.1109352869352869</v>
+      </c>
+      <c r="I7">
+        <v>-0.03785164985164986</v>
       </c>
       <c r="J7">
-        <v>-0.03513943642980868</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>-0.05044521905056169</v>
+      </c>
+      <c r="K7">
+        <v>0.07714465714465714</v>
+      </c>
+      <c r="L7">
+        <v>0.9664722184722186</v>
+      </c>
+      <c r="M7">
+        <v>0.01621368421368422</v>
+      </c>
+      <c r="N7">
+        <v>-0.4662998022998023</v>
+      </c>
+      <c r="P7">
+        <v>-0.1845377445377445</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8">
+        <v>0.08454612054612055</v>
+      </c>
+      <c r="D8">
+        <v>-0.03636408036408037</v>
+      </c>
+      <c r="E8">
+        <v>0.03341282141282142</v>
+      </c>
+      <c r="F8">
+        <v>0.05334910134910135</v>
+      </c>
+      <c r="H8">
+        <v>0.6669421389421391</v>
+      </c>
+      <c r="I8">
+        <v>0.7924959484959485</v>
+      </c>
+      <c r="J8">
+        <v>-0.1293193788712114</v>
+      </c>
+      <c r="K8">
+        <v>-0.07918137118137118</v>
+      </c>
+      <c r="L8">
+        <v>-0.05037201837201838</v>
+      </c>
+      <c r="M8">
+        <v>-0.4386526746526747</v>
+      </c>
+      <c r="N8">
+        <v>0.1036457596457596</v>
+      </c>
+      <c r="P8">
+        <v>0.1226061866061866</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9">
+        <v>0.522921666921667</v>
+      </c>
+      <c r="D9">
+        <v>-0.002814878814878815</v>
+      </c>
+      <c r="E9">
+        <v>-0.01093090693090693</v>
+      </c>
+      <c r="F9">
+        <v>0.01531976731976732</v>
+      </c>
+      <c r="H9">
+        <v>0.001007821007821008</v>
+      </c>
+      <c r="I9">
+        <v>-0.01146227946227946</v>
+      </c>
+      <c r="J9">
+        <v>0.01372860189334511</v>
+      </c>
+      <c r="K9">
+        <v>-0.5425558345558346</v>
+      </c>
+      <c r="L9">
+        <v>-0.05474808674808675</v>
+      </c>
+      <c r="M9">
+        <v>0.02763663963663963</v>
+      </c>
+      <c r="N9">
+        <v>0.05370875370875371</v>
+      </c>
+      <c r="P9">
+        <v>0.004856320856320856</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10">
+        <v>0.5656253416253416</v>
+      </c>
+      <c r="D10">
+        <v>-0.002925974925974926</v>
+      </c>
+      <c r="E10">
+        <v>0.002422694422694423</v>
+      </c>
+      <c r="F10">
+        <v>7.612807612807612E-05</v>
+      </c>
+      <c r="H10">
+        <v>0.01136992736992737</v>
+      </c>
+      <c r="I10">
+        <v>0.04357605157605158</v>
+      </c>
+      <c r="J10">
+        <v>0.01405508022374119</v>
+      </c>
+      <c r="K10">
+        <v>0.6644736884736885</v>
+      </c>
+      <c r="L10">
+        <v>-0.001876501876501877</v>
+      </c>
+      <c r="M10">
+        <v>0.007783015783015783</v>
+      </c>
+      <c r="N10">
+        <v>0.007193947193947193</v>
+      </c>
+      <c r="P10">
+        <v>0.002210906210906211</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C8">
-        <v>0.001841750417431737</v>
-      </c>
-      <c r="E8">
-        <v>0.009283292509133775</v>
-      </c>
-      <c r="F8">
-        <v>0.06453240305017129</v>
-      </c>
-      <c r="H8">
-        <v>-0.08367850717379995</v>
-      </c>
-      <c r="J8">
-        <v>-0.0722449596540839</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="B11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11">
+        <v>0.009789357789357789</v>
+      </c>
+      <c r="D11">
+        <v>0.06912362112362112</v>
+      </c>
+      <c r="E11">
+        <v>-0.06967144567144568</v>
+      </c>
+      <c r="F11">
+        <v>0.06436528036528037</v>
+      </c>
+      <c r="H11">
+        <v>0.02242805842805843</v>
+      </c>
+      <c r="I11">
+        <v>-0.05375321375321376</v>
+      </c>
+      <c r="J11">
+        <v>0.07077260362187487</v>
+      </c>
+      <c r="K11">
+        <v>0.0343912543912544</v>
+      </c>
+      <c r="L11">
+        <v>-0.006750966750966751</v>
+      </c>
+      <c r="M11">
+        <v>-0.01024303024303024</v>
+      </c>
+      <c r="N11">
+        <v>-0.02838304038304038</v>
+      </c>
+      <c r="P11">
+        <v>-0.05964584364584365</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C9">
-        <v>-0.02025925459174911</v>
-      </c>
-      <c r="E9">
-        <v>-0.09391585714152066</v>
-      </c>
-      <c r="F9">
-        <v>0.01568512209458814</v>
-      </c>
-      <c r="H9">
-        <v>0.01848869440733945</v>
-      </c>
-      <c r="J9">
-        <v>-0.02711429404942112</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10">
-        <v>0.1074354410168513</v>
-      </c>
-      <c r="E10">
-        <v>0.09596772839449881</v>
-      </c>
-      <c r="F10">
-        <v>-0.08779834145068958</v>
-      </c>
-      <c r="H10">
-        <v>0.07650942158728057</v>
-      </c>
-      <c r="J10">
-        <v>0.08050317386842927</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11">
-        <v>0.1074354410168513</v>
-      </c>
-      <c r="E11">
-        <v>0.1396911099206339</v>
-      </c>
-      <c r="F11">
-        <v>-0.02825356465299545</v>
-      </c>
-      <c r="H11">
-        <v>0.1161064029350837</v>
-      </c>
-      <c r="J11">
-        <v>-0.008521333636653165</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="B12" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C12">
-        <v>-0.05954993016362617</v>
+        <v>0.07200734400734402</v>
+      </c>
+      <c r="D12">
+        <v>-0.006205110205110206</v>
       </c>
       <c r="E12">
-        <v>-0.01662158205971535</v>
+        <v>0.006666618666618667</v>
       </c>
       <c r="F12">
-        <v>0.1387294078958157</v>
+        <v>-0.001073005073005073</v>
       </c>
       <c r="H12">
-        <v>-0.08777954577937573</v>
+        <v>-0.009993153993153994</v>
+      </c>
+      <c r="I12">
+        <v>-0.02742773142773143</v>
       </c>
       <c r="J12">
-        <v>-0.02743263606653426</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>-0.02829113863063229</v>
+      </c>
+      <c r="K12">
+        <v>-0.006374130374130376</v>
+      </c>
+      <c r="L12">
+        <v>-0.01794317394317394</v>
+      </c>
+      <c r="M12">
+        <v>0.01156076356076356</v>
+      </c>
+      <c r="N12">
+        <v>-0.05498971898971899</v>
+      </c>
+      <c r="P12">
+        <v>0.005248361248361248</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C13">
-        <v>-0.01289225292202216</v>
+        <v>0.1438960678960679</v>
+      </c>
+      <c r="D13">
+        <v>-0.03414737814737815</v>
       </c>
       <c r="E13">
-        <v>0.01694931149595491</v>
+        <v>0.02966927366927367</v>
       </c>
       <c r="F13">
-        <v>-0.04956795930176004</v>
+        <v>-0.02436472836472837</v>
       </c>
       <c r="H13">
-        <v>0.082577474184671</v>
+        <v>-0.03022965022965023</v>
+      </c>
+      <c r="I13">
+        <v>0.5802783162783164</v>
       </c>
       <c r="J13">
-        <v>0.02265588161587249</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>-0.01741822762724636</v>
+      </c>
+      <c r="K13">
+        <v>0.05467861867861869</v>
+      </c>
+      <c r="L13">
+        <v>-0.01866330666330666</v>
+      </c>
+      <c r="M13">
+        <v>-0.009561801561801562</v>
+      </c>
+      <c r="N13">
+        <v>-0.0004937884937884938</v>
+      </c>
+      <c r="P13">
+        <v>0.03583814383814384</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C14">
-        <v>-0.01780358736850679</v>
+        <v>-0.3623032823032823</v>
+      </c>
+      <c r="D14">
+        <v>-0.04601463401463401</v>
       </c>
       <c r="E14">
-        <v>-0.03805223736859823</v>
+        <v>0.05125563925563926</v>
       </c>
       <c r="F14">
-        <v>0.08648218403671616</v>
+        <v>-0.06172610572610573</v>
       </c>
       <c r="H14">
-        <v>-0.003321655703158676</v>
+        <v>-0.05878898278898279</v>
+      </c>
+      <c r="I14">
+        <v>-0.02457429657429657</v>
       </c>
       <c r="J14">
-        <v>-0.04003069655499328</v>
+        <v>-0.02423052052128677</v>
+      </c>
+      <c r="K14">
+        <v>-0.04656961056961058</v>
+      </c>
+      <c r="L14">
+        <v>0.01556239556239556</v>
+      </c>
+      <c r="M14">
+        <v>0.007796671796671799</v>
+      </c>
+      <c r="N14">
+        <v>0.04955298155298156</v>
+      </c>
+      <c r="P14">
+        <v>0.0389036069036069</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="C1:P1"/>
     <mergeCell ref="A4:A8"/>
     <mergeCell ref="A12:A14"/>
   </mergeCells>

--- a/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_1.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_1.xlsx
@@ -560,40 +560,40 @@
         <v>23</v>
       </c>
       <c r="C4">
-        <v>0.3767560247560248</v>
+        <v>0.4302910291029102</v>
       </c>
       <c r="D4">
-        <v>0.9797517677517679</v>
+        <v>0.9818301830183017</v>
       </c>
       <c r="E4">
-        <v>-0.999809727809728</v>
+        <v>-0.9999879987998799</v>
       </c>
       <c r="F4">
-        <v>0.9811925131925133</v>
+        <v>0.9783978397839782</v>
       </c>
       <c r="H4">
-        <v>0.7023654303654304</v>
+        <v>0.7083228322832282</v>
       </c>
       <c r="I4">
-        <v>-0.04342405942405943</v>
+        <v>-0.01120912091209121</v>
       </c>
       <c r="J4">
-        <v>0.566283657079061</v>
+        <v>-0.1741974197419742</v>
       </c>
       <c r="K4">
-        <v>-0.05018360618360618</v>
+        <v>0.1503150315031503</v>
       </c>
       <c r="L4">
-        <v>-0.00742822342822343</v>
+        <v>-0.0722112211221122</v>
       </c>
       <c r="M4">
-        <v>-0.1641305841305842</v>
+        <v>-0.08854485448544852</v>
       </c>
       <c r="N4">
-        <v>-0.3845258285258286</v>
+        <v>0.2058205820582058</v>
       </c>
       <c r="P4">
-        <v>-0.7755159555159556</v>
+        <v>-0.06069006900690068</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -602,40 +602,40 @@
         <v>24</v>
       </c>
       <c r="C5">
-        <v>0.05782232182232182</v>
+        <v>-0.04244824482448245</v>
       </c>
       <c r="D5">
-        <v>0.003121695121695122</v>
+        <v>-0.1724452445244524</v>
       </c>
       <c r="E5">
-        <v>-0.0001463401463401463</v>
+        <v>0.1723372337233723</v>
       </c>
       <c r="F5">
-        <v>0.004088356088356089</v>
+        <v>-0.1661326132613261</v>
       </c>
       <c r="H5">
-        <v>0.03378717378717379</v>
+        <v>-0.1723852385238524</v>
       </c>
       <c r="I5">
-        <v>0.008772572772572774</v>
+        <v>-0.1615121512151215</v>
       </c>
       <c r="J5">
-        <v>-0.0331249895224894</v>
+        <v>0.1104950495049505</v>
       </c>
       <c r="K5">
-        <v>-0.002283626283626284</v>
+        <v>0.1734893489348935</v>
       </c>
       <c r="L5">
-        <v>0.0047003087003087</v>
+        <v>-0.02035403540354035</v>
       </c>
       <c r="M5">
-        <v>-0.06898308898308898</v>
+        <v>-0.07474347434743474</v>
       </c>
       <c r="N5">
-        <v>0.0008333048333048334</v>
+        <v>-0.006396639663966396</v>
       </c>
       <c r="P5">
-        <v>-0.01261608061608062</v>
+        <v>0.03697569756975697</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -644,40 +644,40 @@
         <v>25</v>
       </c>
       <c r="C6">
-        <v>-0.01227427227427227</v>
+        <v>0.1437743774377438</v>
       </c>
       <c r="D6">
-        <v>-0.0464036864036864</v>
+        <v>0.09165316531653164</v>
       </c>
       <c r="E6">
-        <v>-0.009864237864237865</v>
+        <v>-0.1153675367536754</v>
       </c>
       <c r="F6">
-        <v>0.0608023328023328</v>
+        <v>0.1654725472547255</v>
       </c>
       <c r="H6">
-        <v>0.0637869037869038</v>
+        <v>0.09804980498049803</v>
       </c>
       <c r="I6">
-        <v>0.06633054633054633</v>
+        <v>-0.05526552655265525</v>
       </c>
       <c r="J6">
-        <v>-0.03706230750705521</v>
+        <v>0.1964476447644764</v>
       </c>
       <c r="K6">
-        <v>-0.001797625797625798</v>
+        <v>-0.04043204320432043</v>
       </c>
       <c r="L6">
-        <v>-0.2680804720804721</v>
+        <v>-0.1233483348334833</v>
       </c>
       <c r="M6">
-        <v>0.0321008361008361</v>
+        <v>-0.05747374737473747</v>
       </c>
       <c r="N6">
-        <v>0.1294167694167694</v>
+        <v>-0.06136213621362136</v>
       </c>
       <c r="P6">
-        <v>0.07448769848769848</v>
+        <v>-0.03842784278427842</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -686,40 +686,40 @@
         <v>26</v>
       </c>
       <c r="C7">
-        <v>0.07268012468012469</v>
+        <v>0.1685208520852085</v>
       </c>
       <c r="D7">
-        <v>0.1786286386286386</v>
+        <v>0.1241284128412841</v>
       </c>
       <c r="E7">
-        <v>0.003262983262983263</v>
+        <v>0.04049204920492049</v>
       </c>
       <c r="F7">
-        <v>-0.1462887622887623</v>
+        <v>-0.154035403540354</v>
       </c>
       <c r="H7">
-        <v>-0.1109352869352869</v>
+        <v>-0.08687668766876687</v>
       </c>
       <c r="I7">
-        <v>-0.03785164985164986</v>
+        <v>0.004116411641164116</v>
       </c>
       <c r="J7">
-        <v>-0.05044521905056169</v>
+        <v>0.1304530453045304</v>
       </c>
       <c r="K7">
-        <v>0.07714465714465714</v>
+        <v>0.2242184218421842</v>
       </c>
       <c r="L7">
-        <v>0.9664722184722186</v>
+        <v>0.9638283828382838</v>
       </c>
       <c r="M7">
-        <v>0.01621368421368422</v>
+        <v>-0.01608160816081608</v>
       </c>
       <c r="N7">
-        <v>-0.4662998022998023</v>
+        <v>-0.644044404440444</v>
       </c>
       <c r="P7">
-        <v>-0.1845377445377445</v>
+        <v>-0.1844824482448245</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -728,40 +728,40 @@
         <v>27</v>
       </c>
       <c r="C8">
-        <v>0.08454612054612055</v>
+        <v>0.0814161416141614</v>
       </c>
       <c r="D8">
-        <v>-0.03636408036408037</v>
+        <v>-0.05588958895889588</v>
       </c>
       <c r="E8">
-        <v>0.03341282141282142</v>
+        <v>0.06711071107110711</v>
       </c>
       <c r="F8">
-        <v>0.05334910134910135</v>
+        <v>0.01669366936693669</v>
       </c>
       <c r="H8">
-        <v>0.6669421389421391</v>
+        <v>0.638163816381638</v>
       </c>
       <c r="I8">
-        <v>0.7924959484959485</v>
+        <v>0.7969636963696368</v>
       </c>
       <c r="J8">
-        <v>-0.1293193788712114</v>
+        <v>-0.07981998199819981</v>
       </c>
       <c r="K8">
-        <v>-0.07918137118137118</v>
+        <v>0.02159015901590159</v>
       </c>
       <c r="L8">
-        <v>-0.05037201837201838</v>
+        <v>0.004872487248724872</v>
       </c>
       <c r="M8">
-        <v>-0.4386526746526747</v>
+        <v>0.4324872487248725</v>
       </c>
       <c r="N8">
-        <v>0.1036457596457596</v>
+        <v>0.117995799579958</v>
       </c>
       <c r="P8">
-        <v>0.1226061866061866</v>
+        <v>0.2530573057305731</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -772,40 +772,40 @@
         <v>28</v>
       </c>
       <c r="C9">
-        <v>0.522921666921667</v>
+        <v>0.4402880288028803</v>
       </c>
       <c r="D9">
-        <v>-0.002814878814878815</v>
+        <v>0.02558655865586558</v>
       </c>
       <c r="E9">
-        <v>-0.01093090693090693</v>
+        <v>-0.04106810681068106</v>
       </c>
       <c r="F9">
-        <v>0.01531976731976732</v>
+        <v>0.03251125112511251</v>
       </c>
       <c r="H9">
-        <v>0.001007821007821008</v>
+        <v>0.02144614461446144</v>
       </c>
       <c r="I9">
-        <v>-0.01146227946227946</v>
+        <v>0.1024542454245424</v>
       </c>
       <c r="J9">
-        <v>0.01372860189334511</v>
+        <v>-0.09371737173717372</v>
       </c>
       <c r="K9">
-        <v>-0.5425558345558346</v>
+        <v>-0.6194179417941794</v>
       </c>
       <c r="L9">
-        <v>-0.05474808674808675</v>
+        <v>-0.03203120312031203</v>
       </c>
       <c r="M9">
-        <v>0.02763663963663963</v>
+        <v>-0.06874287428742873</v>
       </c>
       <c r="N9">
-        <v>0.05370875370875371</v>
+        <v>0.08735673567356733</v>
       </c>
       <c r="P9">
-        <v>0.004856320856320856</v>
+        <v>-0.05572157215721572</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -816,40 +816,40 @@
         <v>28</v>
       </c>
       <c r="C10">
-        <v>0.5656253416253416</v>
+        <v>0.484032403240324</v>
       </c>
       <c r="D10">
-        <v>-0.002925974925974926</v>
+        <v>-0.05312931293129312</v>
       </c>
       <c r="E10">
-        <v>0.002422694422694423</v>
+        <v>0.06724272427242724</v>
       </c>
       <c r="F10">
-        <v>7.612807612807612E-05</v>
+        <v>-0.0594059405940594</v>
       </c>
       <c r="H10">
-        <v>0.01136992736992737</v>
+        <v>-0.00936093609360936</v>
       </c>
       <c r="I10">
-        <v>0.04357605157605158</v>
+        <v>-0.05666966696669666</v>
       </c>
       <c r="J10">
-        <v>0.01405508022374119</v>
+        <v>-0.03473147314731473</v>
       </c>
       <c r="K10">
-        <v>0.6644736884736885</v>
+        <v>0.5953195319531953</v>
       </c>
       <c r="L10">
-        <v>-0.001876501876501877</v>
+        <v>0.07278727872787277</v>
       </c>
       <c r="M10">
-        <v>0.007783015783015783</v>
+        <v>0.04853285328532853</v>
       </c>
       <c r="N10">
-        <v>0.007193947193947193</v>
+        <v>0.01035703570357036</v>
       </c>
       <c r="P10">
-        <v>0.002210906210906211</v>
+        <v>-0.01855385538553855</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -860,40 +860,40 @@
         <v>29</v>
       </c>
       <c r="C11">
-        <v>0.009789357789357789</v>
+        <v>-0.1516471647164716</v>
       </c>
       <c r="D11">
-        <v>0.06912362112362112</v>
+        <v>0.07734773477347733</v>
       </c>
       <c r="E11">
-        <v>-0.06967144567144568</v>
+        <v>-0.09911791179117913</v>
       </c>
       <c r="F11">
-        <v>0.06436528036528037</v>
+        <v>0.1065826582658266</v>
       </c>
       <c r="H11">
-        <v>0.02242805842805843</v>
+        <v>-0.05977797779777976</v>
       </c>
       <c r="I11">
-        <v>-0.05375321375321376</v>
+        <v>-0.1155475547554755</v>
       </c>
       <c r="J11">
-        <v>0.07077260362187487</v>
+        <v>0.04516051605160516</v>
       </c>
       <c r="K11">
-        <v>0.0343912543912544</v>
+        <v>-0.07468346834683467</v>
       </c>
       <c r="L11">
-        <v>-0.006750966750966751</v>
+        <v>-0.1444944494449445</v>
       </c>
       <c r="M11">
-        <v>-0.01024303024303024</v>
+        <v>-0.01642964296429643</v>
       </c>
       <c r="N11">
-        <v>-0.02838304038304038</v>
+        <v>0.0372997299729973</v>
       </c>
       <c r="P11">
-        <v>-0.05964584364584365</v>
+        <v>0.000204020402040204</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -904,40 +904,40 @@
         <v>30</v>
       </c>
       <c r="C12">
-        <v>0.07200734400734402</v>
+        <v>-0.03000300030003</v>
       </c>
       <c r="D12">
-        <v>-0.006205110205110206</v>
+        <v>-0.1913831383138313</v>
       </c>
       <c r="E12">
-        <v>0.006666618666618667</v>
+        <v>0.1782058205820582</v>
       </c>
       <c r="F12">
-        <v>-0.001073005073005073</v>
+        <v>-0.1818541854185418</v>
       </c>
       <c r="H12">
-        <v>-0.009993153993153994</v>
+        <v>-0.1975397539753975</v>
       </c>
       <c r="I12">
-        <v>-0.02742773142773143</v>
+        <v>-0.1073267326732673</v>
       </c>
       <c r="J12">
-        <v>-0.02829113863063229</v>
+        <v>0.04489648964896489</v>
       </c>
       <c r="K12">
-        <v>-0.006374130374130376</v>
+        <v>0.04469246924692469</v>
       </c>
       <c r="L12">
-        <v>-0.01794317394317394</v>
+        <v>0.04136813681368137</v>
       </c>
       <c r="M12">
-        <v>0.01156076356076356</v>
+        <v>0.07413141314131412</v>
       </c>
       <c r="N12">
-        <v>-0.05498971898971899</v>
+        <v>-0.0101050105010501</v>
       </c>
       <c r="P12">
-        <v>0.005248361248361248</v>
+        <v>-0.08259225922592257</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -946,40 +946,40 @@
         <v>31</v>
       </c>
       <c r="C13">
-        <v>0.1438960678960679</v>
+        <v>0.2233303330333033</v>
       </c>
       <c r="D13">
-        <v>-0.03414737814737815</v>
+        <v>0.07692769276927691</v>
       </c>
       <c r="E13">
-        <v>0.02966927366927367</v>
+        <v>-0.08200420042004199</v>
       </c>
       <c r="F13">
-        <v>-0.02436472836472837</v>
+        <v>0.07575157515751575</v>
       </c>
       <c r="H13">
-        <v>-0.03022965022965023</v>
+        <v>0.03144314431443144</v>
       </c>
       <c r="I13">
-        <v>0.5802783162783164</v>
+        <v>0.564128412841284</v>
       </c>
       <c r="J13">
-        <v>-0.01741822762724636</v>
+        <v>0.05083708370837083</v>
       </c>
       <c r="K13">
-        <v>0.05467861867861869</v>
+        <v>-0.1886108610861086</v>
       </c>
       <c r="L13">
-        <v>-0.01866330666330666</v>
+        <v>-0.004908490849084907</v>
       </c>
       <c r="M13">
-        <v>-0.009561801561801562</v>
+        <v>0.1396939693969397</v>
       </c>
       <c r="N13">
-        <v>-0.0004937884937884938</v>
+        <v>-0.005880588058805879</v>
       </c>
       <c r="P13">
-        <v>0.03583814383814384</v>
+        <v>-0.114047404740474</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -988,40 +988,40 @@
         <v>32</v>
       </c>
       <c r="C14">
-        <v>-0.3623032823032823</v>
+        <v>-0.3244404440444044</v>
       </c>
       <c r="D14">
-        <v>-0.04601463401463401</v>
+        <v>-0.01903390339033903</v>
       </c>
       <c r="E14">
-        <v>0.05125563925563926</v>
+        <v>-0.003084308430843084</v>
       </c>
       <c r="F14">
-        <v>-0.06172610572610573</v>
+        <v>-0.003228322832283228</v>
       </c>
       <c r="H14">
-        <v>-0.05878898278898279</v>
+        <v>0.04126012601260126</v>
       </c>
       <c r="I14">
-        <v>-0.02457429657429657</v>
+        <v>-0.05876987698769877</v>
       </c>
       <c r="J14">
-        <v>-0.02423052052128677</v>
+        <v>-0.1136513651365136</v>
       </c>
       <c r="K14">
-        <v>-0.04656961056961058</v>
+        <v>-0.1269606960696069</v>
       </c>
       <c r="L14">
-        <v>0.01556239556239556</v>
+        <v>-0.1572397239723972</v>
       </c>
       <c r="M14">
-        <v>0.007796671796671799</v>
+        <v>0.0909210921092109</v>
       </c>
       <c r="N14">
-        <v>0.04955298155298156</v>
+        <v>0.09971797179717971</v>
       </c>
       <c r="P14">
-        <v>0.0389036069036069</v>
+        <v>-0.05868586858685867</v>
       </c>
     </row>
   </sheetData>

--- a/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_1.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
   <si>
     <t>Element</t>
   </si>
@@ -85,6 +85,24 @@
     <t>biorefinery</t>
   </si>
   <si>
+    <t>Stream-crude glycerol</t>
+  </si>
+  <si>
+    <t>Stream-pure glycerine</t>
+  </si>
+  <si>
+    <t>Stream-cellulase</t>
+  </si>
+  <si>
+    <t>Pretreatment reactor system</t>
+  </si>
+  <si>
+    <t>Pretreatment and saccharification</t>
+  </si>
+  <si>
+    <t>Cofermenation</t>
+  </si>
+  <si>
     <t>Cane lipid content [dry wt. %]</t>
   </si>
   <si>
@@ -113,6 +131,27 @@
   </si>
   <si>
     <t>IRR [%]</t>
+  </si>
+  <si>
+    <t>Price [USD/kg]</t>
+  </si>
+  <si>
+    <t>Cellulase loading [wt. % cellulose]</t>
+  </si>
+  <si>
+    <t>Base cost [million USD]</t>
+  </si>
+  <si>
+    <t>Glucose yield [%]</t>
+  </si>
+  <si>
+    <t>Xylose yield [%]</t>
+  </si>
+  <si>
+    <t>Glucose to ethanol yield [%]</t>
+  </si>
+  <si>
+    <t>Xylose to ethanol yield [%]</t>
   </si>
 </sst>
 </file>
@@ -470,7 +509,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -557,211 +596,211 @@
         <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C4">
-        <v>0.4302910291029102</v>
+        <v>0.3486610206024408</v>
       </c>
       <c r="D4">
-        <v>0.9818301830183017</v>
+        <v>0.9803523589900942</v>
       </c>
       <c r="E4">
-        <v>-0.9999879987998799</v>
+        <v>-0.9999971322878852</v>
       </c>
       <c r="F4">
-        <v>0.9783978397839782</v>
+        <v>0.9603281124611245</v>
       </c>
       <c r="H4">
-        <v>0.7083228322832282</v>
+        <v>0.3474862837234513</v>
       </c>
       <c r="I4">
-        <v>-0.01120912091209121</v>
+        <v>-0.01894716392588655</v>
       </c>
       <c r="J4">
-        <v>-0.1741974197419742</v>
+        <v>-0.1738375017804727</v>
       </c>
       <c r="K4">
-        <v>0.1503150315031503</v>
+        <v>0.1654197721847909</v>
       </c>
       <c r="L4">
-        <v>-0.0722112211221122</v>
+        <v>-0.02015946925437877</v>
       </c>
       <c r="M4">
-        <v>-0.08854485448544852</v>
+        <v>-0.3808344926093796</v>
       </c>
       <c r="N4">
-        <v>0.2058205820582058</v>
+        <v>0.2045579573023183</v>
       </c>
       <c r="P4">
-        <v>-0.06069006900690068</v>
+        <v>-0.1326448818497953</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C5">
-        <v>-0.04244824482448245</v>
+        <v>0.005349108501964339</v>
       </c>
       <c r="D5">
-        <v>-0.1724452445244524</v>
+        <v>-0.01411938805277552</v>
       </c>
       <c r="E5">
-        <v>0.1723372337233723</v>
+        <v>0.007769103478764138</v>
       </c>
       <c r="F5">
-        <v>-0.1661326132613261</v>
+        <v>-0.002326002141040085</v>
       </c>
       <c r="H5">
-        <v>-0.1723852385238524</v>
+        <v>-0.0004778683391147335</v>
       </c>
       <c r="I5">
-        <v>-0.1615121512151215</v>
+        <v>-0.00162593900903756</v>
       </c>
       <c r="J5">
-        <v>0.1104950495049505</v>
+        <v>0.007098927706779668</v>
       </c>
       <c r="K5">
-        <v>0.1734893489348935</v>
+        <v>0.009605336928213476</v>
       </c>
       <c r="L5">
-        <v>-0.02035403540354035</v>
+        <v>-0.01842566310502652</v>
       </c>
       <c r="M5">
-        <v>-0.07474347434743474</v>
+        <v>0.001891841739673669</v>
       </c>
       <c r="N5">
-        <v>-0.006396639663966396</v>
+        <v>0.01097233474289339</v>
       </c>
       <c r="P5">
-        <v>0.03697569756975697</v>
+        <v>-0.0002730643309225732</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C6">
-        <v>0.1437743774377438</v>
+        <v>-0.02542045532081821</v>
       </c>
       <c r="D6">
-        <v>0.09165316531653164</v>
+        <v>-0.02655531120621244</v>
       </c>
       <c r="E6">
-        <v>-0.1153675367536754</v>
+        <v>-0.02046478286659131</v>
       </c>
       <c r="F6">
-        <v>0.1654725472547255</v>
+        <v>0.05895996610239863</v>
       </c>
       <c r="H6">
-        <v>0.09804980498049803</v>
+        <v>0.01577479368699174</v>
       </c>
       <c r="I6">
-        <v>-0.05526552655265525</v>
+        <v>-0.002647487913899516</v>
       </c>
       <c r="J6">
-        <v>0.1964476447644764</v>
+        <v>-0.008125356293979995</v>
       </c>
       <c r="K6">
-        <v>-0.04043204320432043</v>
+        <v>-0.05681807881672314</v>
       </c>
       <c r="L6">
-        <v>-0.1233483348334833</v>
+        <v>-0.2331732237269289</v>
       </c>
       <c r="M6">
-        <v>-0.05747374737473747</v>
+        <v>-0.00482730652909226</v>
       </c>
       <c r="N6">
-        <v>-0.06136213621362136</v>
+        <v>0.1520461064018442</v>
       </c>
       <c r="P6">
-        <v>-0.03842784278427842</v>
+        <v>0.02308932869957314</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C7">
-        <v>0.1685208520852085</v>
+        <v>0.1096520102100804</v>
       </c>
       <c r="D7">
-        <v>0.1241284128412841</v>
+        <v>0.1652420382576815</v>
       </c>
       <c r="E7">
-        <v>0.04049204920492049</v>
+        <v>0.01566537806661512</v>
       </c>
       <c r="F7">
-        <v>-0.154035403540354</v>
+        <v>-0.1470257862010314</v>
       </c>
       <c r="H7">
-        <v>-0.08687668766876687</v>
+        <v>-0.0438646052425842</v>
       </c>
       <c r="I7">
-        <v>0.004116411641164116</v>
+        <v>-0.0005958812398352496</v>
       </c>
       <c r="J7">
-        <v>0.1304530453045304</v>
+        <v>0.08039389351161819</v>
       </c>
       <c r="K7">
-        <v>0.2242184218421842</v>
+        <v>0.1230824022992961</v>
       </c>
       <c r="L7">
-        <v>0.9638283828382838</v>
+        <v>0.9654484080259363</v>
       </c>
       <c r="M7">
-        <v>-0.01608160816081608</v>
+        <v>-0.007095883291835331</v>
       </c>
       <c r="N7">
-        <v>-0.644044404440444</v>
+        <v>-0.6601621398784855</v>
       </c>
       <c r="P7">
-        <v>-0.1844824482448245</v>
+        <v>-0.1681691580547663</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C8">
-        <v>0.0814161416141614</v>
+        <v>0.2524538617141545</v>
       </c>
       <c r="D8">
-        <v>-0.05588958895889588</v>
+        <v>-0.01699660819986433</v>
       </c>
       <c r="E8">
-        <v>0.06711071107110711</v>
+        <v>0.01874287879771515</v>
       </c>
       <c r="F8">
-        <v>0.01669366936693669</v>
+        <v>0.1847359375654375</v>
       </c>
       <c r="H8">
-        <v>0.638163816381638</v>
+        <v>0.9249928702477147</v>
       </c>
       <c r="I8">
-        <v>0.7969636963696368</v>
+        <v>0.9576457947858317</v>
       </c>
       <c r="J8">
-        <v>-0.07981998199819981</v>
+        <v>-0.1621446081203423</v>
       </c>
       <c r="K8">
-        <v>0.02159015901590159</v>
+        <v>0.05741462418458496</v>
       </c>
       <c r="L8">
-        <v>0.004872487248724872</v>
+        <v>0.006964821878592875</v>
       </c>
       <c r="M8">
-        <v>0.4324872487248725</v>
+        <v>-0.289063275306531</v>
       </c>
       <c r="N8">
-        <v>0.117995799579958</v>
+        <v>0.1598735103949404</v>
       </c>
       <c r="P8">
-        <v>0.2530573057305731</v>
+        <v>0.4509692472867698</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -769,43 +808,43 @@
         <v>19</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C9">
-        <v>0.4402880288028803</v>
+        <v>0.5025083990763358</v>
       </c>
       <c r="D9">
-        <v>0.02558655865586558</v>
+        <v>-0.01448220720328829</v>
       </c>
       <c r="E9">
-        <v>-0.04106810681068106</v>
+        <v>0.01462552023302081</v>
       </c>
       <c r="F9">
-        <v>0.03251125112511251</v>
+        <v>-0.0215808599992344</v>
       </c>
       <c r="H9">
-        <v>0.02144614461446144</v>
+        <v>-0.03039311363172454</v>
       </c>
       <c r="I9">
-        <v>0.1024542454245424</v>
+        <v>-0.02565199811407992</v>
       </c>
       <c r="J9">
-        <v>-0.09371737173717372</v>
+        <v>0.002769786020574753</v>
       </c>
       <c r="K9">
-        <v>-0.6194179417941794</v>
+        <v>-0.5711248544609941</v>
       </c>
       <c r="L9">
-        <v>-0.03203120312031203</v>
+        <v>-0.0006466885698675427</v>
       </c>
       <c r="M9">
-        <v>-0.06874287428742873</v>
+        <v>-0.003845828601833144</v>
       </c>
       <c r="N9">
-        <v>0.08735673567356733</v>
+        <v>0.003873127450925097</v>
       </c>
       <c r="P9">
-        <v>-0.05572157215721572</v>
+        <v>0.02063873468154939</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -813,43 +852,43 @@
         <v>20</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C10">
-        <v>0.484032403240324</v>
+        <v>0.5517150598926023</v>
       </c>
       <c r="D10">
-        <v>-0.05312931293129312</v>
+        <v>-0.0154560975782439</v>
       </c>
       <c r="E10">
-        <v>0.06724272427242724</v>
+        <v>0.01327732718709308</v>
       </c>
       <c r="F10">
-        <v>-0.0594059405940594</v>
+        <v>-0.009758973318358932</v>
       </c>
       <c r="H10">
-        <v>-0.00936093609360936</v>
+        <v>0.006196915255876609</v>
       </c>
       <c r="I10">
-        <v>-0.05666966696669666</v>
+        <v>0.007491558251662329</v>
       </c>
       <c r="J10">
-        <v>-0.03473147314731473</v>
+        <v>-0.004793967993768524</v>
       </c>
       <c r="K10">
-        <v>0.5953195319531953</v>
+        <v>0.6141400814296032</v>
       </c>
       <c r="L10">
-        <v>0.07278727872787277</v>
+        <v>-0.0128048950401958</v>
       </c>
       <c r="M10">
-        <v>0.04853285328532853</v>
+        <v>0.02060088197603528</v>
       </c>
       <c r="N10">
-        <v>0.01035703570357036</v>
+        <v>0.007787982167519285</v>
       </c>
       <c r="P10">
-        <v>-0.01855385538553855</v>
+        <v>0.01352683330907333</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -857,43 +896,43 @@
         <v>21</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C11">
-        <v>-0.1516471647164716</v>
+        <v>-0.001537391677495667</v>
       </c>
       <c r="D11">
-        <v>0.07734773477347733</v>
+        <v>0.01572554050102162</v>
       </c>
       <c r="E11">
-        <v>-0.09911791179117913</v>
+        <v>-0.01713100388524015</v>
       </c>
       <c r="F11">
-        <v>0.1065826582658266</v>
+        <v>0.01629449940377998</v>
       </c>
       <c r="H11">
-        <v>-0.05977797779777976</v>
+        <v>0.01231949319677973</v>
       </c>
       <c r="I11">
-        <v>-0.1155475547554755</v>
+        <v>0.008194044615761783</v>
       </c>
       <c r="J11">
-        <v>0.04516051605160516</v>
+        <v>-0.004683385397114324</v>
       </c>
       <c r="K11">
-        <v>-0.07468346834683467</v>
+        <v>0.01149523485980939</v>
       </c>
       <c r="L11">
-        <v>-0.1444944494449445</v>
+        <v>-0.00182088650483546</v>
       </c>
       <c r="M11">
-        <v>-0.01642964296429643</v>
+        <v>-0.008204314600172583</v>
       </c>
       <c r="N11">
-        <v>0.0372997299729973</v>
+        <v>0.02386473973858959</v>
       </c>
       <c r="P11">
-        <v>0.000204020402040204</v>
+        <v>-0.004849088161963526</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -901,134 +940,527 @@
         <v>22</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C12">
-        <v>-0.03000300030003</v>
+        <v>0.08317605635104225</v>
       </c>
       <c r="D12">
-        <v>-0.1913831383138313</v>
+        <v>-0.01032835874913435</v>
       </c>
       <c r="E12">
-        <v>0.1782058205820582</v>
+        <v>0.01038483612739344</v>
       </c>
       <c r="F12">
-        <v>-0.1818541854185418</v>
+        <v>-0.003915402684616107</v>
       </c>
       <c r="H12">
-        <v>-0.1975397539753975</v>
+        <v>0.01651080613243224</v>
       </c>
       <c r="I12">
-        <v>-0.1073267326732673</v>
+        <v>0.02000939523237581</v>
       </c>
       <c r="J12">
-        <v>0.04489648964896489</v>
+        <v>0.01711309665625601</v>
       </c>
       <c r="K12">
-        <v>0.04469246924692469</v>
+        <v>0.02094203805368152</v>
       </c>
       <c r="L12">
-        <v>0.04136813681368137</v>
+        <v>0.005535897149435885</v>
       </c>
       <c r="M12">
-        <v>0.07413141314131412</v>
+        <v>-0.009627247585089902</v>
       </c>
       <c r="N12">
-        <v>-0.0101050105010501</v>
+        <v>-0.0009434797817391911</v>
       </c>
       <c r="P12">
-        <v>-0.08259225922592257</v>
+        <v>0.01548816657152666</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C13">
-        <v>0.2233303330333033</v>
+        <v>0.127034926553397</v>
       </c>
       <c r="D13">
-        <v>0.07692769276927691</v>
+        <v>-0.001687440835497633</v>
       </c>
       <c r="E13">
-        <v>-0.08200420042004199</v>
+        <v>-0.0002626734825069393</v>
       </c>
       <c r="F13">
-        <v>0.07575157515751575</v>
+        <v>-0.0005188972047558882</v>
       </c>
       <c r="H13">
-        <v>0.03144314431443144</v>
+        <v>-0.01099128447165138</v>
       </c>
       <c r="I13">
-        <v>0.564128412841284</v>
+        <v>0.267955776926231</v>
       </c>
       <c r="J13">
-        <v>0.05083708370837083</v>
+        <v>-0.00284714906383081</v>
       </c>
       <c r="K13">
-        <v>-0.1886108610861086</v>
+        <v>0.009992666223706648</v>
       </c>
       <c r="L13">
-        <v>-0.004908490849084907</v>
+        <v>-0.01599451619178064</v>
       </c>
       <c r="M13">
-        <v>0.1396939693969397</v>
+        <v>-0.01295039965401599</v>
       </c>
       <c r="N13">
-        <v>-0.005880588058805879</v>
+        <v>0.01349464681178587</v>
       </c>
       <c r="P13">
-        <v>-0.114047404740474</v>
+        <v>-0.006435033569401342</v>
       </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C14">
-        <v>-0.3244404440444044</v>
+        <v>-0.2773507782300311</v>
       </c>
       <c r="D14">
-        <v>-0.01903390339033903</v>
+        <v>0.01697964538318581</v>
       </c>
       <c r="E14">
-        <v>-0.003084308430843084</v>
+        <v>-0.01727266072290643</v>
       </c>
       <c r="F14">
-        <v>-0.003228322832283228</v>
+        <v>0.01618241047129642</v>
       </c>
       <c r="H14">
-        <v>0.04126012601260126</v>
+        <v>0.02408011209920448</v>
       </c>
       <c r="I14">
-        <v>-0.05876987698769877</v>
+        <v>0.02607368293094731</v>
       </c>
       <c r="J14">
-        <v>-0.1136513651365136</v>
+        <v>-0.02340988682527531</v>
       </c>
       <c r="K14">
-        <v>-0.1269606960696069</v>
+        <v>-0.03103775135351005</v>
       </c>
       <c r="L14">
-        <v>-0.1572397239723972</v>
+        <v>0.005143398733735948</v>
       </c>
       <c r="M14">
-        <v>0.0909210921092109</v>
+        <v>-0.02438988750359549</v>
       </c>
       <c r="N14">
-        <v>0.09971797179717971</v>
+        <v>0.02063012482520499</v>
       </c>
       <c r="P14">
-        <v>-0.05868586858685867</v>
+        <v>0.02608065934722637</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15">
+        <v>0.01468666647546666</v>
+      </c>
+      <c r="D15">
+        <v>-0.009949870189994806</v>
+      </c>
+      <c r="E15">
+        <v>0.009796767559870702</v>
+      </c>
+      <c r="F15">
+        <v>-0.00851142427645697</v>
+      </c>
+      <c r="H15">
+        <v>-0.001734651717386069</v>
+      </c>
+      <c r="I15">
+        <v>0.004215266088610644</v>
+      </c>
+      <c r="J15">
+        <v>0.008493221925462724</v>
+      </c>
+      <c r="K15">
+        <v>0.0343054802202192</v>
+      </c>
+      <c r="L15">
+        <v>0.00385232377009295</v>
+      </c>
+      <c r="M15">
+        <v>-0.01392426516497061</v>
+      </c>
+      <c r="N15">
+        <v>-0.002668205866728234</v>
+      </c>
+      <c r="P15">
+        <v>0.003810548696421947</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16">
+        <v>-0.04573330896533236</v>
+      </c>
+      <c r="D16">
+        <v>0.008334211149368446</v>
+      </c>
+      <c r="E16">
+        <v>-0.008644995513799819</v>
+      </c>
+      <c r="F16">
+        <v>0.01374060842162434</v>
+      </c>
+      <c r="H16">
+        <v>0.02670928618837145</v>
+      </c>
+      <c r="I16">
+        <v>0.02145504949820198</v>
+      </c>
+      <c r="J16">
+        <v>-0.01345020618209228</v>
+      </c>
+      <c r="K16">
+        <v>-0.03080578846423153</v>
+      </c>
+      <c r="L16">
+        <v>0.001253469650138786</v>
+      </c>
+      <c r="M16">
+        <v>-0.006936524245460969</v>
+      </c>
+      <c r="N16">
+        <v>0.001402618520104741</v>
+      </c>
+      <c r="P16">
+        <v>0.02957852470314098</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17">
+        <v>0.03879977665599106</v>
+      </c>
+      <c r="D17">
+        <v>0.03810672133226885</v>
+      </c>
+      <c r="E17">
+        <v>-0.03859501603980064</v>
+      </c>
+      <c r="F17">
+        <v>0.04449396888375876</v>
+      </c>
+      <c r="H17">
+        <v>0.05078634663945385</v>
+      </c>
+      <c r="I17">
+        <v>0.04796831395073255</v>
+      </c>
+      <c r="J17">
+        <v>-0.005035091683916938</v>
+      </c>
+      <c r="K17">
+        <v>0.01917543955101758</v>
+      </c>
+      <c r="L17">
+        <v>-0.003987287199491488</v>
+      </c>
+      <c r="M17">
+        <v>-0.01765495645019826</v>
+      </c>
+      <c r="N17">
+        <v>0.008499268371970733</v>
+      </c>
+      <c r="P17">
+        <v>0.0268805700672228</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18">
+        <v>0.0344067301762692</v>
+      </c>
+      <c r="D18">
+        <v>0.003844745145789806</v>
+      </c>
+      <c r="E18">
+        <v>-0.00119402375976095</v>
+      </c>
+      <c r="F18">
+        <v>0.003441679721667188</v>
+      </c>
+      <c r="H18">
+        <v>0.01070070330802813</v>
+      </c>
+      <c r="I18">
+        <v>0.01683920947356838</v>
+      </c>
+      <c r="J18">
+        <v>0.01603746374698477</v>
+      </c>
+      <c r="K18">
+        <v>-0.01139336906373476</v>
+      </c>
+      <c r="L18">
+        <v>0.01376556573462263</v>
+      </c>
+      <c r="M18">
+        <v>0.00307507826700313</v>
+      </c>
+      <c r="N18">
+        <v>-0.02451089579643583</v>
+      </c>
+      <c r="P18">
+        <v>-0.00721279804851192</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19">
+        <v>0.003274279810971192</v>
+      </c>
+      <c r="D19">
+        <v>-0.01579782149591286</v>
+      </c>
+      <c r="E19">
+        <v>0.01687424400296976</v>
+      </c>
+      <c r="F19">
+        <v>-0.01525776973031079</v>
+      </c>
+      <c r="H19">
+        <v>-0.00348730852349234</v>
+      </c>
+      <c r="I19">
+        <v>0.004456985650279426</v>
+      </c>
+      <c r="J19">
+        <v>0.01853350556403818</v>
+      </c>
+      <c r="K19">
+        <v>-0.008620442648817703</v>
+      </c>
+      <c r="L19">
+        <v>0.01314768570990743</v>
+      </c>
+      <c r="M19">
+        <v>0.006062885714515426</v>
+      </c>
+      <c r="N19">
+        <v>-0.0204925349317014</v>
+      </c>
+      <c r="P19">
+        <v>-0.004485800915432036</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20">
+        <v>-0.004100143652005745</v>
+      </c>
+      <c r="D20">
+        <v>-0.003273113026924521</v>
+      </c>
+      <c r="E20">
+        <v>0.0006928985557159422</v>
+      </c>
+      <c r="F20">
+        <v>0.002814760144590406</v>
+      </c>
+      <c r="H20">
+        <v>-0.001145887149835486</v>
+      </c>
+      <c r="I20">
+        <v>-0.001009648360385934</v>
+      </c>
+      <c r="J20">
+        <v>0.03247404232676749</v>
+      </c>
+      <c r="K20">
+        <v>-0.02665623313024932</v>
+      </c>
+      <c r="L20">
+        <v>-0.01020067672802707</v>
+      </c>
+      <c r="M20">
+        <v>-0.007478347403133895</v>
+      </c>
+      <c r="N20">
+        <v>-0.009736784357471374</v>
+      </c>
+      <c r="P20">
+        <v>9.312816372512654E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21">
+        <v>0.02471810470072418</v>
+      </c>
+      <c r="D21">
+        <v>0.01921914681676587</v>
+      </c>
+      <c r="E21">
+        <v>-0.02174361562174462</v>
+      </c>
+      <c r="F21">
+        <v>0.02533763563750542</v>
+      </c>
+      <c r="H21">
+        <v>0.02899969565598782</v>
+      </c>
+      <c r="I21">
+        <v>0.02411104560444182</v>
+      </c>
+      <c r="J21">
+        <v>-0.003508912371683103</v>
+      </c>
+      <c r="K21">
+        <v>-0.01955308359812334</v>
+      </c>
+      <c r="L21">
+        <v>-0.01101838604073544</v>
+      </c>
+      <c r="M21">
+        <v>-0.01040513696020548</v>
+      </c>
+      <c r="N21">
+        <v>0.02107069649082786</v>
+      </c>
+      <c r="P21">
+        <v>0.0213986276079451</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22">
+        <v>0.007810921656436864</v>
+      </c>
+      <c r="D22">
+        <v>0.006190503223620128</v>
+      </c>
+      <c r="E22">
+        <v>-0.008760888734435548</v>
+      </c>
+      <c r="F22">
+        <v>0.008738446717537866</v>
+      </c>
+      <c r="H22">
+        <v>0.0001098464683938587</v>
+      </c>
+      <c r="I22">
+        <v>-0.0009385170615406823</v>
+      </c>
+      <c r="J22">
+        <v>-0.01005614250324293</v>
+      </c>
+      <c r="K22">
+        <v>-0.01060462573618503</v>
+      </c>
+      <c r="L22">
+        <v>-0.01427929583517183</v>
+      </c>
+      <c r="M22">
+        <v>0.003639984241599369</v>
+      </c>
+      <c r="N22">
+        <v>0.007863030938521236</v>
+      </c>
+      <c r="P22">
+        <v>0.001276443411057736</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23">
+        <v>0.003037175641487025</v>
+      </c>
+      <c r="D23">
+        <v>0.003273531970941278</v>
+      </c>
+      <c r="E23">
+        <v>-0.000710742556429702</v>
+      </c>
+      <c r="F23">
+        <v>0.0005396895575875822</v>
+      </c>
+      <c r="H23">
+        <v>-0.007476486443059457</v>
+      </c>
+      <c r="I23">
+        <v>-0.01020257877610315</v>
+      </c>
+      <c r="J23">
+        <v>0.01364034859009499</v>
+      </c>
+      <c r="K23">
+        <v>0.01179537685581507</v>
+      </c>
+      <c r="L23">
+        <v>0.01263250178530007</v>
+      </c>
+      <c r="M23">
+        <v>-0.02030841873233675</v>
+      </c>
+      <c r="N23">
+        <v>-0.01164514577780583</v>
+      </c>
+      <c r="P23">
+        <v>-0.002042669841706793</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
     <mergeCell ref="C1:P1"/>
     <mergeCell ref="A4:A8"/>
     <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_1.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
   <si>
     <t>Element</t>
   </si>
@@ -118,6 +118,21 @@
     <t>Capacity [ton/hr]</t>
   </si>
   <si>
+    <t>Cane  PL [% lipid]</t>
+  </si>
+  <si>
+    <t>Sorghum  PL [% lipid]</t>
+  </si>
+  <si>
+    <t>Cane  FFA [% lipid]</t>
+  </si>
+  <si>
+    <t>Sorghum  FFA [% lipid]</t>
+  </si>
+  <si>
+    <t>TAG to  FFA conversion [% lipid]</t>
+  </si>
+  <si>
     <t>Price [USD/gal]</t>
   </si>
   <si>
@@ -142,10 +157,16 @@
     <t>Base cost [million USD]</t>
   </si>
   <si>
-    <t>Glucose yield [%]</t>
-  </si>
-  <si>
-    <t>Xylose yield [%]</t>
+    <t>Cane glucose yield [%]</t>
+  </si>
+  <si>
+    <t>Sorghum glucose yield [%]</t>
+  </si>
+  <si>
+    <t>Cane xylose yield [%]</t>
+  </si>
+  <si>
+    <t>Sorghum xylose yield [%]</t>
   </si>
   <si>
     <t>Glucose to ethanol yield [%]</t>
@@ -509,7 +530,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P23"/>
+  <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -599,25 +620,40 @@
         <v>29</v>
       </c>
       <c r="C4">
-        <v>0.3582407648896305</v>
+        <v>0.3968254208254209</v>
       </c>
       <c r="D4">
-        <v>0.9803523589900942</v>
+        <v>0.9851766131766133</v>
       </c>
       <c r="E4">
-        <v>-0.9999968463998737</v>
+        <v>-0.9983714903714904</v>
       </c>
       <c r="F4">
-        <v>0.9660092093283682</v>
+        <v>0.9626832266832268</v>
       </c>
       <c r="H4">
-        <v>0.3547654785426191</v>
+        <v>0.339910671910672</v>
       </c>
       <c r="I4">
-        <v>-0.01894716392588655</v>
+        <v>0.03146466746466747</v>
       </c>
       <c r="J4">
-        <v>-0.1338729586521487</v>
+        <v>-0.1825891144234859</v>
+      </c>
+      <c r="K4">
+        <v>-0.01995780795780796</v>
+      </c>
+      <c r="L4">
+        <v>-0.02696013896013896</v>
+      </c>
+      <c r="M4">
+        <v>-0.003126051126051126</v>
+      </c>
+      <c r="N4">
+        <v>-0.130954306954307</v>
+      </c>
+      <c r="P4">
+        <v>-0.2054868734868735</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -626,25 +662,40 @@
         <v>30</v>
       </c>
       <c r="C5">
-        <v>0.005146502989860118</v>
+        <v>-0.0443015483015483</v>
       </c>
       <c r="D5">
-        <v>-0.01411938805277552</v>
+        <v>-0.01586777186777187</v>
       </c>
       <c r="E5">
-        <v>0.007799369687974787</v>
+        <v>0.007941319941319941</v>
       </c>
       <c r="F5">
-        <v>-0.003156049374241974</v>
+        <v>-0.008971616971616971</v>
       </c>
       <c r="H5">
-        <v>-0.000588805079552203</v>
+        <v>-0.004067584067584068</v>
       </c>
       <c r="I5">
-        <v>-0.00162593900903756</v>
+        <v>-0.006816534816534816</v>
       </c>
       <c r="J5">
-        <v>0.004582007665727284</v>
+        <v>-0.0360919688499002</v>
+      </c>
+      <c r="K5">
+        <v>0.002321030321030321</v>
+      </c>
+      <c r="L5">
+        <v>-0.03595653595653596</v>
+      </c>
+      <c r="M5">
+        <v>0.03825930225930226</v>
+      </c>
+      <c r="N5">
+        <v>-0.03018142218142218</v>
+      </c>
+      <c r="P5">
+        <v>-0.03597175197175198</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -653,25 +704,40 @@
         <v>31</v>
       </c>
       <c r="C6">
-        <v>-0.02553770281350811</v>
+        <v>-0.01906997506997507</v>
       </c>
       <c r="D6">
-        <v>-0.02655531120621244</v>
+        <v>-0.06535919335919337</v>
       </c>
       <c r="E6">
-        <v>-0.02046323323452933</v>
+        <v>-0.02712325512325512</v>
       </c>
       <c r="F6">
-        <v>0.05983043615321744</v>
+        <v>0.1219199419199419</v>
       </c>
       <c r="H6">
-        <v>0.01641449710457988</v>
+        <v>0.05716596916596917</v>
       </c>
       <c r="I6">
-        <v>-0.002647487913899516</v>
+        <v>0.03009468609468609</v>
       </c>
       <c r="J6">
-        <v>-0.005199136683819498</v>
+        <v>0.03477827350861726</v>
+      </c>
+      <c r="K6">
+        <v>-0.1026114786114786</v>
+      </c>
+      <c r="L6">
+        <v>-0.5432946872946873</v>
+      </c>
+      <c r="M6">
+        <v>-0.01671037671037671</v>
+      </c>
+      <c r="N6">
+        <v>0.09673191673191674</v>
+      </c>
+      <c r="P6">
+        <v>0.07218178818178819</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -680,25 +746,40 @@
         <v>32</v>
       </c>
       <c r="C7">
-        <v>0.1093020900040836</v>
+        <v>0.08164210564210564</v>
       </c>
       <c r="D7">
-        <v>0.1652420382576815</v>
+        <v>0.1186199626199626</v>
       </c>
       <c r="E7">
-        <v>0.01566215688248627</v>
+        <v>0.005481845481845483</v>
       </c>
       <c r="F7">
-        <v>-0.1499098778363951</v>
+        <v>-0.1428200508200508</v>
       </c>
       <c r="H7">
-        <v>-0.04414512042180481</v>
+        <v>-0.09463736263736264</v>
       </c>
       <c r="I7">
-        <v>-0.0005958812398352496</v>
+        <v>-0.04742785142785143</v>
       </c>
       <c r="J7">
-        <v>0.08303564314274699</v>
+        <v>0.02106557750795464</v>
+      </c>
+      <c r="K7">
+        <v>0.1370389970389971</v>
+      </c>
+      <c r="L7">
+        <v>0.7571167451167451</v>
+      </c>
+      <c r="M7">
+        <v>-0.01747488547488548</v>
+      </c>
+      <c r="N7">
+        <v>-0.08637038637038638</v>
+      </c>
+      <c r="P7">
+        <v>-0.07440836640836641</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -707,460 +788,994 @@
         <v>33</v>
       </c>
       <c r="C8">
-        <v>0.2433564712702588</v>
+        <v>0.2001769761769762</v>
       </c>
       <c r="D8">
-        <v>-0.01699660819986433</v>
+        <v>0.008387912387912389</v>
       </c>
       <c r="E8">
-        <v>0.01940696957627878</v>
+        <v>-0.02205352605352606</v>
       </c>
       <c r="F8">
-        <v>0.1549525001821</v>
+        <v>0.2075686235686236</v>
       </c>
       <c r="H8">
-        <v>0.9218522159140885</v>
+        <v>0.9420457500457501</v>
       </c>
       <c r="I8">
-        <v>0.9576457947858317</v>
+        <v>0.9574888414888415</v>
       </c>
       <c r="J8">
-        <v>-0.1575863475267508</v>
+        <v>-0.429967278996592</v>
+      </c>
+      <c r="K8">
+        <v>-0.01633549633549634</v>
+      </c>
+      <c r="L8">
+        <v>-0.07289025689025688</v>
+      </c>
+      <c r="M8">
+        <v>0.04483697683697684</v>
+      </c>
+      <c r="N8">
+        <v>-0.03205534405534406</v>
+      </c>
+      <c r="P8">
+        <v>0.1845665325665326</v>
       </c>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>0.4981373646294945</v>
+        <v>-0.01310977310977311</v>
       </c>
       <c r="D9">
-        <v>-0.01448220720328829</v>
+        <v>-0.02703693903693904</v>
       </c>
       <c r="E9">
-        <v>0.01454275094971004</v>
+        <v>-0.0253978813978814</v>
       </c>
       <c r="F9">
-        <v>-0.0217732925829317</v>
+        <v>0.008154932154932156</v>
       </c>
       <c r="H9">
-        <v>-0.03030933433237337</v>
+        <v>0.02780987180987181</v>
       </c>
       <c r="I9">
-        <v>-0.02565199811407992</v>
+        <v>0.02799237999237999</v>
       </c>
       <c r="J9">
-        <v>-0.003191030438916767</v>
+        <v>0.0344569671805635</v>
+      </c>
+      <c r="K9">
+        <v>0.170025218025218</v>
+      </c>
+      <c r="L9">
+        <v>-0.3031826191826192</v>
+      </c>
+      <c r="M9">
+        <v>0.7308135828135829</v>
+      </c>
+      <c r="N9">
+        <v>-0.7259104139104139</v>
+      </c>
+      <c r="P9">
+        <v>-0.6615869895869897</v>
       </c>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10">
-        <v>0.5542075915123036</v>
+        <v>-0.007115815115815117</v>
       </c>
       <c r="D10">
-        <v>-0.0154560975782439</v>
+        <v>0.04258941058941059</v>
       </c>
       <c r="E10">
-        <v>0.01335065122202604</v>
+        <v>-0.04262494262494263</v>
       </c>
       <c r="F10">
-        <v>-0.009993755247750209</v>
+        <v>0.02268976668976669</v>
       </c>
       <c r="H10">
-        <v>0.005935751469430058</v>
+        <v>-0.06137648537648538</v>
       </c>
       <c r="I10">
-        <v>0.007491558251662329</v>
+        <v>-0.09330344130344131</v>
       </c>
       <c r="J10">
-        <v>-0.002018179621328634</v>
+        <v>0.01421960651821826</v>
+      </c>
+      <c r="K10">
+        <v>-0.0123981723981724</v>
+      </c>
+      <c r="L10">
+        <v>0.01803553803553804</v>
+      </c>
+      <c r="M10">
+        <v>0.02246083046083046</v>
+      </c>
+      <c r="N10">
+        <v>-0.02953866553866554</v>
+      </c>
+      <c r="P10">
+        <v>-0.04746065946065946</v>
       </c>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C11">
-        <v>-0.0009770174790806989</v>
+        <v>-0.0236963996963997</v>
       </c>
       <c r="D11">
-        <v>0.01572554050102162</v>
+        <v>-0.02091672891672892</v>
       </c>
       <c r="E11">
-        <v>-0.01717732110309284</v>
+        <v>0.03336152136152137</v>
       </c>
       <c r="F11">
-        <v>0.0169394426935777</v>
+        <v>-0.0439003519003519</v>
       </c>
       <c r="H11">
-        <v>0.01256555887062235</v>
+        <v>-0.02498824898824899</v>
       </c>
       <c r="I11">
-        <v>0.008194044615761783</v>
+        <v>-0.015003147003147</v>
       </c>
       <c r="J11">
-        <v>0.004078673836446329</v>
+        <v>-0.009355077551534181</v>
+      </c>
+      <c r="K11">
+        <v>0.06963968163968165</v>
+      </c>
+      <c r="L11">
+        <v>0.09161872361872361</v>
+      </c>
+      <c r="M11">
+        <v>0.02876432876432877</v>
+      </c>
+      <c r="N11">
+        <v>-0.02555625755625756</v>
+      </c>
+      <c r="P11">
+        <v>-0.01098477498477498</v>
       </c>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C12">
-        <v>0.08020810074432402</v>
+        <v>0.01763802563802564</v>
       </c>
       <c r="D12">
-        <v>-0.01032835874913435</v>
+        <v>0.02238911838911839</v>
       </c>
       <c r="E12">
-        <v>0.0103503976620159</v>
+        <v>-0.009132717132717133</v>
       </c>
       <c r="F12">
-        <v>-0.004452156466086258</v>
+        <v>-0.0152978552978553</v>
       </c>
       <c r="H12">
-        <v>0.01630378366015134</v>
+        <v>-0.04401771201771202</v>
       </c>
       <c r="I12">
-        <v>0.02000939523237581</v>
+        <v>-0.03115366315366316</v>
       </c>
       <c r="J12">
-        <v>0.01921855564456053</v>
+        <v>-0.01316121743760301</v>
+      </c>
+      <c r="K12">
+        <v>0.03531587931587932</v>
+      </c>
+      <c r="L12">
+        <v>0.06406668406668407</v>
+      </c>
+      <c r="M12">
+        <v>0.01635814035814036</v>
+      </c>
+      <c r="N12">
+        <v>-0.02429040029040029</v>
+      </c>
+      <c r="P12">
+        <v>-0.03951972351972352</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C13">
-        <v>0.127034976569399</v>
+        <v>0.03727563727563728</v>
       </c>
       <c r="D13">
-        <v>-0.001687440835497633</v>
+        <v>0.03822539022539023</v>
       </c>
       <c r="E13">
-        <v>-0.0002656649386265975</v>
+        <v>-0.03607897207897208</v>
       </c>
       <c r="F13">
-        <v>-0.001426551609062064</v>
+        <v>0.03558557958557959</v>
       </c>
       <c r="H13">
-        <v>-0.01098848731953949</v>
+        <v>0.02652273852273852</v>
       </c>
       <c r="I13">
-        <v>0.267955776926231</v>
+        <v>0.01915155115155116</v>
       </c>
       <c r="J13">
-        <v>-0.01361447395161996</v>
+        <v>-0.00719426534534492</v>
+      </c>
+      <c r="K13">
+        <v>-0.009035421035421036</v>
+      </c>
+      <c r="L13">
+        <v>0.01262152862152862</v>
+      </c>
+      <c r="M13">
+        <v>-0.01411937011937012</v>
+      </c>
+      <c r="N13">
+        <v>0.005308385308385309</v>
+      </c>
+      <c r="P13">
+        <v>0.01187548787548788</v>
       </c>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="1"/>
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="B14" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14">
-        <v>-0.2772719936188797</v>
+        <v>0.4830192870192871</v>
       </c>
       <c r="D14">
-        <v>0.01697964538318581</v>
+        <v>-0.05823387423387424</v>
       </c>
       <c r="E14">
-        <v>-0.01723715483348619</v>
+        <v>0.04625413025413026</v>
       </c>
       <c r="F14">
-        <v>0.01787779386711175</v>
+        <v>-0.03392958992958993</v>
       </c>
       <c r="H14">
-        <v>0.02435825607833024</v>
+        <v>-0.002539178539178539</v>
       </c>
       <c r="I14">
-        <v>0.02607368293094731</v>
+        <v>0.000481968481968482</v>
       </c>
       <c r="J14">
-        <v>-0.01120185570561446</v>
+        <v>-0.004358884450421025</v>
+      </c>
+      <c r="K14">
+        <v>-0.5376797736797737</v>
+      </c>
+      <c r="L14">
+        <v>-0.04912202512202512</v>
+      </c>
+      <c r="M14">
+        <v>0.0183954063954064</v>
+      </c>
+      <c r="N14">
+        <v>-0.005360045360045361</v>
+      </c>
+      <c r="P14">
+        <v>-0.001165873165873166</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C15">
-        <v>0.01445204822608193</v>
+        <v>0.5477318477318478</v>
       </c>
       <c r="D15">
-        <v>-0.009949870189994806</v>
+        <v>-0.01329394929394929</v>
       </c>
       <c r="E15">
-        <v>0.009808994504359779</v>
+        <v>0.01830359430359431</v>
       </c>
       <c r="F15">
-        <v>-0.009315778548631141</v>
+        <v>-0.03684169284169285</v>
       </c>
       <c r="H15">
-        <v>-0.00188806826752273</v>
+        <v>-0.06093558093558094</v>
       </c>
       <c r="I15">
-        <v>0.004215266088610644</v>
+        <v>-0.06471343671343671</v>
       </c>
       <c r="J15">
-        <v>0.005468054775189355</v>
+        <v>0.05315340026962169</v>
+      </c>
+      <c r="K15">
+        <v>0.7414487374487375</v>
+      </c>
+      <c r="L15">
+        <v>0.03751906951906953</v>
+      </c>
+      <c r="M15">
+        <v>0.00735989535989536</v>
+      </c>
+      <c r="N15">
+        <v>-0.007720327720327721</v>
+      </c>
+      <c r="P15">
+        <v>-0.02943959343959344</v>
       </c>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C16">
-        <v>-0.04610855109234205</v>
+        <v>-0.04387179187179188</v>
       </c>
       <c r="D16">
-        <v>0.008334211149368446</v>
+        <v>-0.01622598422598423</v>
       </c>
       <c r="E16">
-        <v>-0.00862188351287534</v>
+        <v>0.01198613998613999</v>
       </c>
       <c r="F16">
-        <v>0.01277214214288568</v>
+        <v>-0.01243467643467644</v>
       </c>
       <c r="H16">
-        <v>0.02655100666204026</v>
+        <v>-0.004433932433932434</v>
       </c>
       <c r="I16">
-        <v>0.02145504949820198</v>
+        <v>-0.01223472023472024</v>
       </c>
       <c r="J16">
-        <v>-0.01572954479304515</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+        <v>0.05648109966720277</v>
+      </c>
+      <c r="K16">
+        <v>0.02708851508851509</v>
+      </c>
+      <c r="L16">
+        <v>-0.0183003903003903</v>
+      </c>
+      <c r="M16">
+        <v>0.05025851025851026</v>
+      </c>
+      <c r="N16">
+        <v>-0.05071218271218272</v>
+      </c>
+      <c r="P16">
+        <v>-0.05236253236253236</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C17">
-        <v>0.0389411525976461</v>
+        <v>0.01198057198057198</v>
       </c>
       <c r="D17">
-        <v>0.03810672133226885</v>
+        <v>0.001472845472845473</v>
       </c>
       <c r="E17">
-        <v>-0.03853515917340636</v>
+        <v>-0.0006362526362526363</v>
       </c>
       <c r="F17">
-        <v>0.04399894601595784</v>
+        <v>-0.001180621180621181</v>
       </c>
       <c r="H17">
-        <v>0.05108182169127285</v>
+        <v>0.001482229482229482</v>
       </c>
       <c r="I17">
-        <v>0.04796831395073255</v>
+        <v>0.002827226827226827</v>
       </c>
       <c r="J17">
-        <v>-0.004091405788984637</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+        <v>-0.02527472580549506</v>
+      </c>
+      <c r="K17">
+        <v>-0.003207111207111207</v>
+      </c>
+      <c r="L17">
+        <v>0.003951603951603952</v>
+      </c>
+      <c r="M17">
+        <v>-0.007916311916311917</v>
+      </c>
+      <c r="N17">
+        <v>0.0142960342960343</v>
+      </c>
+      <c r="P17">
+        <v>0.004890592890592891</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C18">
-        <v>0.03438270166330806</v>
+        <v>0.1279254199254199</v>
       </c>
       <c r="D18">
-        <v>0.003844745145789806</v>
+        <v>0.05141919941919942</v>
       </c>
       <c r="E18">
-        <v>-0.001179889775195591</v>
+        <v>-0.04796709596709597</v>
       </c>
       <c r="F18">
-        <v>0.003009200280368011</v>
+        <v>0.04149774549774549</v>
       </c>
       <c r="H18">
-        <v>0.01069773105190924</v>
+        <v>0.001366657366657367</v>
       </c>
       <c r="I18">
-        <v>0.01683920947356838</v>
+        <v>0.2669475509475509</v>
       </c>
       <c r="J18">
-        <v>0.01559205281923199</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="1" t="s">
-        <v>26</v>
-      </c>
+        <v>-0.02988690051452543</v>
+      </c>
+      <c r="K18">
+        <v>-0.005132501132501133</v>
+      </c>
+      <c r="L18">
+        <v>0.004024840024840025</v>
+      </c>
+      <c r="M18">
+        <v>-0.02017167217167217</v>
+      </c>
+      <c r="N18">
+        <v>0.00731969531969532</v>
+      </c>
+      <c r="P18">
+        <v>-0.002634974634974635</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C19">
-        <v>0.003071939642877585</v>
+        <v>-0.2835996915996916</v>
       </c>
       <c r="D19">
-        <v>-0.01579782149591286</v>
+        <v>0.01717738117738118</v>
       </c>
       <c r="E19">
-        <v>0.01685629449825178</v>
+        <v>-0.01215040815040815</v>
       </c>
       <c r="F19">
-        <v>-0.01537616403904656</v>
+        <v>0.00563986163986164</v>
       </c>
       <c r="H19">
-        <v>-0.003381890823275632</v>
+        <v>-0.001461433461433462</v>
       </c>
       <c r="I19">
-        <v>0.004456985650279426</v>
+        <v>-0.01395296595296595</v>
       </c>
       <c r="J19">
-        <v>0.01529404831063236</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+        <v>0.05959219884363504</v>
+      </c>
+      <c r="K19">
+        <v>-0.1031101031101031</v>
+      </c>
+      <c r="L19">
+        <v>0.04604734604734605</v>
+      </c>
+      <c r="M19">
+        <v>-0.04063939663939664</v>
+      </c>
+      <c r="N19">
+        <v>0.03391571791571792</v>
+      </c>
+      <c r="P19">
+        <v>0.02164322164322164</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C20">
-        <v>-0.004237784041511361</v>
+        <v>0.04358052758052759</v>
       </c>
       <c r="D20">
-        <v>-0.003273113026924521</v>
+        <v>-0.007074799074799076</v>
       </c>
       <c r="E20">
-        <v>0.000695284827811393</v>
+        <v>0.004216276216276216</v>
       </c>
       <c r="F20">
-        <v>0.002693772491750899</v>
+        <v>-0.002934182934182935</v>
       </c>
       <c r="H20">
-        <v>-0.001147471245898849</v>
+        <v>0.01146721146721147</v>
       </c>
       <c r="I20">
-        <v>-0.001009648360385934</v>
+        <v>0.007792087792087793</v>
       </c>
       <c r="J20">
-        <v>0.03128279911463674</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="1"/>
+        <v>-0.01004480825574923</v>
+      </c>
+      <c r="K20">
+        <v>0.02793882393882394</v>
+      </c>
+      <c r="L20">
+        <v>-0.01051473451473451</v>
+      </c>
+      <c r="M20">
+        <v>0.001507969507969508</v>
+      </c>
+      <c r="N20">
+        <v>-0.003144183144183144</v>
+      </c>
+      <c r="P20">
+        <v>0.01396152196152196</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="B21" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C21">
-        <v>0.025327400021096</v>
+        <v>-0.003407571407571408</v>
       </c>
       <c r="D21">
-        <v>0.01921914681676587</v>
+        <v>0.01772596172596173</v>
       </c>
       <c r="E21">
-        <v>-0.02174755555790222</v>
+        <v>-0.01220596820596821</v>
       </c>
       <c r="F21">
-        <v>0.02708243397929735</v>
+        <v>0.00765007965007965</v>
       </c>
       <c r="H21">
-        <v>0.02937481039099241</v>
+        <v>-0.004053424053424053</v>
       </c>
       <c r="I21">
-        <v>0.02411104560444182</v>
+        <v>0.007805047805047806</v>
       </c>
       <c r="J21">
-        <v>0.005187830043341454</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+        <v>0.04571349467347807</v>
+      </c>
+      <c r="K21">
+        <v>-0.01984699984699985</v>
+      </c>
+      <c r="L21">
+        <v>0.01436370236370237</v>
+      </c>
+      <c r="M21">
+        <v>-0.04614470214470215</v>
+      </c>
+      <c r="N21">
+        <v>0.0465994185994186</v>
+      </c>
+      <c r="P21">
+        <v>0.03527566727566728</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C22">
-        <v>0.007878938139157524</v>
+        <v>-0.02594178194178194</v>
       </c>
       <c r="D22">
-        <v>0.006190503223620128</v>
+        <v>-0.01301485301485302</v>
       </c>
       <c r="E22">
-        <v>-0.008707459836298392</v>
+        <v>0.007939639939639939</v>
       </c>
       <c r="F22">
-        <v>0.009407299192291966</v>
+        <v>0.0009430929430929432</v>
       </c>
       <c r="H22">
-        <v>0.0001479426299177052</v>
+        <v>0.0202958962958963</v>
       </c>
       <c r="I22">
-        <v>-0.0009385170615406823</v>
+        <v>0.02314093114093114</v>
       </c>
       <c r="J22">
-        <v>-0.01076477949513488</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+        <v>0.002966733029034423</v>
+      </c>
+      <c r="K22">
+        <v>0.006171582171582172</v>
+      </c>
+      <c r="L22">
+        <v>-0.02140425340425341</v>
+      </c>
+      <c r="M22">
+        <v>0.04433943233943235</v>
+      </c>
+      <c r="N22">
+        <v>-0.0394989874989875</v>
+      </c>
+      <c r="P22">
+        <v>-0.02534928134928136</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C23">
-        <v>0.002933146197325847</v>
+        <v>-0.00590977790977791</v>
       </c>
       <c r="D23">
-        <v>0.003273531970941278</v>
+        <v>-0.02999166599166599</v>
       </c>
       <c r="E23">
-        <v>-0.0007618658224746327</v>
+        <v>0.01842731442731443</v>
       </c>
       <c r="F23">
-        <v>0.0008423445456937817</v>
+        <v>-0.006792450792450793</v>
       </c>
       <c r="H23">
-        <v>-0.007306898116275925</v>
+        <v>0.01145257145257145</v>
       </c>
       <c r="I23">
-        <v>-0.01020257877610315</v>
+        <v>0.02651451851451852</v>
       </c>
       <c r="J23">
-        <v>0.01541306906766456</v>
+        <v>0.04502759197317142</v>
+      </c>
+      <c r="K23">
+        <v>0.01138027138027138</v>
+      </c>
+      <c r="L23">
+        <v>-0.06925929325929327</v>
+      </c>
+      <c r="M23">
+        <v>0.03976033576033577</v>
+      </c>
+      <c r="N23">
+        <v>-0.02957669357669358</v>
+      </c>
+      <c r="P23">
+        <v>-0.03392843792843793</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24">
+        <v>0.000875892875892876</v>
+      </c>
+      <c r="D24">
+        <v>0.02794175194175194</v>
+      </c>
+      <c r="E24">
+        <v>-0.02203642603642604</v>
+      </c>
+      <c r="F24">
+        <v>0.009102717102717104</v>
+      </c>
+      <c r="H24">
+        <v>-0.03914969114969116</v>
+      </c>
+      <c r="I24">
+        <v>-0.05307761307761308</v>
+      </c>
+      <c r="J24">
+        <v>0.02995314658216267</v>
+      </c>
+      <c r="K24">
+        <v>0.02864654864654865</v>
+      </c>
+      <c r="L24">
+        <v>0.04271569871569872</v>
+      </c>
+      <c r="M24">
+        <v>-0.02978130578130578</v>
+      </c>
+      <c r="N24">
+        <v>0.02218624618624618</v>
+      </c>
+      <c r="P24">
+        <v>0.02549484149484149</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25">
+        <v>0.002043494043494043</v>
+      </c>
+      <c r="D25">
+        <v>-0.0190961950961951</v>
+      </c>
+      <c r="E25">
+        <v>0.03040667440667441</v>
+      </c>
+      <c r="F25">
+        <v>-0.0365996765996766</v>
+      </c>
+      <c r="H25">
+        <v>-0.02379089979089979</v>
+      </c>
+      <c r="I25">
+        <v>-0.01765396165396165</v>
+      </c>
+      <c r="J25">
+        <v>-0.01473326104265953</v>
+      </c>
+      <c r="K25">
+        <v>0.004562500562500563</v>
+      </c>
+      <c r="L25">
+        <v>0.0472995712995713</v>
+      </c>
+      <c r="M25">
+        <v>-0.02151071751071751</v>
+      </c>
+      <c r="N25">
+        <v>0.01655309255309255</v>
+      </c>
+      <c r="P25">
+        <v>0.02175662175662176</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26">
+        <v>0.03477422277422278</v>
+      </c>
+      <c r="D26">
+        <v>0.03600783600783601</v>
+      </c>
+      <c r="E26">
+        <v>-0.03588015588015588</v>
+      </c>
+      <c r="F26">
+        <v>0.03294482094482095</v>
+      </c>
+      <c r="H26">
+        <v>0.01288159288159288</v>
+      </c>
+      <c r="I26">
+        <v>-0.0006616566616566617</v>
+      </c>
+      <c r="J26">
+        <v>0.01424945054868901</v>
+      </c>
+      <c r="K26">
+        <v>-0.07464179064179065</v>
+      </c>
+      <c r="L26">
+        <v>-0.009542733542733543</v>
+      </c>
+      <c r="M26">
+        <v>-0.0102958302958303</v>
+      </c>
+      <c r="N26">
+        <v>0.008181572181572181</v>
+      </c>
+      <c r="P26">
+        <v>-0.003547131547131548</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27">
+        <v>-0.004832428832428833</v>
+      </c>
+      <c r="D27">
+        <v>0.01710740910740911</v>
+      </c>
+      <c r="E27">
+        <v>-0.02440944040944041</v>
+      </c>
+      <c r="F27">
+        <v>0.03356966156966158</v>
+      </c>
+      <c r="H27">
+        <v>6.067206067206067E-05</v>
+      </c>
+      <c r="I27">
+        <v>-0.01829105429105429</v>
+      </c>
+      <c r="J27">
+        <v>-0.003105537170753452</v>
+      </c>
+      <c r="K27">
+        <v>-0.009133113133113133</v>
+      </c>
+      <c r="L27">
+        <v>-0.02792768792768793</v>
+      </c>
+      <c r="M27">
+        <v>0.03217380817380817</v>
+      </c>
+      <c r="N27">
+        <v>-0.03405591405591406</v>
+      </c>
+      <c r="P27">
+        <v>-0.01748876948876949</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28">
+        <v>-0.004986376986376986</v>
+      </c>
+      <c r="D28">
+        <v>0.0104970344970345</v>
+      </c>
+      <c r="E28">
+        <v>-0.0003461643461643462</v>
+      </c>
+      <c r="F28">
+        <v>-0.01105238305238305</v>
+      </c>
+      <c r="H28">
+        <v>-0.02977331377331378</v>
+      </c>
+      <c r="I28">
+        <v>-0.02736665136665137</v>
+      </c>
+      <c r="J28">
+        <v>-0.001283071310015808</v>
+      </c>
+      <c r="K28">
+        <v>-0.02781665181665182</v>
+      </c>
+      <c r="L28">
+        <v>0.0250988530988531</v>
+      </c>
+      <c r="M28">
+        <v>-0.05010939810939811</v>
+      </c>
+      <c r="N28">
+        <v>0.04477094077094077</v>
+      </c>
+      <c r="P28">
+        <v>0.05158286758286759</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29">
+        <v>-0.02678867078867079</v>
+      </c>
+      <c r="D29">
+        <v>-0.0453997533997534</v>
+      </c>
+      <c r="E29">
+        <v>0.04815847215847217</v>
+      </c>
+      <c r="F29">
+        <v>-0.04685553485553486</v>
+      </c>
+      <c r="H29">
+        <v>-0.01391838191838192</v>
+      </c>
+      <c r="I29">
+        <v>-0.01078780678780679</v>
+      </c>
+      <c r="J29">
+        <v>-0.001597867631422852</v>
+      </c>
+      <c r="K29">
+        <v>-0.006347226347226347</v>
+      </c>
+      <c r="L29">
+        <v>0.0101962901962902</v>
+      </c>
+      <c r="M29">
+        <v>-0.002747822747822748</v>
+      </c>
+      <c r="N29">
+        <v>0.01232635232635233</v>
+      </c>
+      <c r="P29">
+        <v>-0.0003963363963363964</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30">
+        <v>0.00961818961818962</v>
+      </c>
+      <c r="D30">
+        <v>0.01439301839301839</v>
+      </c>
+      <c r="E30">
+        <v>-0.01041893841893842</v>
+      </c>
+      <c r="F30">
+        <v>0.01593465993465994</v>
+      </c>
+      <c r="H30">
+        <v>0.03065410265410266</v>
+      </c>
+      <c r="I30">
+        <v>0.02691687891687892</v>
+      </c>
+      <c r="J30">
+        <v>0.001261279287766153</v>
+      </c>
+      <c r="K30">
+        <v>0.01276707676707677</v>
+      </c>
+      <c r="L30">
+        <v>0.05023085023085024</v>
+      </c>
+      <c r="M30">
+        <v>-0.01451419451419451</v>
+      </c>
+      <c r="N30">
+        <v>0.01200848400848401</v>
+      </c>
+      <c r="P30">
+        <v>0.03912173112173113</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="C1:P1"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A4:A13"/>
+    <mergeCell ref="A17:A19"/>
     <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="A29:A30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_1.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_1.xlsx
@@ -620,40 +620,40 @@
         <v>29</v>
       </c>
       <c r="C4">
-        <v>0.3968254208254209</v>
+        <v>0.3559166839166839</v>
       </c>
       <c r="D4">
         <v>0.9851766131766133</v>
       </c>
       <c r="E4">
-        <v>-0.9983714903714904</v>
+        <v>-0.9999583359583359</v>
       </c>
       <c r="F4">
-        <v>0.9626832266832268</v>
+        <v>0.9702849582849583</v>
       </c>
       <c r="H4">
-        <v>0.339910671910672</v>
+        <v>0.3538653658653659</v>
       </c>
       <c r="I4">
         <v>0.03146466746466747</v>
       </c>
       <c r="J4">
-        <v>-0.1825891144234859</v>
+        <v>-0.8101960750104403</v>
       </c>
       <c r="K4">
-        <v>-0.01995780795780796</v>
+        <v>0.05684439284439285</v>
       </c>
       <c r="L4">
         <v>-0.02696013896013896</v>
       </c>
       <c r="M4">
-        <v>-0.003126051126051126</v>
+        <v>-0.003893067893067893</v>
       </c>
       <c r="N4">
-        <v>-0.130954306954307</v>
+        <v>0.1371970851970852</v>
       </c>
       <c r="P4">
-        <v>-0.2054868734868735</v>
+        <v>-0.3056463056463057</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -662,40 +662,40 @@
         <v>30</v>
       </c>
       <c r="C5">
-        <v>-0.0443015483015483</v>
+        <v>-0.04428040428040429</v>
       </c>
       <c r="D5">
         <v>-0.01586777186777187</v>
       </c>
       <c r="E5">
-        <v>0.007941319941319941</v>
+        <v>0.008169896169896171</v>
       </c>
       <c r="F5">
-        <v>-0.008971616971616971</v>
+        <v>-0.007350823350823351</v>
       </c>
       <c r="H5">
-        <v>-0.004067584067584068</v>
+        <v>-0.002582198582198582</v>
       </c>
       <c r="I5">
         <v>-0.006816534816534816</v>
       </c>
       <c r="J5">
-        <v>-0.0360919688499002</v>
+        <v>0.0131020194002107</v>
       </c>
       <c r="K5">
-        <v>0.002321030321030321</v>
+        <v>-0.003671751671751672</v>
       </c>
       <c r="L5">
         <v>-0.03595653595653596</v>
       </c>
       <c r="M5">
-        <v>0.03825930225930226</v>
+        <v>0.03654283254283254</v>
       </c>
       <c r="N5">
-        <v>-0.03018142218142218</v>
+        <v>-0.002561858561858562</v>
       </c>
       <c r="P5">
-        <v>-0.03597175197175198</v>
+        <v>0.0109009309009309</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -704,40 +704,40 @@
         <v>31</v>
       </c>
       <c r="C6">
-        <v>-0.01906997506997507</v>
+        <v>-0.02405484005484006</v>
       </c>
       <c r="D6">
         <v>-0.06535919335919337</v>
       </c>
       <c r="E6">
-        <v>-0.02712325512325512</v>
+        <v>-0.02664269064269064</v>
       </c>
       <c r="F6">
-        <v>0.1219199419199419</v>
+        <v>0.1148859908859909</v>
       </c>
       <c r="H6">
-        <v>0.05716596916596917</v>
+        <v>0.05317412917412918</v>
       </c>
       <c r="I6">
         <v>0.03009468609468609</v>
       </c>
       <c r="J6">
-        <v>0.03477827350861726</v>
+        <v>0.1689004096561838</v>
       </c>
       <c r="K6">
-        <v>-0.1026114786114786</v>
+        <v>-0.1042332202332202</v>
       </c>
       <c r="L6">
         <v>-0.5432946872946873</v>
       </c>
       <c r="M6">
-        <v>-0.01671037671037671</v>
+        <v>-0.01571527571527572</v>
       </c>
       <c r="N6">
-        <v>0.09673191673191674</v>
+        <v>0.4328666528666529</v>
       </c>
       <c r="P6">
-        <v>0.07218178818178819</v>
+        <v>0.1218447018447019</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -746,40 +746,40 @@
         <v>32</v>
       </c>
       <c r="C7">
-        <v>0.08164210564210564</v>
+        <v>0.0838976398976399</v>
       </c>
       <c r="D7">
         <v>0.1186199626199626</v>
       </c>
       <c r="E7">
-        <v>0.005481845481845483</v>
+        <v>0.005602901602901603</v>
       </c>
       <c r="F7">
-        <v>-0.1428200508200508</v>
+        <v>-0.1311400431400432</v>
       </c>
       <c r="H7">
-        <v>-0.09463736263736264</v>
+        <v>-0.09147018747018747</v>
       </c>
       <c r="I7">
         <v>-0.04742785142785143</v>
       </c>
       <c r="J7">
-        <v>0.02106557750795464</v>
+        <v>-0.03074620891273862</v>
       </c>
       <c r="K7">
-        <v>0.1370389970389971</v>
+        <v>0.1406734766734767</v>
       </c>
       <c r="L7">
         <v>0.7571167451167451</v>
       </c>
       <c r="M7">
-        <v>-0.01747488547488548</v>
+        <v>-0.01594429594429594</v>
       </c>
       <c r="N7">
-        <v>-0.08637038637038638</v>
+        <v>-0.5437065757065757</v>
       </c>
       <c r="P7">
-        <v>-0.07440836640836641</v>
+        <v>-0.2049182889182889</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -788,40 +788,40 @@
         <v>33</v>
       </c>
       <c r="C8">
-        <v>0.2001769761769762</v>
+        <v>0.239950775950776</v>
       </c>
       <c r="D8">
         <v>0.008387912387912389</v>
       </c>
       <c r="E8">
-        <v>-0.02205352605352606</v>
+        <v>-0.02043686043686044</v>
       </c>
       <c r="F8">
-        <v>0.2075686235686236</v>
+        <v>0.1963953283953284</v>
       </c>
       <c r="H8">
-        <v>0.9420457500457501</v>
+        <v>0.9371384531384531</v>
       </c>
       <c r="I8">
         <v>0.9574888414888415</v>
       </c>
       <c r="J8">
-        <v>-0.429967278996592</v>
+        <v>-0.1661053526642112</v>
       </c>
       <c r="K8">
-        <v>-0.01633549633549634</v>
+        <v>-0.0275996435996436</v>
       </c>
       <c r="L8">
         <v>-0.07289025689025688</v>
       </c>
       <c r="M8">
-        <v>0.04483697683697684</v>
+        <v>0.04724373524373524</v>
       </c>
       <c r="N8">
-        <v>-0.03205534405534406</v>
+        <v>0.01612162012162012</v>
       </c>
       <c r="P8">
-        <v>0.1845665325665326</v>
+        <v>0.5865395745395746</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -830,40 +830,40 @@
         <v>34</v>
       </c>
       <c r="C9">
-        <v>-0.01310977310977311</v>
+        <v>-0.000783888783888784</v>
       </c>
       <c r="D9">
         <v>-0.02703693903693904</v>
       </c>
       <c r="E9">
-        <v>-0.0253978813978814</v>
+        <v>-0.02511990111990112</v>
       </c>
       <c r="F9">
-        <v>0.008154932154932156</v>
+        <v>0.06137812937812939</v>
       </c>
       <c r="H9">
-        <v>0.02780987180987181</v>
+        <v>0.04652854652854653</v>
       </c>
       <c r="I9">
         <v>0.02799237999237999</v>
       </c>
       <c r="J9">
-        <v>0.0344569671805635</v>
+        <v>-0.05325658711628105</v>
       </c>
       <c r="K9">
-        <v>0.170025218025218</v>
+        <v>-0.001607065607065607</v>
       </c>
       <c r="L9">
         <v>-0.3031826191826192</v>
       </c>
       <c r="M9">
-        <v>0.7308135828135829</v>
+        <v>0.7260834180834181</v>
       </c>
       <c r="N9">
-        <v>-0.7259104139104139</v>
+        <v>-0.3831491271491271</v>
       </c>
       <c r="P9">
-        <v>-0.6615869895869897</v>
+        <v>-0.1698874218874219</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -872,40 +872,40 @@
         <v>35</v>
       </c>
       <c r="C10">
-        <v>-0.007115815115815117</v>
+        <v>-0.01416589416589417</v>
       </c>
       <c r="D10">
         <v>0.04258941058941059</v>
       </c>
       <c r="E10">
-        <v>-0.04262494262494263</v>
+        <v>-0.0425883905883906</v>
       </c>
       <c r="F10">
-        <v>0.02268976668976669</v>
+        <v>0.02504744504744505</v>
       </c>
       <c r="H10">
-        <v>-0.06137648537648538</v>
+        <v>-0.06032230832230832</v>
       </c>
       <c r="I10">
         <v>-0.09330344130344131</v>
       </c>
       <c r="J10">
-        <v>0.01421960651821826</v>
+        <v>-0.0474929108223534</v>
       </c>
       <c r="K10">
-        <v>-0.0123981723981724</v>
+        <v>-0.0005944325944325944</v>
       </c>
       <c r="L10">
         <v>0.01803553803553804</v>
       </c>
       <c r="M10">
-        <v>0.02246083046083046</v>
+        <v>0.0215970215970216</v>
       </c>
       <c r="N10">
-        <v>-0.02953866553866554</v>
+        <v>-0.03008575808575809</v>
       </c>
       <c r="P10">
-        <v>-0.04746065946065946</v>
+        <v>-0.09397030597030596</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -914,40 +914,40 @@
         <v>36</v>
       </c>
       <c r="C11">
-        <v>-0.0236963996963997</v>
+        <v>-0.02132670932670933</v>
       </c>
       <c r="D11">
         <v>-0.02091672891672892</v>
       </c>
       <c r="E11">
-        <v>0.03336152136152137</v>
+        <v>0.03301298101298102</v>
       </c>
       <c r="F11">
-        <v>-0.0439003519003519</v>
+        <v>-0.0420947580947581</v>
       </c>
       <c r="H11">
-        <v>-0.02498824898824899</v>
+        <v>-0.0250964530964531</v>
       </c>
       <c r="I11">
         <v>-0.015003147003147</v>
       </c>
       <c r="J11">
-        <v>-0.009355077551534181</v>
+        <v>-0.4253098776035729</v>
       </c>
       <c r="K11">
-        <v>0.06963968163968165</v>
+        <v>0.0732946212946213</v>
       </c>
       <c r="L11">
         <v>0.09161872361872361</v>
       </c>
       <c r="M11">
-        <v>0.02876432876432877</v>
+        <v>0.104046044046044</v>
       </c>
       <c r="N11">
-        <v>-0.02555625755625756</v>
+        <v>-0.1373069093069093</v>
       </c>
       <c r="P11">
-        <v>-0.01098477498477498</v>
+        <v>-0.05746905346905348</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -956,40 +956,40 @@
         <v>37</v>
       </c>
       <c r="C12">
-        <v>0.01763802563802564</v>
+        <v>0.01914409914409915</v>
       </c>
       <c r="D12">
         <v>0.02238911838911839</v>
       </c>
       <c r="E12">
-        <v>-0.009132717132717133</v>
+        <v>-0.009580857580857582</v>
       </c>
       <c r="F12">
-        <v>-0.0152978552978553</v>
+        <v>-0.01115537915537916</v>
       </c>
       <c r="H12">
-        <v>-0.04401771201771202</v>
+        <v>-0.04277679077679078</v>
       </c>
       <c r="I12">
         <v>-0.03115366315366316</v>
       </c>
       <c r="J12">
-        <v>-0.01316121743760301</v>
+        <v>-0.02159307856524499</v>
       </c>
       <c r="K12">
-        <v>0.03531587931587932</v>
+        <v>0.04160299760299761</v>
       </c>
       <c r="L12">
         <v>0.06406668406668407</v>
       </c>
       <c r="M12">
-        <v>0.01635814035814036</v>
+        <v>0.0165952485952486</v>
       </c>
       <c r="N12">
-        <v>-0.02429040029040029</v>
+        <v>-0.05490330690330691</v>
       </c>
       <c r="P12">
-        <v>-0.03951972351972352</v>
+        <v>-0.05301262101262101</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -998,40 +998,40 @@
         <v>38</v>
       </c>
       <c r="C13">
-        <v>0.03727563727563728</v>
+        <v>0.03612596412596413</v>
       </c>
       <c r="D13">
         <v>0.03822539022539023</v>
       </c>
       <c r="E13">
-        <v>-0.03607897207897208</v>
+        <v>-0.03607800007800008</v>
       </c>
       <c r="F13">
-        <v>0.03558557958557959</v>
+        <v>0.03264716064716065</v>
       </c>
       <c r="H13">
-        <v>0.02652273852273852</v>
+        <v>0.02676765876765877</v>
       </c>
       <c r="I13">
         <v>0.01915155115155116</v>
       </c>
       <c r="J13">
-        <v>-0.00719426534534492</v>
+        <v>-0.222670075688824</v>
       </c>
       <c r="K13">
-        <v>-0.009035421035421036</v>
+        <v>-0.005797145797145797</v>
       </c>
       <c r="L13">
         <v>0.01262152862152862</v>
       </c>
       <c r="M13">
-        <v>-0.01411937011937012</v>
+        <v>-0.01483855483855484</v>
       </c>
       <c r="N13">
-        <v>0.005308385308385309</v>
+        <v>-0.02102494502494503</v>
       </c>
       <c r="P13">
-        <v>0.01187548787548788</v>
+        <v>-0.02488034488034488</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1042,40 +1042,40 @@
         <v>39</v>
       </c>
       <c r="C14">
-        <v>0.4830192870192871</v>
+        <v>0.4537716457716458</v>
       </c>
       <c r="D14">
         <v>-0.05823387423387424</v>
       </c>
       <c r="E14">
-        <v>0.04625413025413026</v>
+        <v>0.04724786324786324</v>
       </c>
       <c r="F14">
-        <v>-0.03392958992958993</v>
+        <v>-0.03753606153606154</v>
       </c>
       <c r="H14">
-        <v>-0.002539178539178539</v>
+        <v>-0.004438096438096438</v>
       </c>
       <c r="I14">
         <v>0.000481968481968482</v>
       </c>
       <c r="J14">
-        <v>-0.004358884450421025</v>
+        <v>0.06420210666498234</v>
       </c>
       <c r="K14">
-        <v>-0.5376797736797737</v>
+        <v>-0.6220624540624541</v>
       </c>
       <c r="L14">
         <v>-0.04912202512202512</v>
       </c>
       <c r="M14">
-        <v>0.0183954063954064</v>
+        <v>0.01673447273447274</v>
       </c>
       <c r="N14">
-        <v>-0.005360045360045361</v>
+        <v>0.02246101046101046</v>
       </c>
       <c r="P14">
-        <v>-0.001165873165873166</v>
+        <v>0.01672520872520872</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1086,40 +1086,40 @@
         <v>39</v>
       </c>
       <c r="C15">
-        <v>0.5477318477318478</v>
+        <v>0.5593534153534154</v>
       </c>
       <c r="D15">
         <v>-0.01329394929394929</v>
       </c>
       <c r="E15">
-        <v>0.01830359430359431</v>
+        <v>0.0187986427986428</v>
       </c>
       <c r="F15">
-        <v>-0.03684169284169285</v>
+        <v>-0.03543422343422344</v>
       </c>
       <c r="H15">
-        <v>-0.06093558093558094</v>
+        <v>-0.0607996327996328</v>
       </c>
       <c r="I15">
         <v>-0.06471343671343671</v>
       </c>
       <c r="J15">
-        <v>0.05315340026962169</v>
+        <v>0.00741104523612908</v>
       </c>
       <c r="K15">
-        <v>0.7414487374487375</v>
+        <v>0.7421579621579623</v>
       </c>
       <c r="L15">
         <v>0.03751906951906953</v>
       </c>
       <c r="M15">
-        <v>0.00735989535989536</v>
+        <v>0.01245715245715246</v>
       </c>
       <c r="N15">
-        <v>-0.007720327720327721</v>
+        <v>-0.03968358368358369</v>
       </c>
       <c r="P15">
-        <v>-0.02943959343959344</v>
+        <v>-0.06300985500985501</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1130,40 +1130,40 @@
         <v>40</v>
       </c>
       <c r="C16">
-        <v>-0.04387179187179188</v>
+        <v>-0.0433923673923674</v>
       </c>
       <c r="D16">
         <v>-0.01622598422598423</v>
       </c>
       <c r="E16">
-        <v>0.01198613998613999</v>
+        <v>0.01392189792189792</v>
       </c>
       <c r="F16">
-        <v>-0.01243467643467644</v>
+        <v>-0.01357467757467758</v>
       </c>
       <c r="H16">
-        <v>-0.004433932433932434</v>
+        <v>-0.004312612312612313</v>
       </c>
       <c r="I16">
         <v>-0.01223472023472024</v>
       </c>
       <c r="J16">
-        <v>0.05648109966720277</v>
+        <v>0.0169829103314831</v>
       </c>
       <c r="K16">
-        <v>0.02708851508851509</v>
+        <v>0.02291852291852292</v>
       </c>
       <c r="L16">
         <v>-0.0183003903003903</v>
       </c>
       <c r="M16">
-        <v>0.05025851025851026</v>
+        <v>0.04844562044562045</v>
       </c>
       <c r="N16">
-        <v>-0.05071218271218272</v>
+        <v>-0.02680391080391081</v>
       </c>
       <c r="P16">
-        <v>-0.05236253236253236</v>
+        <v>0.003813615813615813</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1174,40 +1174,40 @@
         <v>41</v>
       </c>
       <c r="C17">
-        <v>0.01198057198057198</v>
+        <v>0.02780585180585181</v>
       </c>
       <c r="D17">
         <v>0.001472845472845473</v>
       </c>
       <c r="E17">
-        <v>-0.0006362526362526363</v>
+        <v>-0.001059325059325059</v>
       </c>
       <c r="F17">
-        <v>-0.001180621180621181</v>
+        <v>-0.001301989301989302</v>
       </c>
       <c r="H17">
-        <v>0.001482229482229482</v>
+        <v>0.001110637110637111</v>
       </c>
       <c r="I17">
         <v>0.002827226827226827</v>
       </c>
       <c r="J17">
-        <v>-0.02527472580549506</v>
+        <v>0.01725028880902114</v>
       </c>
       <c r="K17">
-        <v>-0.003207111207111207</v>
+        <v>0.007613527613527614</v>
       </c>
       <c r="L17">
         <v>0.003951603951603952</v>
       </c>
       <c r="M17">
-        <v>-0.007916311916311917</v>
+        <v>-0.007685395685395686</v>
       </c>
       <c r="N17">
-        <v>0.0142960342960343</v>
+        <v>0.01840966240966241</v>
       </c>
       <c r="P17">
-        <v>0.004890592890592891</v>
+        <v>0.02517306117306117</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1216,40 +1216,40 @@
         <v>42</v>
       </c>
       <c r="C18">
-        <v>0.1279254199254199</v>
+        <v>0.1608779808779809</v>
       </c>
       <c r="D18">
         <v>0.05141919941919942</v>
       </c>
       <c r="E18">
-        <v>-0.04796709596709597</v>
+        <v>-0.04797716397716398</v>
       </c>
       <c r="F18">
-        <v>0.04149774549774549</v>
+        <v>0.04212297012297012</v>
       </c>
       <c r="H18">
-        <v>0.001366657366657367</v>
+        <v>0.001707085707085707</v>
       </c>
       <c r="I18">
         <v>0.2669475509475509</v>
       </c>
       <c r="J18">
-        <v>-0.02988690051452543</v>
+        <v>-0.03125920382894769</v>
       </c>
       <c r="K18">
-        <v>-0.005132501132501133</v>
+        <v>0.01405980205980206</v>
       </c>
       <c r="L18">
         <v>0.004024840024840025</v>
       </c>
       <c r="M18">
-        <v>-0.02017167217167217</v>
+        <v>-0.02370676770676771</v>
       </c>
       <c r="N18">
-        <v>0.00731969531969532</v>
+        <v>0.0004199884199884201</v>
       </c>
       <c r="P18">
-        <v>-0.002634974634974635</v>
+        <v>-0.03176503976503976</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1258,40 +1258,40 @@
         <v>43</v>
       </c>
       <c r="C19">
-        <v>-0.2835996915996916</v>
+        <v>-0.3072406032406033</v>
       </c>
       <c r="D19">
         <v>0.01717738117738118</v>
       </c>
       <c r="E19">
-        <v>-0.01215040815040815</v>
+        <v>-0.01381338181338181</v>
       </c>
       <c r="F19">
-        <v>0.00563986163986164</v>
+        <v>0.006406650406650407</v>
       </c>
       <c r="H19">
-        <v>-0.001461433461433462</v>
+        <v>-0.001714369714369715</v>
       </c>
       <c r="I19">
         <v>-0.01395296595296595</v>
       </c>
       <c r="J19">
-        <v>0.05959219884363504</v>
+        <v>-0.0239989688621658</v>
       </c>
       <c r="K19">
-        <v>-0.1031101031101031</v>
+        <v>-0.1073152913152913</v>
       </c>
       <c r="L19">
         <v>0.04604734604734605</v>
       </c>
       <c r="M19">
-        <v>-0.04063939663939664</v>
+        <v>-0.03891541491541491</v>
       </c>
       <c r="N19">
-        <v>0.03391571791571792</v>
+        <v>0.0006417126417126417</v>
       </c>
       <c r="P19">
-        <v>0.02164322164322164</v>
+        <v>-0.03436378636378636</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1302,40 +1302,40 @@
         <v>44</v>
       </c>
       <c r="C20">
-        <v>0.04358052758052759</v>
+        <v>0.04284102684102684</v>
       </c>
       <c r="D20">
         <v>-0.007074799074799076</v>
       </c>
       <c r="E20">
-        <v>0.004216276216276216</v>
+        <v>0.004611088611088611</v>
       </c>
       <c r="F20">
-        <v>-0.002934182934182935</v>
+        <v>-0.002575382575382576</v>
       </c>
       <c r="H20">
-        <v>0.01146721146721147</v>
+        <v>0.01206135606135606</v>
       </c>
       <c r="I20">
         <v>0.007792087792087793</v>
       </c>
       <c r="J20">
-        <v>-0.01004480825574923</v>
+        <v>-0.02597276238736165</v>
       </c>
       <c r="K20">
-        <v>0.02793882393882394</v>
+        <v>0.02481652881652882</v>
       </c>
       <c r="L20">
         <v>-0.01051473451473451</v>
       </c>
       <c r="M20">
-        <v>0.001507969507969508</v>
+        <v>0.0008581928581928583</v>
       </c>
       <c r="N20">
-        <v>-0.003144183144183144</v>
+        <v>-0.006153606153606154</v>
       </c>
       <c r="P20">
-        <v>0.01396152196152196</v>
+        <v>0.04275543075543076</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1346,40 +1346,40 @@
         <v>44</v>
       </c>
       <c r="C21">
-        <v>-0.003407571407571408</v>
+        <v>-0.001694725694725695</v>
       </c>
       <c r="D21">
         <v>0.01772596172596173</v>
       </c>
       <c r="E21">
-        <v>-0.01220596820596821</v>
+        <v>-0.01542236742236742</v>
       </c>
       <c r="F21">
-        <v>0.00765007965007965</v>
+        <v>0.01119290319290319</v>
       </c>
       <c r="H21">
-        <v>-0.004053424053424053</v>
+        <v>-0.003055515055515056</v>
       </c>
       <c r="I21">
         <v>0.007805047805047806</v>
       </c>
       <c r="J21">
-        <v>0.04571349467347807</v>
+        <v>0.009397936784718001</v>
       </c>
       <c r="K21">
-        <v>-0.01984699984699985</v>
+        <v>-0.009107637107637109</v>
       </c>
       <c r="L21">
         <v>0.01436370236370237</v>
       </c>
       <c r="M21">
-        <v>-0.04614470214470215</v>
+        <v>-0.04846612846612847</v>
       </c>
       <c r="N21">
-        <v>0.0465994185994186</v>
+        <v>0.03695247695247695</v>
       </c>
       <c r="P21">
-        <v>0.03527566727566728</v>
+        <v>0.01863750663750664</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1390,40 +1390,40 @@
         <v>44</v>
       </c>
       <c r="C22">
-        <v>-0.02594178194178194</v>
+        <v>-0.02223616623616624</v>
       </c>
       <c r="D22">
         <v>-0.01301485301485302</v>
       </c>
       <c r="E22">
-        <v>0.007939639939639939</v>
+        <v>0.01006390606390607</v>
       </c>
       <c r="F22">
-        <v>0.0009430929430929432</v>
+        <v>-0.001884829884829885</v>
       </c>
       <c r="H22">
-        <v>0.0202958962958963</v>
+        <v>0.01993173193173193</v>
       </c>
       <c r="I22">
         <v>0.02314093114093114</v>
       </c>
       <c r="J22">
-        <v>0.002966733029034423</v>
+        <v>0.02702445626568724</v>
       </c>
       <c r="K22">
-        <v>0.006171582171582172</v>
+        <v>0.002283386283386284</v>
       </c>
       <c r="L22">
         <v>-0.02140425340425341</v>
       </c>
       <c r="M22">
-        <v>0.04433943233943235</v>
+        <v>0.04101922101922102</v>
       </c>
       <c r="N22">
-        <v>-0.0394989874989875</v>
+        <v>0.001697761697761698</v>
       </c>
       <c r="P22">
-        <v>-0.02534928134928136</v>
+        <v>0.01164620364620365</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1432,40 +1432,40 @@
         <v>45</v>
       </c>
       <c r="C23">
-        <v>-0.00590977790977791</v>
+        <v>-0.001738345738345739</v>
       </c>
       <c r="D23">
         <v>-0.02999166599166599</v>
       </c>
       <c r="E23">
-        <v>0.01842731442731443</v>
+        <v>0.02034158034158034</v>
       </c>
       <c r="F23">
-        <v>-0.006792450792450793</v>
+        <v>-0.01010710610710611</v>
       </c>
       <c r="H23">
-        <v>0.01145257145257145</v>
+        <v>0.009797217797217797</v>
       </c>
       <c r="I23">
         <v>0.02651451851451852</v>
       </c>
       <c r="J23">
-        <v>0.04502759197317142</v>
+        <v>0.01497893675238567</v>
       </c>
       <c r="K23">
-        <v>0.01138027138027138</v>
+        <v>0.00383991983991984</v>
       </c>
       <c r="L23">
         <v>-0.06925929325929327</v>
       </c>
       <c r="M23">
-        <v>0.03976033576033577</v>
+        <v>0.03716874116874117</v>
       </c>
       <c r="N23">
-        <v>-0.02957669357669358</v>
+        <v>0.01791608991608992</v>
       </c>
       <c r="P23">
-        <v>-0.03392843792843793</v>
+        <v>0.005278313278313279</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1476,40 +1476,40 @@
         <v>46</v>
       </c>
       <c r="C24">
-        <v>0.000875892875892876</v>
+        <v>-0.0001824361824361825</v>
       </c>
       <c r="D24">
         <v>0.02794175194175194</v>
       </c>
       <c r="E24">
-        <v>-0.02203642603642604</v>
+        <v>-0.02377141177141177</v>
       </c>
       <c r="F24">
-        <v>0.009102717102717104</v>
+        <v>0.01204728004728005</v>
       </c>
       <c r="H24">
-        <v>-0.03914969114969116</v>
+        <v>-0.03783624183624184</v>
       </c>
       <c r="I24">
         <v>-0.05307761307761308</v>
       </c>
       <c r="J24">
-        <v>0.02995314658216267</v>
+        <v>-0.02191224913528373</v>
       </c>
       <c r="K24">
-        <v>0.02864654864654865</v>
+        <v>0.05019179019179019</v>
       </c>
       <c r="L24">
         <v>0.04271569871569872</v>
       </c>
       <c r="M24">
-        <v>-0.02978130578130578</v>
+        <v>-0.02802678402678403</v>
       </c>
       <c r="N24">
-        <v>0.02218624618624618</v>
+        <v>0.002736806736806737</v>
       </c>
       <c r="P24">
-        <v>0.02549484149484149</v>
+        <v>-0.05237843237843239</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1520,40 +1520,40 @@
         <v>47</v>
       </c>
       <c r="C25">
-        <v>0.002043494043494043</v>
+        <v>0.003757647757647757</v>
       </c>
       <c r="D25">
         <v>-0.0190961950961951</v>
       </c>
       <c r="E25">
-        <v>0.03040667440667441</v>
+        <v>0.02868085668085668</v>
       </c>
       <c r="F25">
-        <v>-0.0365996765996766</v>
+        <v>-0.03426151026151026</v>
       </c>
       <c r="H25">
-        <v>-0.02379089979089979</v>
+        <v>-0.02346169146169146</v>
       </c>
       <c r="I25">
         <v>-0.01765396165396165</v>
       </c>
       <c r="J25">
-        <v>-0.01473326104265953</v>
+        <v>-0.0173002688982856</v>
       </c>
       <c r="K25">
-        <v>0.004562500562500563</v>
+        <v>0.006413202413202413</v>
       </c>
       <c r="L25">
         <v>0.0472995712995713</v>
       </c>
       <c r="M25">
-        <v>-0.02151071751071751</v>
+        <v>-0.01575266775266776</v>
       </c>
       <c r="N25">
-        <v>0.01655309255309255</v>
+        <v>-0.03268820068820069</v>
       </c>
       <c r="P25">
-        <v>0.02175662175662176</v>
+        <v>0.01035892635892636</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1562,40 +1562,40 @@
         <v>48</v>
       </c>
       <c r="C26">
-        <v>0.03477422277422278</v>
+        <v>0.02911912111912112</v>
       </c>
       <c r="D26">
         <v>0.03600783600783601</v>
       </c>
       <c r="E26">
-        <v>-0.03588015588015588</v>
+        <v>-0.03603170403170404</v>
       </c>
       <c r="F26">
-        <v>0.03294482094482095</v>
+        <v>0.03381538581538581</v>
       </c>
       <c r="H26">
-        <v>0.01288159288159288</v>
+        <v>0.01361424161424162</v>
       </c>
       <c r="I26">
         <v>-0.0006616566616566617</v>
       </c>
       <c r="J26">
-        <v>0.01424945054868901</v>
+        <v>-0.02943008256213655</v>
       </c>
       <c r="K26">
-        <v>-0.07464179064179065</v>
+        <v>-0.07883843483843485</v>
       </c>
       <c r="L26">
         <v>-0.009542733542733543</v>
       </c>
       <c r="M26">
-        <v>-0.0102958302958303</v>
+        <v>-0.007399735399735399</v>
       </c>
       <c r="N26">
-        <v>0.008181572181572181</v>
+        <v>0.01554829554829555</v>
       </c>
       <c r="P26">
-        <v>-0.003547131547131548</v>
+        <v>-0.02841892041892043</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1604,40 +1604,40 @@
         <v>49</v>
       </c>
       <c r="C27">
-        <v>-0.004832428832428833</v>
+        <v>-0.005698637698637699</v>
       </c>
       <c r="D27">
         <v>0.01710740910740911</v>
       </c>
       <c r="E27">
-        <v>-0.02440944040944041</v>
+        <v>-0.0224987984987985</v>
       </c>
       <c r="F27">
-        <v>0.03356966156966158</v>
+        <v>0.03098835098835099</v>
       </c>
       <c r="H27">
-        <v>6.067206067206067E-05</v>
+        <v>-0.0001323841323841324</v>
       </c>
       <c r="I27">
         <v>-0.01829105429105429</v>
       </c>
       <c r="J27">
-        <v>-0.003105537170753452</v>
+        <v>-0.01791316999292714</v>
       </c>
       <c r="K27">
-        <v>-0.009133113133113133</v>
+        <v>-0.01575165975165975</v>
       </c>
       <c r="L27">
         <v>-0.02792768792768793</v>
       </c>
       <c r="M27">
-        <v>0.03217380817380817</v>
+        <v>0.03148206748206749</v>
       </c>
       <c r="N27">
-        <v>-0.03405591405591406</v>
+        <v>-0.01127492327492327</v>
       </c>
       <c r="P27">
-        <v>-0.01748876948876949</v>
+        <v>-0.03075935475935476</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1646,40 +1646,40 @@
         <v>50</v>
       </c>
       <c r="C28">
-        <v>-0.004986376986376986</v>
+        <v>-0.006346386346386347</v>
       </c>
       <c r="D28">
         <v>0.0104970344970345</v>
       </c>
       <c r="E28">
-        <v>-0.0003461643461643462</v>
+        <v>-0.003892455892455893</v>
       </c>
       <c r="F28">
-        <v>-0.01105238305238305</v>
+        <v>-0.004716976716976717</v>
       </c>
       <c r="H28">
-        <v>-0.02977331377331378</v>
+        <v>-0.02742300342300343</v>
       </c>
       <c r="I28">
         <v>-0.02736665136665137</v>
       </c>
       <c r="J28">
-        <v>-0.001283071310015808</v>
+        <v>-0.008681811505718031</v>
       </c>
       <c r="K28">
-        <v>-0.02781665181665182</v>
+        <v>-0.007183927183927184</v>
       </c>
       <c r="L28">
         <v>0.0250988530988531</v>
       </c>
       <c r="M28">
-        <v>-0.05010939810939811</v>
+        <v>-0.04800829200829201</v>
       </c>
       <c r="N28">
-        <v>0.04477094077094077</v>
+        <v>0.01769215769215769</v>
       </c>
       <c r="P28">
-        <v>0.05158286758286759</v>
+        <v>-0.02820418020418021</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -1690,40 +1690,40 @@
         <v>51</v>
       </c>
       <c r="C29">
-        <v>-0.02678867078867079</v>
+        <v>-0.02676511476511477</v>
       </c>
       <c r="D29">
         <v>-0.0453997533997534</v>
       </c>
       <c r="E29">
-        <v>0.04815847215847217</v>
+        <v>0.04735957135957135</v>
       </c>
       <c r="F29">
-        <v>-0.04685553485553486</v>
+        <v>-0.04792180792180793</v>
       </c>
       <c r="H29">
-        <v>-0.01391838191838192</v>
+        <v>-0.01513862713862714</v>
       </c>
       <c r="I29">
         <v>-0.01078780678780679</v>
       </c>
       <c r="J29">
-        <v>-0.001597867631422852</v>
+        <v>0.03220975552663332</v>
       </c>
       <c r="K29">
-        <v>-0.006347226347226347</v>
+        <v>-0.01714716514716515</v>
       </c>
       <c r="L29">
         <v>0.0101962901962902</v>
       </c>
       <c r="M29">
-        <v>-0.002747822747822748</v>
+        <v>-0.002203298203298203</v>
       </c>
       <c r="N29">
-        <v>0.01232635232635233</v>
+        <v>0.004187908187908188</v>
       </c>
       <c r="P29">
-        <v>-0.0003963363963363964</v>
+        <v>0.01312142512142512</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -1732,40 +1732,40 @@
         <v>52</v>
       </c>
       <c r="C30">
-        <v>0.00961818961818962</v>
+        <v>0.01241586041586042</v>
       </c>
       <c r="D30">
         <v>0.01439301839301839</v>
       </c>
       <c r="E30">
-        <v>-0.01041893841893842</v>
+        <v>-0.009038529038529038</v>
       </c>
       <c r="F30">
-        <v>0.01593465993465994</v>
+        <v>0.008713112713112713</v>
       </c>
       <c r="H30">
-        <v>0.03065410265410266</v>
+        <v>0.02901696501696502</v>
       </c>
       <c r="I30">
         <v>0.02691687891687892</v>
       </c>
       <c r="J30">
-        <v>0.001261279287766153</v>
+        <v>-0.007586227549004747</v>
       </c>
       <c r="K30">
-        <v>0.01276707676707677</v>
+        <v>0.02876639276639277</v>
       </c>
       <c r="L30">
         <v>0.05023085023085024</v>
       </c>
       <c r="M30">
-        <v>-0.01451419451419451</v>
+        <v>-0.01423392223392224</v>
       </c>
       <c r="N30">
-        <v>0.01200848400848401</v>
+        <v>-0.01365294165294165</v>
       </c>
       <c r="P30">
-        <v>0.03912173112173113</v>
+        <v>-0.01693322893322894</v>
       </c>
     </row>
   </sheetData>

--- a/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_1.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="54">
   <si>
     <t>Element</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Parameter</t>
   </si>
   <si>
-    <t>Stream-lipidcane</t>
+    <t>biorefinery</t>
   </si>
   <si>
     <t>Stream-ethanol</t>
@@ -82,16 +82,13 @@
     <t>Stream-natural gas</t>
   </si>
   <si>
-    <t>biorefinery</t>
-  </si>
-  <si>
     <t>Stream-crude glycerol</t>
   </si>
   <si>
     <t>Stream-pure glycerine</t>
   </si>
   <si>
-    <t>Stream-cellulase</t>
+    <t>cellulase</t>
   </si>
   <si>
     <t>Pretreatment reactor system</t>
@@ -103,76 +100,82 @@
     <t>Cofermenation</t>
   </si>
   <si>
+    <t>lipidcane</t>
+  </si>
+  <si>
+    <t>lipidsorghum</t>
+  </si>
+  <si>
+    <t>Lipid retention [%]</t>
+  </si>
+  <si>
+    <t>Bagasse lipid extraction efficiency [%]</t>
+  </si>
+  <si>
+    <t>Capacity [ton/hr]</t>
+  </si>
+  <si>
+    <t>Price [USD/gal]</t>
+  </si>
+  <si>
+    <t>Price [USD/cf]</t>
+  </si>
+  <si>
+    <t>Electricity price [USD/kWh]</t>
+  </si>
+  <si>
+    <t>Operating days [day/yr]</t>
+  </si>
+  <si>
+    <t>IRR [%]</t>
+  </si>
+  <si>
+    <t>Price [USD/kg]</t>
+  </si>
+  <si>
+    <t>Cellulase loading [wt. % cellulose]</t>
+  </si>
+  <si>
+    <t>Base cost [million USD]</t>
+  </si>
+  <si>
+    <t>Cane glucose yield [%]</t>
+  </si>
+  <si>
+    <t>Sorghum glucose yield [%]</t>
+  </si>
+  <si>
+    <t>Cane xylose yield [%]</t>
+  </si>
+  <si>
+    <t>Sorghum xylose yield [%]</t>
+  </si>
+  <si>
+    <t>Glucose to ethanol yield [%]</t>
+  </si>
+  <si>
+    <t>Xylose to ethanol yield [%]</t>
+  </si>
+  <si>
+    <t>Cane  PL [% lipid]</t>
+  </si>
+  <si>
+    <t>Sorghum  PL [% lipid]</t>
+  </si>
+  <si>
+    <t>Cane  FFA [% lipid]</t>
+  </si>
+  <si>
+    <t>Sorghum  FFA [% lipid]</t>
+  </si>
+  <si>
     <t>Cane lipid content [dry wt. %]</t>
   </si>
   <si>
     <t>Relative sorghum lipid content [dry wt. %]</t>
   </si>
   <si>
-    <t>Lipid retention [%]</t>
-  </si>
-  <si>
-    <t>Bagasse lipid extraction efficiency [%]</t>
-  </si>
-  <si>
-    <t>Capacity [ton/hr]</t>
-  </si>
-  <si>
-    <t>Cane  PL [% lipid]</t>
-  </si>
-  <si>
-    <t>Sorghum  PL [% lipid]</t>
-  </si>
-  <si>
-    <t>Cane  FFA [% lipid]</t>
-  </si>
-  <si>
-    <t>Sorghum  FFA [% lipid]</t>
-  </si>
-  <si>
     <t>TAG to  FFA conversion [% lipid]</t>
-  </si>
-  <si>
-    <t>Price [USD/gal]</t>
-  </si>
-  <si>
-    <t>Price [USD/cf]</t>
-  </si>
-  <si>
-    <t>Electricity price [USD/kWh]</t>
-  </si>
-  <si>
-    <t>Operating days [day/yr]</t>
-  </si>
-  <si>
-    <t>IRR [%]</t>
-  </si>
-  <si>
-    <t>Price [USD/kg]</t>
-  </si>
-  <si>
-    <t>Cellulase loading [wt. % cellulose]</t>
-  </si>
-  <si>
-    <t>Base cost [million USD]</t>
-  </si>
-  <si>
-    <t>Cane glucose yield [%]</t>
-  </si>
-  <si>
-    <t>Sorghum glucose yield [%]</t>
-  </si>
-  <si>
-    <t>Cane xylose yield [%]</t>
-  </si>
-  <si>
-    <t>Sorghum xylose yield [%]</t>
-  </si>
-  <si>
-    <t>Glucose to ethanol yield [%]</t>
-  </si>
-  <si>
-    <t>Xylose to ethanol yield [%]</t>
   </si>
 </sst>
 </file>
@@ -617,295 +620,303 @@
         <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C4">
-        <v>0.3559166839166839</v>
+        <v>-0.06728947928947929</v>
       </c>
       <c r="D4">
-        <v>0.9851766131766133</v>
+        <v>-0.0910994590994591</v>
       </c>
       <c r="E4">
-        <v>-0.9999583359583359</v>
+        <v>-0.004348420348420349</v>
       </c>
       <c r="F4">
-        <v>0.9702849582849583</v>
+        <v>0.08386010386010385</v>
       </c>
       <c r="H4">
-        <v>0.3538653658653659</v>
+        <v>0.0582959982959983</v>
       </c>
       <c r="I4">
-        <v>0.03146466746466747</v>
+        <v>0.01902651102651103</v>
       </c>
       <c r="J4">
-        <v>-0.8101960750104403</v>
+        <v>0.04635775788756392</v>
       </c>
       <c r="K4">
-        <v>0.05684439284439285</v>
+        <v>-0.0571938811938812</v>
       </c>
       <c r="L4">
-        <v>-0.02696013896013896</v>
+        <v>-0.5727447687447688</v>
       </c>
       <c r="M4">
-        <v>-0.003893067893067893</v>
+        <v>0.02922434922434922</v>
       </c>
       <c r="N4">
-        <v>0.1371970851970852</v>
+        <v>0.3375400815400815</v>
       </c>
       <c r="P4">
-        <v>-0.3056463056463057</v>
+        <v>0.1494386214386214</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C5">
-        <v>-0.04428040428040429</v>
+        <v>0.09771768171768172</v>
       </c>
       <c r="D5">
-        <v>-0.01586777186777187</v>
+        <v>0.1311289071289072</v>
       </c>
       <c r="E5">
-        <v>0.008169896169896171</v>
+        <v>-0.008332208332208333</v>
       </c>
       <c r="F5">
-        <v>-0.007350823350823351</v>
+        <v>-0.08663228663228663</v>
       </c>
       <c r="H5">
-        <v>-0.002582198582198582</v>
+        <v>0.0002174762174762175</v>
       </c>
       <c r="I5">
-        <v>-0.006816534816534816</v>
+        <v>0.0271995391995392</v>
       </c>
       <c r="J5">
-        <v>0.0131020194002107</v>
+        <v>-0.068678272944656</v>
       </c>
       <c r="K5">
-        <v>-0.003671751671751672</v>
+        <v>0.09761462561462562</v>
       </c>
       <c r="L5">
-        <v>-0.03595653595653596</v>
+        <v>0.7482496122496123</v>
       </c>
       <c r="M5">
-        <v>0.03654283254283254</v>
+        <v>0.03072838272838273</v>
       </c>
       <c r="N5">
-        <v>-0.002561858561858562</v>
+        <v>-0.4448357048357048</v>
       </c>
       <c r="P5">
-        <v>0.0109009309009309</v>
+        <v>-0.1450502650502651</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C6">
-        <v>-0.02405484005484006</v>
+        <v>0.2726526926526927</v>
       </c>
       <c r="D6">
-        <v>-0.06535919335919337</v>
+        <v>-0.004044568044568045</v>
       </c>
       <c r="E6">
-        <v>-0.02664269064269064</v>
+        <v>0.002021066021066021</v>
       </c>
       <c r="F6">
-        <v>0.1148859908859909</v>
+        <v>0.1443016443016443</v>
       </c>
       <c r="H6">
-        <v>0.05317412917412918</v>
+        <v>0.9279400959400961</v>
       </c>
       <c r="I6">
-        <v>0.03009468609468609</v>
+        <v>0.9576163776163775</v>
       </c>
       <c r="J6">
-        <v>0.1689004096561838</v>
+        <v>-0.3175461640251876</v>
       </c>
       <c r="K6">
-        <v>-0.1042332202332202</v>
+        <v>0.04757078357078357</v>
       </c>
       <c r="L6">
-        <v>-0.5432946872946873</v>
+        <v>0.02026109626109626</v>
       </c>
       <c r="M6">
-        <v>-0.01571527571527572</v>
+        <v>-0.01145380745380746</v>
       </c>
       <c r="N6">
-        <v>0.4328666528666529</v>
+        <v>0.05355191355191356</v>
       </c>
       <c r="P6">
-        <v>0.1218447018447019</v>
+        <v>0.5872785952785954</v>
       </c>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="B7" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C7">
-        <v>0.0838976398976399</v>
+        <v>0.466014058014058</v>
       </c>
       <c r="D7">
-        <v>0.1186199626199626</v>
+        <v>0.02677572277572278</v>
       </c>
       <c r="E7">
-        <v>0.005602901602901603</v>
+        <v>-0.03235226035226035</v>
       </c>
       <c r="F7">
-        <v>-0.1311400431400432</v>
+        <v>0.0390961470961471</v>
       </c>
       <c r="H7">
-        <v>-0.09147018747018747</v>
+        <v>0.01925493125493126</v>
       </c>
       <c r="I7">
-        <v>-0.04742785142785143</v>
+        <v>0.01704668904668905</v>
       </c>
       <c r="J7">
-        <v>-0.03074620891273862</v>
+        <v>-0.04786665144625097</v>
       </c>
       <c r="K7">
-        <v>0.1406734766734767</v>
+        <v>-0.6490045330045331</v>
       </c>
       <c r="L7">
-        <v>0.7571167451167451</v>
+        <v>-0.006295518295518296</v>
       </c>
       <c r="M7">
-        <v>-0.01594429594429594</v>
+        <v>0.0294037974037974</v>
       </c>
       <c r="N7">
-        <v>-0.5437065757065757</v>
+        <v>-0.0439013239013239</v>
       </c>
       <c r="P7">
-        <v>-0.2049182889182889</v>
+        <v>-0.03067733467733468</v>
       </c>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="B8" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>0.239950775950776</v>
+        <v>0.5260387660387661</v>
       </c>
       <c r="D8">
-        <v>0.008387912387912389</v>
+        <v>-0.02801639201639202</v>
       </c>
       <c r="E8">
-        <v>-0.02043686043686044</v>
+        <v>0.02918354918354919</v>
       </c>
       <c r="F8">
-        <v>0.1963953283953284</v>
+        <v>-0.02530519330519331</v>
       </c>
       <c r="H8">
-        <v>0.9371384531384531</v>
+        <v>0.01080814680814681</v>
       </c>
       <c r="I8">
-        <v>0.9574888414888415</v>
+        <v>0.02262560262560263</v>
       </c>
       <c r="J8">
-        <v>-0.1661053526642112</v>
+        <v>-4.786804944769511E-05</v>
       </c>
       <c r="K8">
-        <v>-0.0275996435996436</v>
+        <v>0.756926028926029</v>
       </c>
       <c r="L8">
-        <v>-0.07289025689025688</v>
+        <v>0.003743355743355744</v>
       </c>
       <c r="M8">
-        <v>0.04724373524373524</v>
+        <v>-0.04793979593979594</v>
       </c>
       <c r="N8">
-        <v>0.01612162012162012</v>
+        <v>0.04166060966060967</v>
       </c>
       <c r="P8">
-        <v>0.5865395745395746</v>
+        <v>0.03715304515304516</v>
       </c>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B9" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>-0.000783888783888784</v>
+        <v>0.01426725826725827</v>
       </c>
       <c r="D9">
-        <v>-0.02703693903693904</v>
+        <v>0.006020658020658021</v>
       </c>
       <c r="E9">
-        <v>-0.02511990111990112</v>
+        <v>-0.001427053427053427</v>
       </c>
       <c r="F9">
-        <v>0.06137812937812939</v>
+        <v>-0.006972882972882973</v>
       </c>
       <c r="H9">
-        <v>0.04652854652854653</v>
+        <v>-0.02458638058638058</v>
       </c>
       <c r="I9">
-        <v>0.02799237999237999</v>
+        <v>-0.02031891231891232</v>
       </c>
       <c r="J9">
-        <v>-0.05325658711628105</v>
+        <v>-0.01729249786315031</v>
       </c>
       <c r="K9">
-        <v>-0.001607065607065607</v>
+        <v>0.04483242883242883</v>
       </c>
       <c r="L9">
-        <v>-0.3031826191826192</v>
+        <v>0.02917363717363717</v>
       </c>
       <c r="M9">
-        <v>0.7260834180834181</v>
+        <v>-0.01629222429222429</v>
       </c>
       <c r="N9">
-        <v>-0.3831491271491271</v>
+        <v>-0.01822493422493423</v>
       </c>
       <c r="P9">
-        <v>-0.1698874218874219</v>
+        <v>0.001443901443901444</v>
       </c>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="B10" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>-0.01416589416589417</v>
+        <v>0.005575853575853576</v>
       </c>
       <c r="D10">
-        <v>0.04258941058941059</v>
+        <v>-0.02131575331575332</v>
       </c>
       <c r="E10">
-        <v>-0.0425883905883906</v>
+        <v>0.01930641130641131</v>
       </c>
       <c r="F10">
-        <v>0.02504744504744505</v>
+        <v>-0.02687084687084687</v>
       </c>
       <c r="H10">
-        <v>-0.06032230832230832</v>
+        <v>-0.05017221817221817</v>
       </c>
       <c r="I10">
-        <v>-0.09330344130344131</v>
+        <v>-0.02584209784209784</v>
       </c>
       <c r="J10">
-        <v>-0.0474929108223534</v>
+        <v>0.05133569902977713</v>
       </c>
       <c r="K10">
-        <v>-0.0005944325944325944</v>
+        <v>0.005575001575001575</v>
       </c>
       <c r="L10">
-        <v>0.01803553803553804</v>
+        <v>-0.01785542985542985</v>
       </c>
       <c r="M10">
-        <v>0.0215970215970216</v>
+        <v>0.03798212598212598</v>
       </c>
       <c r="N10">
-        <v>-0.03008575808575809</v>
+        <v>0.02142480942480943</v>
       </c>
       <c r="P10">
-        <v>-0.09397030597030596</v>
+        <v>-0.00309014709014709</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -914,40 +925,40 @@
         <v>36</v>
       </c>
       <c r="C11">
-        <v>-0.02132670932670933</v>
+        <v>0.1793127953127953</v>
       </c>
       <c r="D11">
-        <v>-0.02091672891672892</v>
+        <v>0.0371956931956932</v>
       </c>
       <c r="E11">
-        <v>0.03301298101298102</v>
+        <v>-0.03513831513831514</v>
       </c>
       <c r="F11">
-        <v>-0.0420947580947581</v>
+        <v>0.02482924882924883</v>
       </c>
       <c r="H11">
-        <v>-0.0250964530964531</v>
+        <v>-0.03228488028488028</v>
       </c>
       <c r="I11">
-        <v>-0.015003147003147</v>
+        <v>0.2350591510591511</v>
       </c>
       <c r="J11">
-        <v>-0.4253098776035729</v>
+        <v>0.03372593883889484</v>
       </c>
       <c r="K11">
-        <v>0.0732946212946213</v>
+        <v>0.00579004179004179</v>
       </c>
       <c r="L11">
-        <v>0.09161872361872361</v>
+        <v>0.01114480714480715</v>
       </c>
       <c r="M11">
-        <v>0.104046044046044</v>
+        <v>0.006961818961818963</v>
       </c>
       <c r="N11">
-        <v>-0.1373069093069093</v>
+        <v>-0.0320996120996121</v>
       </c>
       <c r="P11">
-        <v>-0.05746905346905348</v>
+        <v>-0.05240306840306841</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -956,826 +967,832 @@
         <v>37</v>
       </c>
       <c r="C12">
-        <v>0.01914409914409915</v>
+        <v>-0.2651662931662932</v>
       </c>
       <c r="D12">
-        <v>0.02238911838911839</v>
+        <v>0.02532154932154933</v>
       </c>
       <c r="E12">
-        <v>-0.009580857580857582</v>
+        <v>-0.02293870693870694</v>
       </c>
       <c r="F12">
-        <v>-0.01115537915537916</v>
+        <v>0.01525482325482326</v>
       </c>
       <c r="H12">
-        <v>-0.04277679077679078</v>
+        <v>-0.03145011145011145</v>
       </c>
       <c r="I12">
-        <v>-0.03115366315366316</v>
+        <v>-0.02596225396225397</v>
       </c>
       <c r="J12">
-        <v>-0.02159307856524499</v>
+        <v>-0.03293429802112988</v>
       </c>
       <c r="K12">
-        <v>0.04160299760299761</v>
+        <v>-0.1326495486495486</v>
       </c>
       <c r="L12">
-        <v>0.06406668406668407</v>
+        <v>0.02613726213726214</v>
       </c>
       <c r="M12">
-        <v>0.0165952485952486</v>
+        <v>-0.02908943308943309</v>
       </c>
       <c r="N12">
-        <v>-0.05490330690330691</v>
+        <v>-0.05028390228390229</v>
       </c>
       <c r="P12">
-        <v>-0.05301262101262101</v>
+        <v>-0.008585408585408585</v>
       </c>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="B13" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>0.03612596412596413</v>
+        <v>0.03969161169161169</v>
       </c>
       <c r="D13">
-        <v>0.03822539022539023</v>
+        <v>0.003931251931251932</v>
       </c>
       <c r="E13">
-        <v>-0.03607800007800008</v>
+        <v>-0.007830931830931831</v>
       </c>
       <c r="F13">
-        <v>0.03264716064716065</v>
+        <v>0.01175864375864376</v>
       </c>
       <c r="H13">
-        <v>0.02676765876765877</v>
+        <v>0.01402019002019002</v>
       </c>
       <c r="I13">
-        <v>0.01915155115155116</v>
+        <v>0.004987024987024987</v>
       </c>
       <c r="J13">
-        <v>-0.222670075688824</v>
+        <v>-0.00918209148510051</v>
       </c>
       <c r="K13">
-        <v>-0.005797145797145797</v>
+        <v>0.0009961929961929963</v>
       </c>
       <c r="L13">
-        <v>0.01262152862152862</v>
+        <v>-0.02710604710604711</v>
       </c>
       <c r="M13">
-        <v>-0.01483855483855484</v>
+        <v>0.03017904617904618</v>
       </c>
       <c r="N13">
-        <v>-0.02102494502494503</v>
+        <v>0.01677343677343678</v>
       </c>
       <c r="P13">
-        <v>-0.02488034488034488</v>
+        <v>0.04804401604401605</v>
       </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14">
-        <v>0.4537716457716458</v>
+        <v>-0.03958991158991159</v>
       </c>
       <c r="D14">
-        <v>-0.05823387423387424</v>
+        <v>0.004162360162360163</v>
       </c>
       <c r="E14">
-        <v>0.04724786324786324</v>
+        <v>-6.531606531606532E-05</v>
       </c>
       <c r="F14">
-        <v>-0.03753606153606154</v>
+        <v>0.002935670935670936</v>
       </c>
       <c r="H14">
-        <v>-0.004438096438096438</v>
+        <v>0.04001856401856402</v>
       </c>
       <c r="I14">
-        <v>0.000481968481968482</v>
+        <v>0.02794845994845995</v>
       </c>
       <c r="J14">
-        <v>0.06420210666498234</v>
+        <v>-0.01144852182632305</v>
       </c>
       <c r="K14">
-        <v>-0.6220624540624541</v>
+        <v>-0.008295236295236295</v>
       </c>
       <c r="L14">
-        <v>-0.04912202512202512</v>
+        <v>0.04018538818538819</v>
       </c>
       <c r="M14">
-        <v>0.01673447273447274</v>
+        <v>-0.04990966990966991</v>
       </c>
       <c r="N14">
-        <v>0.02246101046101046</v>
+        <v>0.006372702372702372</v>
       </c>
       <c r="P14">
-        <v>0.01672520872520872</v>
+        <v>0.01323918123918124</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15">
+        <v>-0.04003258003258003</v>
+      </c>
+      <c r="D15">
+        <v>-0.02625689025689026</v>
+      </c>
+      <c r="E15">
+        <v>0.02752509952509953</v>
+      </c>
+      <c r="F15">
+        <v>-0.0237050877050877</v>
+      </c>
+      <c r="H15">
+        <v>-0.004556692556692557</v>
+      </c>
+      <c r="I15">
+        <v>0.01412559812559813</v>
+      </c>
+      <c r="J15">
+        <v>0.06017667816250859</v>
+      </c>
+      <c r="K15">
+        <v>-0.06615781815781817</v>
+      </c>
+      <c r="L15">
+        <v>-0.008199716199716199</v>
+      </c>
+      <c r="M15">
+        <v>0.01080716280716281</v>
+      </c>
+      <c r="N15">
+        <v>0.01801276201276202</v>
+      </c>
+      <c r="P15">
+        <v>-0.004716868716868717</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C15">
-        <v>0.5593534153534154</v>
-      </c>
-      <c r="D15">
-        <v>-0.01329394929394929</v>
-      </c>
-      <c r="E15">
-        <v>0.0187986427986428</v>
-      </c>
-      <c r="F15">
-        <v>-0.03543422343422344</v>
-      </c>
-      <c r="H15">
-        <v>-0.0607996327996328</v>
-      </c>
-      <c r="I15">
-        <v>-0.06471343671343671</v>
-      </c>
-      <c r="J15">
-        <v>0.00741104523612908</v>
-      </c>
-      <c r="K15">
-        <v>0.7421579621579623</v>
-      </c>
-      <c r="L15">
-        <v>0.03751906951906953</v>
-      </c>
-      <c r="M15">
-        <v>0.01245715245715246</v>
-      </c>
-      <c r="N15">
-        <v>-0.03968358368358369</v>
-      </c>
-      <c r="P15">
-        <v>-0.06300985500985501</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="A16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="C16">
-        <v>-0.0433923673923674</v>
+        <v>0.006282018282018282</v>
       </c>
       <c r="D16">
-        <v>-0.01622598422598423</v>
+        <v>0.0002711402711402712</v>
       </c>
       <c r="E16">
-        <v>0.01392189792189792</v>
+        <v>0.002878358878358878</v>
       </c>
       <c r="F16">
-        <v>-0.01357467757467758</v>
+        <v>-0.00373991173991174</v>
       </c>
       <c r="H16">
-        <v>-0.004312612312612313</v>
+        <v>-0.009368541368541369</v>
       </c>
       <c r="I16">
-        <v>-0.01223472023472024</v>
+        <v>-0.002670542670542671</v>
       </c>
       <c r="J16">
-        <v>0.0169829103314831</v>
+        <v>0.01364883209924357</v>
       </c>
       <c r="K16">
-        <v>0.02291852291852292</v>
+        <v>0.007774147774147774</v>
       </c>
       <c r="L16">
-        <v>-0.0183003903003903</v>
+        <v>0.009830205830205831</v>
       </c>
       <c r="M16">
-        <v>0.04844562044562045</v>
+        <v>-0.02830188430188431</v>
       </c>
       <c r="N16">
-        <v>-0.02680391080391081</v>
+        <v>-0.01792727392727393</v>
       </c>
       <c r="P16">
-        <v>0.003813615813615813</v>
+        <v>-0.03543886743886744</v>
       </c>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17">
+        <v>0.006154962154962156</v>
+      </c>
+      <c r="D17">
+        <v>0.0387946707946708</v>
+      </c>
+      <c r="E17">
+        <v>-0.03404725004725005</v>
+      </c>
+      <c r="F17">
+        <v>0.02526970926970927</v>
+      </c>
+      <c r="H17">
+        <v>0.01047159447159447</v>
+      </c>
+      <c r="I17">
+        <v>-0.009847689847689849</v>
+      </c>
+      <c r="J17">
+        <v>-0.03780723305487177</v>
+      </c>
+      <c r="K17">
+        <v>-0.008076044076044078</v>
+      </c>
+      <c r="L17">
+        <v>0.0377015057015057</v>
+      </c>
+      <c r="M17">
+        <v>0.05226874026874027</v>
+      </c>
+      <c r="N17">
+        <v>-0.04735312735312736</v>
+      </c>
+      <c r="P17">
+        <v>-0.01454898254898255</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C17">
-        <v>0.02780585180585181</v>
-      </c>
-      <c r="D17">
-        <v>0.001472845472845473</v>
-      </c>
-      <c r="E17">
-        <v>-0.001059325059325059</v>
-      </c>
-      <c r="F17">
-        <v>-0.001301989301989302</v>
-      </c>
-      <c r="H17">
-        <v>0.001110637110637111</v>
-      </c>
-      <c r="I17">
-        <v>0.002827226827226827</v>
-      </c>
-      <c r="J17">
-        <v>0.01725028880902114</v>
-      </c>
-      <c r="K17">
-        <v>0.007613527613527614</v>
-      </c>
-      <c r="L17">
-        <v>0.003951603951603952</v>
-      </c>
-      <c r="M17">
-        <v>-0.007685395685395686</v>
-      </c>
-      <c r="N17">
-        <v>0.01840966240966241</v>
-      </c>
-      <c r="P17">
-        <v>0.02517306117306117</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="C18">
-        <v>0.1608779808779809</v>
+        <v>-0.02306252306252306</v>
       </c>
       <c r="D18">
-        <v>0.05141919941919942</v>
+        <v>0.003202383202383203</v>
       </c>
       <c r="E18">
-        <v>-0.04797716397716398</v>
+        <v>-0.01187761187761188</v>
       </c>
       <c r="F18">
-        <v>0.04212297012297012</v>
+        <v>0.02178081378081378</v>
       </c>
       <c r="H18">
-        <v>0.001707085707085707</v>
+        <v>0.02657333057333057</v>
       </c>
       <c r="I18">
-        <v>0.2669475509475509</v>
+        <v>0.01689010089010089</v>
       </c>
       <c r="J18">
-        <v>-0.03125920382894769</v>
+        <v>0.00314321124693722</v>
       </c>
       <c r="K18">
-        <v>0.01405980205980206</v>
+        <v>-0.04998036198036199</v>
       </c>
       <c r="L18">
-        <v>0.004024840024840025</v>
+        <v>-0.04505150105150105</v>
       </c>
       <c r="M18">
-        <v>-0.02370676770676771</v>
+        <v>-0.02048820848820849</v>
       </c>
       <c r="N18">
-        <v>0.0004199884199884201</v>
+        <v>0.02860800460800461</v>
       </c>
       <c r="P18">
-        <v>-0.03176503976503976</v>
+        <v>0.0434927234927235</v>
       </c>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19">
+        <v>-0.0228936948936949</v>
+      </c>
+      <c r="D19">
+        <v>-0.04491275691275692</v>
+      </c>
+      <c r="E19">
+        <v>0.04268215868215869</v>
+      </c>
+      <c r="F19">
+        <v>-0.04105439305439306</v>
+      </c>
+      <c r="H19">
+        <v>-0.0368926808926809</v>
+      </c>
+      <c r="I19">
+        <v>-0.02482634482634483</v>
+      </c>
+      <c r="J19">
+        <v>-0.02038466705736108</v>
+      </c>
+      <c r="K19">
+        <v>-0.02485645285645286</v>
+      </c>
+      <c r="L19">
+        <v>-0.01066298266298266</v>
+      </c>
+      <c r="M19">
+        <v>-0.006207654207654208</v>
+      </c>
+      <c r="N19">
+        <v>0.03557134757134757</v>
+      </c>
+      <c r="P19">
+        <v>-0.01640347640347641</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C19">
-        <v>-0.3072406032406033</v>
-      </c>
-      <c r="D19">
-        <v>0.01717738117738118</v>
-      </c>
-      <c r="E19">
-        <v>-0.01381338181338181</v>
-      </c>
-      <c r="F19">
-        <v>0.006406650406650407</v>
-      </c>
-      <c r="H19">
-        <v>-0.001714369714369715</v>
-      </c>
-      <c r="I19">
-        <v>-0.01395296595296595</v>
-      </c>
-      <c r="J19">
-        <v>-0.0239989688621658</v>
-      </c>
-      <c r="K19">
-        <v>-0.1073152913152913</v>
-      </c>
-      <c r="L19">
-        <v>0.04604734604734605</v>
-      </c>
-      <c r="M19">
-        <v>-0.03891541491541491</v>
-      </c>
-      <c r="N19">
-        <v>0.0006417126417126417</v>
-      </c>
-      <c r="P19">
-        <v>-0.03436378636378636</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
-      <c r="A20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="C20">
-        <v>0.04284102684102684</v>
+        <v>-0.0751958551958552</v>
       </c>
       <c r="D20">
-        <v>-0.007074799074799076</v>
+        <v>-0.03154093954093955</v>
       </c>
       <c r="E20">
-        <v>0.004611088611088611</v>
+        <v>0.04228923028923029</v>
       </c>
       <c r="F20">
-        <v>-0.002575382575382576</v>
+        <v>-0.059998835998836</v>
       </c>
       <c r="H20">
-        <v>0.01206135606135606</v>
+        <v>-0.09795792195792197</v>
       </c>
       <c r="I20">
-        <v>0.007792087792087793</v>
+        <v>-0.08057872457872459</v>
       </c>
       <c r="J20">
-        <v>-0.02597276238736165</v>
+        <v>0.01460675108877389</v>
       </c>
       <c r="K20">
-        <v>0.02481652881652882</v>
+        <v>0.04703217503217503</v>
       </c>
       <c r="L20">
-        <v>-0.01051473451473451</v>
+        <v>0.03974979974979975</v>
       </c>
       <c r="M20">
-        <v>0.0008581928581928583</v>
+        <v>0.03251112851112851</v>
       </c>
       <c r="N20">
-        <v>-0.006153606153606154</v>
+        <v>0.008118236118236118</v>
       </c>
       <c r="P20">
-        <v>0.04275543075543076</v>
+        <v>-0.06529919329919331</v>
       </c>
     </row>
     <row r="21" spans="1:16">
-      <c r="A21" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C21">
-        <v>-0.001694725694725695</v>
+        <v>-0.04272633072633073</v>
       </c>
       <c r="D21">
-        <v>0.01772596172596173</v>
+        <v>-0.05258084858084858</v>
       </c>
       <c r="E21">
-        <v>-0.01542236742236742</v>
+        <v>0.04975372975372976</v>
       </c>
       <c r="F21">
-        <v>0.01119290319290319</v>
+        <v>-0.049004557004557</v>
       </c>
       <c r="H21">
-        <v>-0.003055515055515056</v>
+        <v>-0.03246011646011646</v>
       </c>
       <c r="I21">
-        <v>0.007805047805047806</v>
+        <v>-0.02576385776385776</v>
       </c>
       <c r="J21">
-        <v>0.009397936784718001</v>
+        <v>-0.02686959375629037</v>
       </c>
       <c r="K21">
-        <v>-0.009107637107637109</v>
+        <v>-0.009644865644865646</v>
       </c>
       <c r="L21">
-        <v>0.01436370236370237</v>
+        <v>-0.01075612675612676</v>
       </c>
       <c r="M21">
-        <v>-0.04846612846612847</v>
+        <v>0.02436477636477636</v>
       </c>
       <c r="N21">
-        <v>0.03695247695247695</v>
+        <v>0.01693150093150093</v>
       </c>
       <c r="P21">
-        <v>0.01863750663750664</v>
+        <v>0.0148968628968629</v>
       </c>
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C22">
-        <v>-0.02223616623616624</v>
+        <v>0.03571862371862372</v>
       </c>
       <c r="D22">
-        <v>-0.01301485301485302</v>
+        <v>-0.003338751338751339</v>
       </c>
       <c r="E22">
-        <v>0.01006390606390607</v>
+        <v>0.001622329622329623</v>
       </c>
       <c r="F22">
-        <v>-0.001884829884829885</v>
+        <v>0.008527220527220528</v>
       </c>
       <c r="H22">
-        <v>0.01993173193173193</v>
+        <v>0.05081329481329482</v>
       </c>
       <c r="I22">
-        <v>0.02314093114093114</v>
+        <v>0.0384011424011424</v>
       </c>
       <c r="J22">
-        <v>0.02702445626568724</v>
+        <v>-0.07054554087354378</v>
       </c>
       <c r="K22">
-        <v>0.002283386283386284</v>
+        <v>0.01304132504132504</v>
       </c>
       <c r="L22">
-        <v>-0.02140425340425341</v>
+        <v>-0.006955710955710955</v>
       </c>
       <c r="M22">
-        <v>0.04101922101922102</v>
+        <v>0.02451144051144051</v>
       </c>
       <c r="N22">
-        <v>0.001697761697761698</v>
+        <v>0.006032466032466033</v>
       </c>
       <c r="P22">
-        <v>0.01164620364620365</v>
+        <v>0.02558258558258558</v>
       </c>
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C23">
-        <v>-0.001738345738345739</v>
+        <v>-0.03873127473127474</v>
       </c>
       <c r="D23">
-        <v>-0.02999166599166599</v>
+        <v>-0.0009958929958929958</v>
       </c>
       <c r="E23">
-        <v>0.02034158034158034</v>
+        <v>0.006188550188550189</v>
       </c>
       <c r="F23">
-        <v>-0.01010710610710611</v>
+        <v>-0.00924948924948925</v>
       </c>
       <c r="H23">
-        <v>0.009797217797217797</v>
+        <v>-0.003093783093783094</v>
       </c>
       <c r="I23">
-        <v>0.02651451851451852</v>
+        <v>-0.001917109917109917</v>
       </c>
       <c r="J23">
-        <v>0.01497893675238567</v>
+        <v>0.005846976039926253</v>
       </c>
       <c r="K23">
-        <v>0.00383991983991984</v>
+        <v>0.06895880095880096</v>
       </c>
       <c r="L23">
-        <v>-0.06925929325929327</v>
+        <v>0.02798155598155598</v>
       </c>
       <c r="M23">
-        <v>0.03716874116874117</v>
+        <v>-0.03930941130941131</v>
       </c>
       <c r="N23">
-        <v>0.01791608991608992</v>
+        <v>-0.01261126861126861</v>
       </c>
       <c r="P23">
-        <v>0.005278313278313279</v>
+        <v>-0.008861660861660863</v>
       </c>
     </row>
     <row r="24" spans="1:16">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C24">
-        <v>-0.0001824361824361825</v>
+        <v>-0.03952397152397153</v>
       </c>
       <c r="D24">
-        <v>0.02794175194175194</v>
+        <v>-0.05756404556404558</v>
       </c>
       <c r="E24">
-        <v>-0.02377141177141177</v>
+        <v>0.01724531324531324</v>
       </c>
       <c r="F24">
-        <v>0.01204728004728005</v>
+        <v>0.009005037005037006</v>
       </c>
       <c r="H24">
-        <v>-0.03783624183624184</v>
+        <v>-0.006836562836562836</v>
       </c>
       <c r="I24">
-        <v>-0.05307761307761308</v>
+        <v>-0.0100943620943621</v>
       </c>
       <c r="J24">
-        <v>-0.02191224913528373</v>
+        <v>-0.0007921328182732018</v>
       </c>
       <c r="K24">
-        <v>0.05019179019179019</v>
+        <v>-0.08276516276516277</v>
       </c>
       <c r="L24">
-        <v>0.04271569871569872</v>
+        <v>-0.3017179337179338</v>
       </c>
       <c r="M24">
-        <v>-0.02802678402678403</v>
+        <v>0.9916543276543276</v>
       </c>
       <c r="N24">
-        <v>0.002736806736806737</v>
+        <v>0.1068013068013068</v>
       </c>
       <c r="P24">
-        <v>-0.05237843237843239</v>
+        <v>0.03775171375171375</v>
       </c>
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C25">
-        <v>0.003757647757647757</v>
+        <v>0.03798260598260599</v>
       </c>
       <c r="D25">
-        <v>-0.0190961950961951</v>
+        <v>0.0581893181893182</v>
       </c>
       <c r="E25">
-        <v>0.02868085668085668</v>
+        <v>-0.05816691416691417</v>
       </c>
       <c r="F25">
-        <v>-0.03426151026151026</v>
+        <v>0.05094786294786294</v>
       </c>
       <c r="H25">
-        <v>-0.02346169146169146</v>
+        <v>-0.01806545406545407</v>
       </c>
       <c r="I25">
-        <v>-0.01765396165396165</v>
+        <v>-0.02873820473820474</v>
       </c>
       <c r="J25">
-        <v>-0.0173002688982856</v>
+        <v>0.03501651617206123</v>
       </c>
       <c r="K25">
-        <v>0.006413202413202413</v>
+        <v>-0.02103174903174903</v>
       </c>
       <c r="L25">
-        <v>0.0472995712995713</v>
+        <v>0.008452736452736455</v>
       </c>
       <c r="M25">
-        <v>-0.01575266775266776</v>
+        <v>-0.009260661260661262</v>
       </c>
       <c r="N25">
-        <v>-0.03268820068820069</v>
+        <v>-0.05994737994737995</v>
       </c>
       <c r="P25">
-        <v>0.01035892635892636</v>
+        <v>-0.05661810861810862</v>
       </c>
     </row>
     <row r="26" spans="1:16">
-      <c r="A26" s="1"/>
+      <c r="A26" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="B26" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C26">
-        <v>0.02911912111912112</v>
+        <v>-0.02328703128703129</v>
       </c>
       <c r="D26">
-        <v>0.03600783600783601</v>
+        <v>0.01116355116355116</v>
       </c>
       <c r="E26">
-        <v>-0.03603170403170404</v>
+        <v>1.165201165201165E-05</v>
       </c>
       <c r="F26">
-        <v>0.03381538581538581</v>
+        <v>-0.01124763524763525</v>
       </c>
       <c r="H26">
-        <v>0.01361424161424162</v>
+        <v>-0.0312022152022152</v>
       </c>
       <c r="I26">
-        <v>-0.0006616566616566617</v>
+        <v>-0.03225016425016425</v>
       </c>
       <c r="J26">
-        <v>-0.02943008256213655</v>
+        <v>-0.05201620773274262</v>
       </c>
       <c r="K26">
-        <v>-0.07883843483843485</v>
+        <v>0.02441523641523641</v>
       </c>
       <c r="L26">
-        <v>-0.009542733542733543</v>
+        <v>0.04784923184923185</v>
       </c>
       <c r="M26">
-        <v>-0.007399735399735399</v>
+        <v>0.1231340431340431</v>
       </c>
       <c r="N26">
-        <v>0.01554829554829555</v>
+        <v>-0.01278942078942079</v>
       </c>
       <c r="P26">
-        <v>-0.02841892041892043</v>
+        <v>-0.03676527676527677</v>
       </c>
     </row>
     <row r="27" spans="1:16">
-      <c r="A27" s="1"/>
+      <c r="A27" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="B27" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C27">
-        <v>-0.005698637698637699</v>
+        <v>0.01706546906546907</v>
       </c>
       <c r="D27">
-        <v>0.01710740910740911</v>
+        <v>0.02662799062799063</v>
       </c>
       <c r="E27">
-        <v>-0.0224987984987985</v>
+        <v>-0.03241190041190041</v>
       </c>
       <c r="F27">
-        <v>0.03098835098835099</v>
+        <v>0.03738199338199338</v>
       </c>
       <c r="H27">
-        <v>-0.0001323841323841324</v>
+        <v>0.04340392340392341</v>
       </c>
       <c r="I27">
-        <v>-0.01829105429105429</v>
+        <v>0.03971495171495171</v>
       </c>
       <c r="J27">
-        <v>-0.01791316999292714</v>
+        <v>-0.002627666714379718</v>
       </c>
       <c r="K27">
-        <v>-0.01575165975165975</v>
+        <v>-7.015207015207015E-05</v>
       </c>
       <c r="L27">
-        <v>-0.02792768792768793</v>
+        <v>-0.04138391338391338</v>
       </c>
       <c r="M27">
-        <v>0.03148206748206749</v>
+        <v>0.008484944484944487</v>
       </c>
       <c r="N27">
-        <v>-0.01127492327492327</v>
+        <v>0.02401932001932002</v>
       </c>
       <c r="P27">
-        <v>-0.03075935475935476</v>
+        <v>0.04928226128226128</v>
       </c>
     </row>
     <row r="28" spans="1:16">
-      <c r="A28" s="1"/>
+      <c r="A28" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="B28" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C28">
-        <v>-0.006346386346386347</v>
+        <v>0.427014475014475</v>
       </c>
       <c r="D28">
-        <v>0.0104970344970345</v>
+        <v>0.9851582051582054</v>
       </c>
       <c r="E28">
-        <v>-0.003892455892455893</v>
+        <v>-0.999955011955012</v>
       </c>
       <c r="F28">
-        <v>-0.004716976716976717</v>
+        <v>0.9787673827673827</v>
       </c>
       <c r="H28">
-        <v>-0.02742300342300343</v>
+        <v>0.3560558480558481</v>
       </c>
       <c r="I28">
-        <v>-0.02736665136665137</v>
+        <v>0.004126060126060127</v>
       </c>
       <c r="J28">
-        <v>-0.008681811505718031</v>
+        <v>-0.2050191977848314</v>
       </c>
       <c r="K28">
-        <v>-0.007183927183927184</v>
+        <v>-0.0731843411843412</v>
       </c>
       <c r="L28">
-        <v>0.0250988530988531</v>
+        <v>0.01173809973809974</v>
       </c>
       <c r="M28">
-        <v>-0.04800829200829201</v>
+        <v>-0.009505761505761505</v>
       </c>
       <c r="N28">
-        <v>0.01769215769215769</v>
+        <v>-0.7366417846417846</v>
       </c>
       <c r="P28">
-        <v>-0.02820418020418021</v>
+        <v>-0.4932360012360013</v>
       </c>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C29">
-        <v>-0.02676511476511477</v>
+        <v>-0.05571341571341572</v>
       </c>
       <c r="D29">
-        <v>-0.0453997533997534</v>
+        <v>-0.01517286317286318</v>
       </c>
       <c r="E29">
-        <v>0.04735957135957135</v>
+        <v>0.01445543045543046</v>
       </c>
       <c r="F29">
-        <v>-0.04792180792180793</v>
+        <v>-0.01538941538941539</v>
       </c>
       <c r="H29">
-        <v>-0.01513862713862714</v>
+        <v>-0.03445019845019846</v>
       </c>
       <c r="I29">
-        <v>-0.01078780678780679</v>
+        <v>-0.03041409041409042</v>
       </c>
       <c r="J29">
-        <v>0.03220975552663332</v>
+        <v>0.01166303404791418</v>
       </c>
       <c r="K29">
-        <v>-0.01714716514716515</v>
+        <v>0.007441255441255442</v>
       </c>
       <c r="L29">
-        <v>0.0101962901962902</v>
+        <v>-0.01079029079029079</v>
       </c>
       <c r="M29">
-        <v>-0.002203298203298203</v>
+        <v>-0.003945831945831946</v>
       </c>
       <c r="N29">
-        <v>0.004187908187908188</v>
+        <v>0.004759252759252759</v>
       </c>
       <c r="P29">
-        <v>0.01312142512142512</v>
+        <v>-0.005005901005901006</v>
       </c>
     </row>
     <row r="30" spans="1:16">
-      <c r="A30" s="1"/>
+      <c r="A30" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="B30" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C30">
-        <v>0.01241586041586042</v>
+        <v>0.02530773730773731</v>
       </c>
       <c r="D30">
-        <v>0.01439301839301839</v>
+        <v>0.01138419538419539</v>
       </c>
       <c r="E30">
-        <v>-0.009038529038529038</v>
+        <v>-0.01118660318660319</v>
       </c>
       <c r="F30">
-        <v>0.008713112713112713</v>
+        <v>0.01148189948189948</v>
       </c>
       <c r="H30">
-        <v>0.02901696501696502</v>
+        <v>0.0160989760989761</v>
       </c>
       <c r="I30">
-        <v>0.02691687891687892</v>
+        <v>0.01143314343314343</v>
       </c>
       <c r="J30">
-        <v>-0.007586227549004747</v>
+        <v>-0.05080250247898509</v>
       </c>
       <c r="K30">
-        <v>0.02876639276639277</v>
+        <v>-0.02660355860355861</v>
       </c>
       <c r="L30">
-        <v>0.05023085023085024</v>
+        <v>-0.002551358551358551</v>
       </c>
       <c r="M30">
-        <v>-0.01423392223392224</v>
+        <v>0.01300822900822901</v>
       </c>
       <c r="N30">
-        <v>-0.01365294165294165</v>
+        <v>0.01806636606636607</v>
       </c>
       <c r="P30">
-        <v>-0.01693322893322894</v>
+        <v>0.004010368010368011</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="C1:P1"/>
-    <mergeCell ref="A4:A13"/>
-    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A18:A21"/>
     <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="A29:A30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_1.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="57">
   <si>
     <t>Element</t>
   </si>
@@ -100,6 +100,9 @@
     <t>Cofermenation</t>
   </si>
   <si>
+    <t>Cofermentation</t>
+  </si>
+  <si>
     <t>lipidcane</t>
   </si>
   <si>
@@ -157,16 +160,22 @@
     <t>Xylose to ethanol yield [%]</t>
   </si>
   <si>
-    <t>Cane  PL [% lipid]</t>
-  </si>
-  <si>
-    <t>Sorghum  PL [% lipid]</t>
-  </si>
-  <si>
-    <t>Cane  FFA [% lipid]</t>
-  </si>
-  <si>
-    <t>Sorghum  FFA [% lipid]</t>
+    <t>Titer [g/L]</t>
+  </si>
+  <si>
+    <t>Productivity [g/L]</t>
+  </si>
+  <si>
+    <t>Cane  PL content [% lipid]</t>
+  </si>
+  <si>
+    <t>Sorghum  PL content [% lipid]</t>
+  </si>
+  <si>
+    <t>Cane  FFA content [% lipid]</t>
+  </si>
+  <si>
+    <t>Sorghum  FFA content [% lipid]</t>
   </si>
   <si>
     <t>Cane lipid content [dry wt. %]</t>
@@ -533,7 +542,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P30"/>
+  <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -620,127 +629,127 @@
         <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C4">
-        <v>-0.06728947928947929</v>
+        <v>-0.05373188993297249</v>
       </c>
       <c r="D4">
-        <v>-0.0910994590994591</v>
+        <v>-0.1069195437298859</v>
       </c>
       <c r="E4">
-        <v>-0.004348420348420349</v>
+        <v>-0.02535156783789196</v>
       </c>
       <c r="F4">
-        <v>0.08386010386010385</v>
+        <v>0.131507243876811</v>
       </c>
       <c r="H4">
-        <v>0.0582959982959983</v>
+        <v>0.04111003177750794</v>
       </c>
       <c r="I4">
-        <v>0.01902651102651103</v>
+        <v>-0.0116191664047916</v>
       </c>
       <c r="J4">
-        <v>0.04635775788756392</v>
+        <v>0.05657665747619295</v>
       </c>
       <c r="K4">
-        <v>-0.0571938811938812</v>
+        <v>-0.1158784909696227</v>
       </c>
       <c r="L4">
-        <v>-0.5727447687447688</v>
+        <v>-0.6745882461470615</v>
       </c>
       <c r="M4">
-        <v>0.02922434922434922</v>
+        <v>-0.02613871853467964</v>
       </c>
       <c r="N4">
-        <v>0.3375400815400815</v>
+        <v>0.4333590093397523</v>
       </c>
       <c r="P4">
-        <v>0.1494386214386214</v>
+        <v>0.1710111142527785</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C5">
-        <v>0.09771768171768172</v>
+        <v>0.09359774339943584</v>
       </c>
       <c r="D5">
-        <v>0.1311289071289072</v>
+        <v>0.11651948012987</v>
       </c>
       <c r="E5">
-        <v>-0.008332208332208333</v>
+        <v>0.01003885750971438</v>
       </c>
       <c r="F5">
-        <v>-0.08663228663228663</v>
+        <v>-0.1127381531845383</v>
       </c>
       <c r="H5">
-        <v>0.0002174762174762175</v>
+        <v>-0.03635549258887314</v>
       </c>
       <c r="I5">
-        <v>0.0271995391995392</v>
+        <v>-0.001179184794796199</v>
       </c>
       <c r="J5">
-        <v>-0.068678272944656</v>
+        <v>0.01325223581650797</v>
       </c>
       <c r="K5">
-        <v>0.09761462561462562</v>
+        <v>0.1448708477177119</v>
       </c>
       <c r="L5">
-        <v>0.7482496122496123</v>
+        <v>0.6426262471565618</v>
       </c>
       <c r="M5">
-        <v>0.03072838272838273</v>
+        <v>-0.0223283455820864</v>
       </c>
       <c r="N5">
-        <v>-0.4448357048357048</v>
+        <v>-0.4029129857282464</v>
       </c>
       <c r="P5">
-        <v>-0.1450502650502651</v>
+        <v>-0.1373647108411777</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C6">
-        <v>0.2726526926526927</v>
+        <v>0.2742668830667208</v>
       </c>
       <c r="D6">
-        <v>-0.004044568044568045</v>
+        <v>-0.0248243852060963</v>
       </c>
       <c r="E6">
-        <v>0.002021066021066021</v>
+        <v>0.02800492000123</v>
       </c>
       <c r="F6">
-        <v>0.1443016443016443</v>
+        <v>0.1163171300792825</v>
       </c>
       <c r="H6">
-        <v>0.9279400959400961</v>
+        <v>0.9232293193073298</v>
       </c>
       <c r="I6">
-        <v>0.9576163776163775</v>
+        <v>0.9576270249067561</v>
       </c>
       <c r="J6">
-        <v>-0.3175461640251876</v>
+        <v>-0.3171075523415701</v>
       </c>
       <c r="K6">
-        <v>0.04757078357078357</v>
+        <v>0.02745072236268059</v>
       </c>
       <c r="L6">
-        <v>0.02026109626109626</v>
+        <v>0.007890694972673744</v>
       </c>
       <c r="M6">
-        <v>-0.01145380745380746</v>
+        <v>-0.003230289807572452</v>
       </c>
       <c r="N6">
-        <v>0.05355191355191356</v>
+        <v>0.05572862293215573</v>
       </c>
       <c r="P6">
-        <v>0.5872785952785954</v>
+        <v>0.5789980567495141</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -748,43 +757,43 @@
         <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C7">
-        <v>0.466014058014058</v>
+        <v>0.4641215675303919</v>
       </c>
       <c r="D7">
-        <v>0.02677572277572278</v>
+        <v>-0.03019934854983714</v>
       </c>
       <c r="E7">
-        <v>-0.03235226035226035</v>
+        <v>0.02548397287099322</v>
       </c>
       <c r="F7">
-        <v>0.0390961470961471</v>
+        <v>-0.01445664661416165</v>
       </c>
       <c r="H7">
-        <v>0.01925493125493126</v>
+        <v>0.005785736946434236</v>
       </c>
       <c r="I7">
-        <v>0.01704668904668905</v>
+        <v>0.01047732411933103</v>
       </c>
       <c r="J7">
-        <v>-0.04786665144625097</v>
+        <v>-0.03262487828017037</v>
       </c>
       <c r="K7">
-        <v>-0.6490045330045331</v>
+        <v>-0.6304893301223325</v>
       </c>
       <c r="L7">
-        <v>-0.006295518295518296</v>
+        <v>-0.03032197658049414</v>
       </c>
       <c r="M7">
-        <v>0.0294037974037974</v>
+        <v>-0.009616590904147727</v>
       </c>
       <c r="N7">
-        <v>-0.0439013239013239</v>
+        <v>0.02488192822048206</v>
       </c>
       <c r="P7">
-        <v>-0.03067733467733468</v>
+        <v>0.01956658089164522</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -792,43 +801,43 @@
         <v>20</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C8">
-        <v>0.5260387660387661</v>
+        <v>0.5658064354516088</v>
       </c>
       <c r="D8">
-        <v>-0.02801639201639202</v>
+        <v>0.04111483327870832</v>
       </c>
       <c r="E8">
-        <v>0.02918354918354919</v>
+        <v>-0.03993686348421587</v>
       </c>
       <c r="F8">
-        <v>-0.02530519330519331</v>
+        <v>0.03620325605081401</v>
       </c>
       <c r="H8">
-        <v>0.01080814680814681</v>
+        <v>0.01344941736235434</v>
       </c>
       <c r="I8">
-        <v>0.02262560262560263</v>
+        <v>-0.003575954393988598</v>
       </c>
       <c r="J8">
-        <v>-4.786804944769511E-05</v>
+        <v>0.01377631195754996</v>
       </c>
       <c r="K8">
-        <v>0.756926028926029</v>
+        <v>0.7249972182493045</v>
       </c>
       <c r="L8">
-        <v>0.003743355743355744</v>
+        <v>0.003789315947328987</v>
       </c>
       <c r="M8">
-        <v>-0.04793979593979594</v>
+        <v>0.006313647078411769</v>
       </c>
       <c r="N8">
-        <v>0.04166060966060967</v>
+        <v>-0.03546400036600009</v>
       </c>
       <c r="P8">
-        <v>0.03715304515304516</v>
+        <v>-0.02498266224566556</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -836,43 +845,43 @@
         <v>21</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9">
-        <v>0.01426725826725827</v>
+        <v>-0.01645627011406753</v>
       </c>
       <c r="D9">
-        <v>0.006020658020658021</v>
+        <v>0.004059445014861254</v>
       </c>
       <c r="E9">
-        <v>-0.001427053427053427</v>
+        <v>0.000513073628268407</v>
       </c>
       <c r="F9">
-        <v>-0.006972882972882973</v>
+        <v>-0.003835475458868865</v>
       </c>
       <c r="H9">
-        <v>-0.02458638058638058</v>
+        <v>0.00232088008022002</v>
       </c>
       <c r="I9">
-        <v>-0.02031891231891232</v>
+        <v>5.008951252237813E-05</v>
       </c>
       <c r="J9">
-        <v>-0.01729249786315031</v>
+        <v>0.005362256193117199</v>
       </c>
       <c r="K9">
-        <v>0.04483242883242883</v>
+        <v>-0.001535718383929596</v>
       </c>
       <c r="L9">
-        <v>0.02917363717363717</v>
+        <v>0.005888500472125117</v>
       </c>
       <c r="M9">
-        <v>-0.01629222429222429</v>
+        <v>0.04157186389296597</v>
       </c>
       <c r="N9">
-        <v>-0.01822493422493423</v>
+        <v>-0.01043300060825015</v>
       </c>
       <c r="P9">
-        <v>0.001443901443901444</v>
+        <v>0.01990998647749662</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -880,127 +889,127 @@
         <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C10">
-        <v>0.005575853575853576</v>
+        <v>0.1111478452869613</v>
       </c>
       <c r="D10">
-        <v>-0.02131575331575332</v>
+        <v>0.01653835313458828</v>
       </c>
       <c r="E10">
-        <v>0.01930641130641131</v>
+        <v>-0.01663959565989891</v>
       </c>
       <c r="F10">
-        <v>-0.02687084687084687</v>
+        <v>0.02608485052121263</v>
       </c>
       <c r="H10">
-        <v>-0.05017221817221817</v>
+        <v>0.06256017064004266</v>
       </c>
       <c r="I10">
-        <v>-0.02584209784209784</v>
+        <v>0.05932141033035258</v>
       </c>
       <c r="J10">
-        <v>0.05133569902977713</v>
+        <v>-0.04651390926805584</v>
       </c>
       <c r="K10">
-        <v>0.005575001575001575</v>
+        <v>0.0685452096363024</v>
       </c>
       <c r="L10">
-        <v>-0.01785542985542985</v>
+        <v>0.001404247851061963</v>
       </c>
       <c r="M10">
-        <v>0.03798212598212598</v>
+        <v>-0.01390987247746812</v>
       </c>
       <c r="N10">
-        <v>0.02142480942480943</v>
+        <v>-0.0163056115764029</v>
       </c>
       <c r="P10">
-        <v>-0.00309014709014709</v>
+        <v>0.03244116211029053</v>
       </c>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C11">
-        <v>0.1793127953127953</v>
+        <v>0.1358745369686342</v>
       </c>
       <c r="D11">
-        <v>0.0371956931956932</v>
+        <v>0.01260884265221066</v>
       </c>
       <c r="E11">
-        <v>-0.03513831513831514</v>
+        <v>-0.01184431646107911</v>
       </c>
       <c r="F11">
-        <v>0.02482924882924883</v>
+        <v>0.007575226893806724</v>
       </c>
       <c r="H11">
-        <v>-0.03228488028488028</v>
+        <v>-0.01188672747168187</v>
       </c>
       <c r="I11">
-        <v>0.2350591510591511</v>
+        <v>0.2622912295728074</v>
       </c>
       <c r="J11">
-        <v>0.03372593883889484</v>
+        <v>-0.02029952121310865</v>
       </c>
       <c r="K11">
-        <v>0.00579004179004179</v>
+        <v>0.01728395982098995</v>
       </c>
       <c r="L11">
-        <v>0.01114480714480715</v>
+        <v>0.008914979228744808</v>
       </c>
       <c r="M11">
-        <v>0.006961818961818963</v>
+        <v>0.0216845664211416</v>
       </c>
       <c r="N11">
-        <v>-0.0320996120996121</v>
+        <v>-0.0324035436008859</v>
       </c>
       <c r="P11">
-        <v>-0.05240306840306841</v>
+        <v>-0.04662558565639641</v>
       </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12">
-        <v>-0.2651662931662932</v>
+        <v>-0.2807515871878968</v>
       </c>
       <c r="D12">
-        <v>0.02532154932154933</v>
+        <v>0.02410127552531888</v>
       </c>
       <c r="E12">
-        <v>-0.02293870693870694</v>
+        <v>-0.02685262571315643</v>
       </c>
       <c r="F12">
-        <v>0.01525482325482326</v>
+        <v>0.02520786630196658</v>
       </c>
       <c r="H12">
-        <v>-0.03145011145011145</v>
+        <v>-0.00512245328061332</v>
       </c>
       <c r="I12">
-        <v>-0.02596225396225397</v>
+        <v>-0.009278277819569454</v>
       </c>
       <c r="J12">
-        <v>-0.03293429802112988</v>
+        <v>-0.03209591963781438</v>
       </c>
       <c r="K12">
-        <v>-0.1326495486495486</v>
+        <v>-0.08290061522515381</v>
       </c>
       <c r="L12">
-        <v>0.02613726213726214</v>
+        <v>-0.01139711384927846</v>
       </c>
       <c r="M12">
-        <v>-0.02908943308943309</v>
+        <v>0.0232395328098832</v>
       </c>
       <c r="N12">
-        <v>-0.05028390228390229</v>
+        <v>-0.01492458523114631</v>
       </c>
       <c r="P12">
-        <v>-0.008585408585408585</v>
+        <v>-0.001193532298383075</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1008,43 +1017,43 @@
         <v>22</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C13">
-        <v>0.03969161169161169</v>
+        <v>0.01986701896675474</v>
       </c>
       <c r="D13">
-        <v>0.003931251931251932</v>
+        <v>-0.001590210397552599</v>
       </c>
       <c r="E13">
-        <v>-0.007830931830931831</v>
+        <v>-0.002173502043375511</v>
       </c>
       <c r="F13">
-        <v>0.01175864375864376</v>
+        <v>0.001733967433491858</v>
       </c>
       <c r="H13">
-        <v>0.01402019002019002</v>
+        <v>-0.0002603355650838913</v>
       </c>
       <c r="I13">
-        <v>0.004987024987024987</v>
+        <v>-0.002487198621799656</v>
       </c>
       <c r="J13">
-        <v>-0.00918209148510051</v>
+        <v>0.007801588349602465</v>
       </c>
       <c r="K13">
-        <v>0.0009961929961929963</v>
+        <v>-0.0009315692328923081</v>
       </c>
       <c r="L13">
-        <v>-0.02710604710604711</v>
+        <v>-0.02497168824292206</v>
       </c>
       <c r="M13">
-        <v>0.03017904617904618</v>
+        <v>0.03228046257011564</v>
       </c>
       <c r="N13">
-        <v>0.01677343677343678</v>
+        <v>0.01261563315390829</v>
       </c>
       <c r="P13">
-        <v>0.04804401604401605</v>
+        <v>-0.01052376863094216</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1052,43 +1061,43 @@
         <v>23</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14">
-        <v>-0.03958991158991159</v>
+        <v>-0.01613449153362288</v>
       </c>
       <c r="D14">
-        <v>0.004162360162360163</v>
+        <v>-0.009066212266553067</v>
       </c>
       <c r="E14">
-        <v>-6.531606531606532E-05</v>
+        <v>0.01235794658948665</v>
       </c>
       <c r="F14">
-        <v>0.002935670935670936</v>
+        <v>-0.01301455825363956</v>
       </c>
       <c r="H14">
-        <v>0.04001856401856402</v>
+        <v>0.004163501540875385</v>
       </c>
       <c r="I14">
-        <v>0.02794845994845995</v>
+        <v>0.008973687743421936</v>
       </c>
       <c r="J14">
-        <v>-0.01144852182632305</v>
+        <v>6.075076634955001E-05</v>
       </c>
       <c r="K14">
-        <v>-0.008295236295236295</v>
+        <v>-0.03642492610623153</v>
       </c>
       <c r="L14">
-        <v>0.04018538818538819</v>
+        <v>0.006050409012602253</v>
       </c>
       <c r="M14">
-        <v>-0.04990966990966991</v>
+        <v>-0.02287868221967055</v>
       </c>
       <c r="N14">
-        <v>0.006372702372702372</v>
+        <v>0.002035860508965127</v>
       </c>
       <c r="P14">
-        <v>0.01323918123918124</v>
+        <v>-0.008684666171166542</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1096,85 +1105,85 @@
         <v>24</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C15">
-        <v>-0.04003258003258003</v>
+        <v>0.0155282003820501</v>
       </c>
       <c r="D15">
-        <v>-0.02625689025689026</v>
+        <v>-0.006606345151586287</v>
       </c>
       <c r="E15">
-        <v>0.02752509952509953</v>
+        <v>0.012037500009375</v>
       </c>
       <c r="F15">
-        <v>-0.0237050877050877</v>
+        <v>-0.01072061668015417</v>
       </c>
       <c r="H15">
-        <v>-0.004556692556692557</v>
+        <v>0.01742634885658721</v>
       </c>
       <c r="I15">
-        <v>0.01412559812559813</v>
+        <v>0.03034157858539465</v>
       </c>
       <c r="J15">
-        <v>0.06017667816250859</v>
+        <v>0.02841615464749762</v>
       </c>
       <c r="K15">
-        <v>-0.06615781815781817</v>
+        <v>0.01901665675416419</v>
       </c>
       <c r="L15">
-        <v>-0.008199716199716199</v>
+        <v>0.01848641862160465</v>
       </c>
       <c r="M15">
-        <v>0.01080716280716281</v>
+        <v>-0.002536271134067783</v>
       </c>
       <c r="N15">
-        <v>0.01801276201276202</v>
+        <v>-0.014004776001194</v>
       </c>
       <c r="P15">
-        <v>-0.004716868716868717</v>
+        <v>0.0244452556113139</v>
       </c>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C16">
-        <v>0.006282018282018282</v>
+        <v>0.02350038437509609</v>
       </c>
       <c r="D16">
-        <v>0.0002711402711402712</v>
+        <v>0.002994575248643812</v>
       </c>
       <c r="E16">
-        <v>0.002878358878358878</v>
+        <v>-0.004703519675879919</v>
       </c>
       <c r="F16">
-        <v>-0.00373991173991174</v>
+        <v>0.002993312248328062</v>
       </c>
       <c r="H16">
-        <v>-0.009368541368541369</v>
+        <v>-0.02026535906633977</v>
       </c>
       <c r="I16">
-        <v>-0.002670542670542671</v>
+        <v>-0.01607945951986488</v>
       </c>
       <c r="J16">
-        <v>0.01364883209924357</v>
+        <v>-0.0249005339513562</v>
       </c>
       <c r="K16">
-        <v>0.007774147774147774</v>
+        <v>0.02146140986535246</v>
       </c>
       <c r="L16">
-        <v>0.009830205830205831</v>
+        <v>-0.005209867302466825</v>
       </c>
       <c r="M16">
-        <v>-0.02830188430188431</v>
+        <v>0.00663769215942304</v>
       </c>
       <c r="N16">
-        <v>-0.01792727392727393</v>
+        <v>-0.003986829996707499</v>
       </c>
       <c r="P16">
-        <v>-0.03543886743886744</v>
+        <v>-0.003468939867234967</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1182,43 +1191,43 @@
         <v>25</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C17">
-        <v>0.006154962154962156</v>
+        <v>0.0004987231246807811</v>
       </c>
       <c r="D17">
-        <v>0.0387946707946708</v>
+        <v>-0.001520181380045345</v>
       </c>
       <c r="E17">
-        <v>-0.03404725004725005</v>
+        <v>-0.003734096433524108</v>
       </c>
       <c r="F17">
-        <v>0.02526970926970927</v>
+        <v>0.0115921843980461</v>
       </c>
       <c r="H17">
-        <v>0.01047159447159447</v>
+        <v>0.01060622365155591</v>
       </c>
       <c r="I17">
-        <v>-0.009847689847689849</v>
+        <v>0.001017133754283439</v>
       </c>
       <c r="J17">
-        <v>-0.03780723305487177</v>
+        <v>-0.02218247396985831</v>
       </c>
       <c r="K17">
-        <v>-0.008076044076044078</v>
+        <v>-0.003651834912958728</v>
       </c>
       <c r="L17">
-        <v>0.0377015057015057</v>
+        <v>-0.01660333015083254</v>
       </c>
       <c r="M17">
-        <v>0.05226874026874027</v>
+        <v>-0.003098366274591569</v>
       </c>
       <c r="N17">
-        <v>-0.04735312735312736</v>
+        <v>-0.007601077900269476</v>
       </c>
       <c r="P17">
-        <v>-0.01454898254898255</v>
+        <v>0.003615011403752851</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1226,169 +1235,169 @@
         <v>26</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C18">
-        <v>-0.02306252306252306</v>
+        <v>0.03187286746821687</v>
       </c>
       <c r="D18">
-        <v>0.003202383202383203</v>
+        <v>0.002837472709368177</v>
       </c>
       <c r="E18">
-        <v>-0.01187761187761188</v>
+        <v>0.001406200851550213</v>
       </c>
       <c r="F18">
-        <v>0.02178081378081378</v>
+        <v>-0.002471000117750029</v>
       </c>
       <c r="H18">
-        <v>0.02657333057333057</v>
+        <v>0.006812704703176175</v>
       </c>
       <c r="I18">
-        <v>0.01689010089010089</v>
+        <v>0.009544404886101221</v>
       </c>
       <c r="J18">
-        <v>0.00314321124693722</v>
+        <v>-0.03716247775135183</v>
       </c>
       <c r="K18">
-        <v>-0.04998036198036199</v>
+        <v>0.01773018293254573</v>
       </c>
       <c r="L18">
-        <v>-0.04505150105150105</v>
+        <v>0.01791771297942825</v>
       </c>
       <c r="M18">
-        <v>-0.02048820848820849</v>
+        <v>0.00874250768562692</v>
       </c>
       <c r="N18">
-        <v>0.02860800460800461</v>
+        <v>-0.02232070308017577</v>
       </c>
       <c r="P18">
-        <v>0.0434927234927235</v>
+        <v>-0.008647740661935166</v>
       </c>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C19">
-        <v>-0.0228936948936949</v>
+        <v>-4.344151086037772E-05</v>
       </c>
       <c r="D19">
-        <v>-0.04491275691275692</v>
+        <v>0.007259676314919079</v>
       </c>
       <c r="E19">
-        <v>0.04268215868215869</v>
+        <v>-0.01444792711198178</v>
       </c>
       <c r="F19">
-        <v>-0.04105439305439306</v>
+        <v>0.01918341329585332</v>
       </c>
       <c r="H19">
-        <v>-0.0368926808926809</v>
+        <v>0.006670953167738292</v>
       </c>
       <c r="I19">
-        <v>-0.02482634482634483</v>
+        <v>-0.006618253654563414</v>
       </c>
       <c r="J19">
-        <v>-0.02038466705736108</v>
+        <v>-0.0133095208319248</v>
       </c>
       <c r="K19">
-        <v>-0.02485645285645286</v>
+        <v>-0.05411141552785388</v>
       </c>
       <c r="L19">
-        <v>-0.01066298266298266</v>
+        <v>-0.03767529941882485</v>
       </c>
       <c r="M19">
-        <v>-0.006207654207654208</v>
+        <v>-0.03539613284903321</v>
       </c>
       <c r="N19">
-        <v>0.03557134757134757</v>
+        <v>0.01447273111818278</v>
       </c>
       <c r="P19">
-        <v>-0.01640347640347641</v>
+        <v>0.01108732927183232</v>
       </c>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C20">
-        <v>-0.0751958551958552</v>
+        <v>-0.03568630042157511</v>
       </c>
       <c r="D20">
-        <v>-0.03154093954093955</v>
+        <v>-0.03116917379229345</v>
       </c>
       <c r="E20">
-        <v>0.04228923028923029</v>
+        <v>0.02948628437157109</v>
       </c>
       <c r="F20">
-        <v>-0.059998835998836</v>
+        <v>-0.03368501942125486</v>
       </c>
       <c r="H20">
-        <v>-0.09795792195792197</v>
+        <v>-0.04097021824255456</v>
       </c>
       <c r="I20">
-        <v>-0.08057872457872459</v>
+        <v>-0.03183967695991924</v>
       </c>
       <c r="J20">
-        <v>0.01460675108877389</v>
+        <v>0.05006805297456476</v>
       </c>
       <c r="K20">
-        <v>0.04703217503217503</v>
+        <v>-0.02784836046209011</v>
       </c>
       <c r="L20">
-        <v>0.03974979974979975</v>
+        <v>-0.00311801627950407</v>
       </c>
       <c r="M20">
-        <v>0.03251112851112851</v>
+        <v>0.0131743727935932</v>
       </c>
       <c r="N20">
-        <v>0.008118236118236118</v>
+        <v>0.02383424245856062</v>
       </c>
       <c r="P20">
-        <v>-0.06529919329919331</v>
+        <v>-0.01128828432207108</v>
       </c>
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C21">
-        <v>-0.04272633072633073</v>
+        <v>-0.001896334974083744</v>
       </c>
       <c r="D21">
-        <v>-0.05258084858084858</v>
+        <v>0.03137363584340896</v>
       </c>
       <c r="E21">
-        <v>0.04975372975372976</v>
+        <v>-0.03211473952868488</v>
       </c>
       <c r="F21">
-        <v>-0.049004557004557</v>
+        <v>0.02936372384093096</v>
       </c>
       <c r="H21">
-        <v>-0.03246011646011646</v>
+        <v>-0.01500379125094781</v>
       </c>
       <c r="I21">
-        <v>-0.02576385776385776</v>
+        <v>-0.03873141518285379</v>
       </c>
       <c r="J21">
-        <v>-0.02686959375629037</v>
+        <v>-0.0130216520044521</v>
       </c>
       <c r="K21">
-        <v>-0.009644865644865646</v>
+        <v>-0.01240778860194715</v>
       </c>
       <c r="L21">
-        <v>-0.01075612675612676</v>
+        <v>-5.227951306987826E-05</v>
       </c>
       <c r="M21">
-        <v>0.02436477636477636</v>
+        <v>0.02264439416109854</v>
       </c>
       <c r="N21">
-        <v>0.01693150093150093</v>
+        <v>-0.03942149335537334</v>
       </c>
       <c r="P21">
-        <v>0.0148968628968629</v>
+        <v>-0.0168302112075528</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1396,85 +1405,85 @@
         <v>27</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C22">
-        <v>0.03571862371862372</v>
+        <v>0.006602947650736913</v>
       </c>
       <c r="D22">
-        <v>-0.003338751338751339</v>
+        <v>-0.009921786980446745</v>
       </c>
       <c r="E22">
-        <v>0.001622329622329623</v>
+        <v>0.004069009017252254</v>
       </c>
       <c r="F22">
-        <v>0.008527220527220528</v>
+        <v>0.002696489174122293</v>
       </c>
       <c r="H22">
-        <v>0.05081329481329482</v>
+        <v>-0.002135961533990384</v>
       </c>
       <c r="I22">
-        <v>0.0384011424011424</v>
+        <v>0.004501625625406406</v>
       </c>
       <c r="J22">
-        <v>-0.07054554087354378</v>
+        <v>0.0256715994088692</v>
       </c>
       <c r="K22">
-        <v>0.01304132504132504</v>
+        <v>0.02219071604767901</v>
       </c>
       <c r="L22">
-        <v>-0.006955710955710955</v>
+        <v>-0.03507392676848169</v>
       </c>
       <c r="M22">
-        <v>0.02451144051144051</v>
+        <v>-0.01164814191203548</v>
       </c>
       <c r="N22">
-        <v>0.006032466032466033</v>
+        <v>0.02797011999253</v>
       </c>
       <c r="P22">
-        <v>0.02558258558258558</v>
+        <v>0.01848214212053553</v>
       </c>
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C23">
-        <v>-0.03873127473127474</v>
+        <v>-0.008821904205476051</v>
       </c>
       <c r="D23">
-        <v>-0.0009958929958929958</v>
+        <v>-0.008740112185028046</v>
       </c>
       <c r="E23">
-        <v>0.006188550188550189</v>
+        <v>0.008516507129126782</v>
       </c>
       <c r="F23">
-        <v>-0.00924948924948925</v>
+        <v>-0.01135360933840233</v>
       </c>
       <c r="H23">
-        <v>-0.003093783093783094</v>
+        <v>-0.02250560212640053</v>
       </c>
       <c r="I23">
-        <v>-0.001917109917109917</v>
+        <v>-0.02827631506907876</v>
       </c>
       <c r="J23">
-        <v>0.005846976039926253</v>
+        <v>-0.01479844823263238</v>
       </c>
       <c r="K23">
-        <v>0.06895880095880096</v>
+        <v>0.01810047002511751</v>
       </c>
       <c r="L23">
-        <v>0.02798155598155598</v>
+        <v>0.01726946381736595</v>
       </c>
       <c r="M23">
-        <v>-0.03930941130941131</v>
+        <v>-0.007694641923660481</v>
       </c>
       <c r="N23">
-        <v>-0.01261126861126861</v>
+        <v>0.003710699427674856</v>
       </c>
       <c r="P23">
-        <v>-0.008861660861660863</v>
+        <v>-0.002619147654786913</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1482,317 +1491,404 @@
         <v>28</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C24">
-        <v>-0.03952397152397153</v>
+        <v>-0.001053301763325441</v>
       </c>
       <c r="D24">
-        <v>-0.05756404556404558</v>
+        <v>0.02901774725443682</v>
       </c>
       <c r="E24">
-        <v>0.01724531324531324</v>
+        <v>-0.02856133914033479</v>
       </c>
       <c r="F24">
-        <v>0.009005037005037006</v>
+        <v>0.02145157586289396</v>
       </c>
       <c r="H24">
-        <v>-0.006836562836562836</v>
+        <v>-0.02103940425985106</v>
       </c>
       <c r="I24">
-        <v>-0.0100943620943621</v>
+        <v>-0.02136614634153658</v>
       </c>
       <c r="J24">
-        <v>-0.0007921328182732018</v>
+        <v>-0.01112029499274939</v>
       </c>
       <c r="K24">
-        <v>-0.08276516276516277</v>
+        <v>-0.006690679672669918</v>
       </c>
       <c r="L24">
-        <v>-0.3017179337179338</v>
+        <v>0.002995283248820812</v>
       </c>
       <c r="M24">
-        <v>0.9916543276543276</v>
+        <v>-0.02181462545365636</v>
       </c>
       <c r="N24">
-        <v>0.1068013068013068</v>
+        <v>-0.01961334490333622</v>
       </c>
       <c r="P24">
-        <v>0.03775171375171375</v>
+        <v>-0.06115117228779307</v>
       </c>
     </row>
     <row r="25" spans="1:16">
-      <c r="A25" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C25">
-        <v>0.03798260598260599</v>
+        <v>-0.03524201531050383</v>
       </c>
       <c r="D25">
-        <v>0.0581893181893182</v>
+        <v>-0.001622263905565976</v>
       </c>
       <c r="E25">
-        <v>-0.05816691416691417</v>
+        <v>0.004332803583200895</v>
       </c>
       <c r="F25">
-        <v>0.05094786294786294</v>
+        <v>-0.008062902515725629</v>
       </c>
       <c r="H25">
-        <v>-0.01806545406545407</v>
+        <v>-0.006738586684646671</v>
       </c>
       <c r="I25">
-        <v>-0.02873820473820474</v>
+        <v>-0.01063446565861641</v>
       </c>
       <c r="J25">
-        <v>0.03501651617206123</v>
+        <v>-0.02649069337930786</v>
       </c>
       <c r="K25">
-        <v>-0.02103174903174903</v>
+        <v>-0.006200241050060262</v>
       </c>
       <c r="L25">
-        <v>0.008452736452736455</v>
+        <v>0.02709528077382019</v>
       </c>
       <c r="M25">
-        <v>-0.009260661260661262</v>
+        <v>-0.007373406343351585</v>
       </c>
       <c r="N25">
-        <v>-0.05994737994737995</v>
+        <v>-0.02415893403973351</v>
       </c>
       <c r="P25">
-        <v>-0.05661810861810862</v>
+        <v>-0.02111475977868995</v>
       </c>
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C26">
-        <v>-0.02328703128703129</v>
+        <v>-0.04045352811338203</v>
       </c>
       <c r="D26">
-        <v>0.01116355116355116</v>
+        <v>-0.04933202133300533</v>
       </c>
       <c r="E26">
-        <v>1.165201165201165E-05</v>
+        <v>0.008637989159497289</v>
       </c>
       <c r="F26">
-        <v>-0.01124763524763525</v>
+        <v>0.01875330468832617</v>
       </c>
       <c r="H26">
-        <v>-0.0312022152022152</v>
+        <v>4.840801210200303E-05</v>
       </c>
       <c r="I26">
-        <v>-0.03225016425016425</v>
+        <v>0.001864071466017867</v>
       </c>
       <c r="J26">
-        <v>-0.05201620773274262</v>
+        <v>0.03377601308996953</v>
       </c>
       <c r="K26">
-        <v>0.02441523641523641</v>
+        <v>-0.03105427526356882</v>
       </c>
       <c r="L26">
-        <v>0.04784923184923185</v>
+        <v>-0.2454845563711391</v>
       </c>
       <c r="M26">
-        <v>0.1231340431340431</v>
+        <v>0.9917307169326791</v>
       </c>
       <c r="N26">
-        <v>-0.01278942078942079</v>
+        <v>0.08829303257325813</v>
       </c>
       <c r="P26">
-        <v>-0.03676527676527677</v>
+        <v>0.0231280527820132</v>
       </c>
     </row>
     <row r="27" spans="1:16">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C27">
-        <v>0.01706546906546907</v>
+        <v>-0.0243594135898534</v>
       </c>
       <c r="D27">
-        <v>0.02662799062799063</v>
+        <v>-0.0307830751957688</v>
       </c>
       <c r="E27">
-        <v>-0.03241190041190041</v>
+        <v>0.01941907235476809</v>
       </c>
       <c r="F27">
-        <v>0.03738199338199338</v>
+        <v>-0.0112346068086517</v>
       </c>
       <c r="H27">
-        <v>0.04340392340392341</v>
+        <v>-0.02053626513406628</v>
       </c>
       <c r="I27">
-        <v>0.03971495171495171</v>
+        <v>-0.02613039653259913</v>
       </c>
       <c r="J27">
-        <v>-0.002627666714379718</v>
+        <v>-0.01532919487546957</v>
       </c>
       <c r="K27">
-        <v>-7.015207015207015E-05</v>
+        <v>-0.02298608824652206</v>
       </c>
       <c r="L27">
-        <v>-0.04138391338391338</v>
+        <v>-0.06159174339793585</v>
       </c>
       <c r="M27">
-        <v>0.008484944484944487</v>
+        <v>0.02914516928629232</v>
       </c>
       <c r="N27">
-        <v>0.02401932001932002</v>
+        <v>0.04542870385717596</v>
       </c>
       <c r="P27">
-        <v>0.04928226128226128</v>
+        <v>-0.003503780375945094</v>
       </c>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C28">
-        <v>0.427014475014475</v>
+        <v>0.05658768814692203</v>
       </c>
       <c r="D28">
-        <v>0.9851582051582054</v>
+        <v>0.02185054146263537</v>
       </c>
       <c r="E28">
-        <v>-0.999955011955012</v>
+        <v>-0.02584125196031299</v>
       </c>
       <c r="F28">
-        <v>0.9787673827673827</v>
+        <v>0.02934478633619658</v>
       </c>
       <c r="H28">
-        <v>0.3560558480558481</v>
+        <v>0.003378213844553461</v>
       </c>
       <c r="I28">
-        <v>0.004126060126060127</v>
+        <v>-0.0048133692033423</v>
       </c>
       <c r="J28">
-        <v>-0.2050191977848314</v>
+        <v>-0.03055205397232153</v>
       </c>
       <c r="K28">
-        <v>-0.0731843411843412</v>
+        <v>-0.04090493372623343</v>
       </c>
       <c r="L28">
-        <v>0.01173809973809974</v>
+        <v>-0.0224547776136944</v>
       </c>
       <c r="M28">
-        <v>-0.009505761505761505</v>
+        <v>0.1719945204986301</v>
       </c>
       <c r="N28">
-        <v>-0.7366417846417846</v>
+        <v>0.0192195408048852</v>
       </c>
       <c r="P28">
-        <v>-0.4932360012360013</v>
+        <v>-0.01797630899407725</v>
       </c>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C29">
-        <v>-0.05571341571341572</v>
+        <v>-0.01479461019865255</v>
       </c>
       <c r="D29">
-        <v>-0.01517286317286318</v>
+        <v>-0.01735798033949509</v>
       </c>
       <c r="E29">
-        <v>0.01445543045543046</v>
+        <v>0.01925748931437233</v>
       </c>
       <c r="F29">
-        <v>-0.01538941538941539</v>
+        <v>-0.02184016146004036</v>
       </c>
       <c r="H29">
-        <v>-0.03445019845019846</v>
+        <v>-0.01050674362668591</v>
       </c>
       <c r="I29">
-        <v>-0.03041409041409042</v>
+        <v>0.003953183488295872</v>
       </c>
       <c r="J29">
-        <v>0.01166303404791418</v>
+        <v>0.01178219567088341</v>
       </c>
       <c r="K29">
-        <v>0.007441255441255442</v>
+        <v>0.01303510675877669</v>
       </c>
       <c r="L29">
-        <v>-0.01079029079029079</v>
+        <v>0.01172281043070261</v>
       </c>
       <c r="M29">
-        <v>-0.003945831945831946</v>
+        <v>0.02277502619375655</v>
       </c>
       <c r="N29">
-        <v>0.004759252759252759</v>
+        <v>0.02077073619268405</v>
       </c>
       <c r="P29">
-        <v>-0.005005901005901006</v>
+        <v>0.00192525948131487</v>
       </c>
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30">
+        <v>0.4055806343951586</v>
+      </c>
+      <c r="D30">
+        <v>0.9786929536732384</v>
+      </c>
+      <c r="E30">
+        <v>-0.9999567264891817</v>
+      </c>
+      <c r="F30">
+        <v>0.9750781087695272</v>
+      </c>
+      <c r="H30">
+        <v>0.342744180186045</v>
+      </c>
+      <c r="I30">
+        <v>-0.0253442508360627</v>
+      </c>
+      <c r="J30">
+        <v>-0.2322565382560409</v>
+      </c>
+      <c r="K30">
+        <v>-0.000833025208256302</v>
+      </c>
+      <c r="L30">
+        <v>-0.02220747555186889</v>
+      </c>
+      <c r="M30">
+        <v>0.002085938021484505</v>
+      </c>
+      <c r="N30">
+        <v>-0.6850429967607492</v>
+      </c>
+      <c r="P30">
+        <v>-0.5035047493761874</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31">
+        <v>0.01921820430455107</v>
+      </c>
+      <c r="D31">
+        <v>0.0001796070449017612</v>
+      </c>
+      <c r="E31">
+        <v>0.001462075865518966</v>
+      </c>
+      <c r="F31">
+        <v>-0.003302658825664707</v>
+      </c>
+      <c r="H31">
+        <v>0.00208500052125013</v>
+      </c>
+      <c r="I31">
+        <v>0.008552372138093034</v>
+      </c>
+      <c r="J31">
+        <v>-0.01467734270003986</v>
+      </c>
+      <c r="K31">
+        <v>0.03337572384393096</v>
+      </c>
+      <c r="L31">
+        <v>0.01191851997962999</v>
+      </c>
+      <c r="M31">
+        <v>0.03212765753191438</v>
+      </c>
+      <c r="N31">
+        <v>0.0009905762476440619</v>
+      </c>
+      <c r="P31">
+        <v>-0.01541100385275096</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30">
-        <v>0.02530773730773731</v>
-      </c>
-      <c r="D30">
-        <v>0.01138419538419539</v>
-      </c>
-      <c r="E30">
-        <v>-0.01118660318660319</v>
-      </c>
-      <c r="F30">
-        <v>0.01148189948189948</v>
-      </c>
-      <c r="H30">
-        <v>0.0160989760989761</v>
-      </c>
-      <c r="I30">
-        <v>0.01143314343314343</v>
-      </c>
-      <c r="J30">
-        <v>-0.05080250247898509</v>
-      </c>
-      <c r="K30">
-        <v>-0.02660355860355861</v>
-      </c>
-      <c r="L30">
-        <v>-0.002551358551358551</v>
-      </c>
-      <c r="M30">
-        <v>0.01300822900822901</v>
-      </c>
-      <c r="N30">
-        <v>0.01806636606636607</v>
-      </c>
-      <c r="P30">
-        <v>0.004010368010368011</v>
+      <c r="B32" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32">
+        <v>-0.03990732547683137</v>
+      </c>
+      <c r="D32">
+        <v>0.005528551382137845</v>
+      </c>
+      <c r="E32">
+        <v>-0.004624289656072414</v>
+      </c>
+      <c r="F32">
+        <v>0.005078003769500941</v>
+      </c>
+      <c r="H32">
+        <v>0.01138224734556184</v>
+      </c>
+      <c r="I32">
+        <v>0.009905729476432368</v>
+      </c>
+      <c r="J32">
+        <v>-0.006003669865737654</v>
+      </c>
+      <c r="K32">
+        <v>-0.001695508923877231</v>
+      </c>
+      <c r="L32">
+        <v>0.005566387391596849</v>
+      </c>
+      <c r="M32">
+        <v>-0.04177844244461061</v>
+      </c>
+      <c r="N32">
+        <v>-0.006816138204034551</v>
+      </c>
+      <c r="P32">
+        <v>-0.01656807414201853</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="C1:P1"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A18:A21"/>
     <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_1.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="58">
   <si>
     <t>Element</t>
   </si>
@@ -134,6 +134,9 @@
   </si>
   <si>
     <t>Price [USD/kg]</t>
+  </si>
+  <si>
+    <t>Tau</t>
   </si>
   <si>
     <t>Cellulase loading [wt. % cellulose]</t>
@@ -542,7 +545,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P32"/>
+  <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -632,40 +635,40 @@
         <v>31</v>
       </c>
       <c r="C4">
-        <v>-0.05373188993297249</v>
+        <v>-0.1063226271649051</v>
       </c>
       <c r="D4">
-        <v>-0.1069195437298859</v>
+        <v>-0.1403974119838965</v>
       </c>
       <c r="E4">
-        <v>-0.02535156783789196</v>
+        <v>0.001278953427158137</v>
       </c>
       <c r="F4">
-        <v>0.131507243876811</v>
+        <v>0.1179798126871925</v>
       </c>
       <c r="H4">
-        <v>0.04111003177750794</v>
+        <v>0.05993155910126235</v>
       </c>
       <c r="I4">
-        <v>-0.0116191664047916</v>
+        <v>0.01824402773776111</v>
       </c>
       <c r="J4">
-        <v>0.05657665747619295</v>
+        <v>-0.01113894262893605</v>
       </c>
       <c r="K4">
-        <v>-0.1158784909696227</v>
+        <v>-0.1142592868423715</v>
       </c>
       <c r="L4">
-        <v>-0.6745882461470615</v>
+        <v>-0.7015444139817765</v>
       </c>
       <c r="M4">
-        <v>-0.02613871853467964</v>
+        <v>0.01461050055242002</v>
       </c>
       <c r="N4">
-        <v>0.4333590093397523</v>
+        <v>0.4604579528503181</v>
       </c>
       <c r="P4">
-        <v>0.1710111142527785</v>
+        <v>0.2169856742794269</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -674,40 +677,40 @@
         <v>32</v>
       </c>
       <c r="C5">
-        <v>0.09359774339943584</v>
+        <v>0.0852055026722201</v>
       </c>
       <c r="D5">
-        <v>0.11651948012987</v>
+        <v>0.1304287884811515</v>
       </c>
       <c r="E5">
-        <v>0.01003885750971438</v>
+        <v>-0.001767137062685482</v>
       </c>
       <c r="F5">
-        <v>-0.1127381531845383</v>
+        <v>-0.1003615874704635</v>
       </c>
       <c r="H5">
-        <v>-0.03635549258887314</v>
+        <v>-0.008180873799234951</v>
       </c>
       <c r="I5">
-        <v>-0.001179184794796199</v>
+        <v>0.02099833466393338</v>
       </c>
       <c r="J5">
-        <v>0.01325223581650797</v>
+        <v>-0.0477091472700861</v>
       </c>
       <c r="K5">
-        <v>0.1448708477177119</v>
+        <v>0.1030963379478535</v>
       </c>
       <c r="L5">
-        <v>0.6426262471565618</v>
+        <v>0.6444905914116236</v>
       </c>
       <c r="M5">
-        <v>-0.0223283455820864</v>
+        <v>0.01133860077354403</v>
       </c>
       <c r="N5">
-        <v>-0.4029129857282464</v>
+        <v>-0.4213084809163392</v>
       </c>
       <c r="P5">
-        <v>-0.1373647108411777</v>
+        <v>-0.1455102818524112</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -716,40 +719,40 @@
         <v>33</v>
       </c>
       <c r="C6">
-        <v>0.2742668830667208</v>
+        <v>0.2791926542717061</v>
       </c>
       <c r="D6">
-        <v>-0.0248243852060963</v>
+        <v>0.0222117949684718</v>
       </c>
       <c r="E6">
-        <v>0.02800492000123</v>
+        <v>-0.0211402851656114</v>
       </c>
       <c r="F6">
-        <v>0.1163171300792825</v>
+        <v>0.163159576606383</v>
       </c>
       <c r="H6">
-        <v>0.9232293193073298</v>
+        <v>0.9271839541753581</v>
       </c>
       <c r="I6">
-        <v>0.9576270249067561</v>
+        <v>0.9586912819636512</v>
       </c>
       <c r="J6">
-        <v>-0.3171075523415701</v>
+        <v>-0.3184919386045739</v>
       </c>
       <c r="K6">
-        <v>0.02745072236268059</v>
+        <v>0.05176055899842235</v>
       </c>
       <c r="L6">
-        <v>0.007890694972673744</v>
+        <v>0.006184358167374325</v>
       </c>
       <c r="M6">
-        <v>-0.003230289807572452</v>
+        <v>-0.02632377878095115</v>
       </c>
       <c r="N6">
-        <v>0.05572862293215573</v>
+        <v>0.02345602980224119</v>
       </c>
       <c r="P6">
-        <v>0.5789980567495141</v>
+        <v>0.5420061393442455</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -760,40 +763,40 @@
         <v>34</v>
       </c>
       <c r="C7">
-        <v>0.4641215675303919</v>
+        <v>0.4902480119299204</v>
       </c>
       <c r="D7">
-        <v>-0.03019934854983714</v>
+        <v>-0.004067228610689143</v>
       </c>
       <c r="E7">
-        <v>0.02548397287099322</v>
+        <v>0.00750002602800104</v>
       </c>
       <c r="F7">
-        <v>-0.01445664661416165</v>
+        <v>-0.01066662935466517</v>
       </c>
       <c r="H7">
-        <v>0.005785736946434236</v>
+        <v>-0.00658932026357281</v>
       </c>
       <c r="I7">
-        <v>0.01047732411933103</v>
+        <v>0.002490195171607807</v>
       </c>
       <c r="J7">
-        <v>-0.03262487828017037</v>
+        <v>-0.01725126176059655</v>
       </c>
       <c r="K7">
-        <v>-0.6304893301223325</v>
+        <v>-0.6093256338130253</v>
       </c>
       <c r="L7">
-        <v>-0.03032197658049414</v>
+        <v>0.01010773134830925</v>
       </c>
       <c r="M7">
-        <v>-0.009616590904147727</v>
+        <v>0.02771951064478042</v>
       </c>
       <c r="N7">
-        <v>0.02488192822048206</v>
+        <v>-0.002699238059969522</v>
       </c>
       <c r="P7">
-        <v>0.01956658089164522</v>
+        <v>-0.009557684158307364</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -804,40 +807,40 @@
         <v>34</v>
       </c>
       <c r="C8">
-        <v>0.5658064354516088</v>
+        <v>0.5532022705440908</v>
       </c>
       <c r="D8">
-        <v>0.04111483327870832</v>
+        <v>-0.004189745831589833</v>
       </c>
       <c r="E8">
-        <v>-0.03993686348421587</v>
+        <v>0.004952010342080413</v>
       </c>
       <c r="F8">
-        <v>0.03620325605081401</v>
+        <v>-0.002471597858863914</v>
       </c>
       <c r="H8">
-        <v>0.01344941736235434</v>
+        <v>0.01175353592614144</v>
       </c>
       <c r="I8">
-        <v>-0.003575954393988598</v>
+        <v>0.01808168337926733</v>
       </c>
       <c r="J8">
-        <v>0.01377631195754996</v>
+        <v>-0.00280003361794396</v>
       </c>
       <c r="K8">
-        <v>0.7249972182493045</v>
+        <v>0.7226878226995129</v>
       </c>
       <c r="L8">
-        <v>0.003789315947328987</v>
+        <v>-0.008953751590150062</v>
       </c>
       <c r="M8">
-        <v>0.006313647078411769</v>
+        <v>0.005754534566181381</v>
       </c>
       <c r="N8">
-        <v>-0.03546400036600009</v>
+        <v>0.01118958198358328</v>
       </c>
       <c r="P8">
-        <v>-0.02498266224566556</v>
+        <v>0.006763336494533458</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -848,40 +851,40 @@
         <v>35</v>
       </c>
       <c r="C9">
-        <v>-0.01645627011406753</v>
+        <v>-0.003386657127466284</v>
       </c>
       <c r="D9">
-        <v>0.004059445014861254</v>
+        <v>0.01025872293834892</v>
       </c>
       <c r="E9">
-        <v>0.000513073628268407</v>
+        <v>-0.0116738900989556</v>
       </c>
       <c r="F9">
-        <v>-0.003835475458868865</v>
+        <v>0.0113336025333441</v>
       </c>
       <c r="H9">
-        <v>0.00232088008022002</v>
+        <v>-0.007623363088934522</v>
       </c>
       <c r="I9">
-        <v>5.008951252237813E-05</v>
+        <v>-0.01664095468163819</v>
       </c>
       <c r="J9">
-        <v>0.005362256193117199</v>
+        <v>0.01898969228927364</v>
       </c>
       <c r="K9">
-        <v>-0.001535718383929596</v>
+        <v>-9.071424362856975E-06</v>
       </c>
       <c r="L9">
-        <v>0.005888500472125117</v>
+        <v>-0.01241486315259452</v>
       </c>
       <c r="M9">
-        <v>0.04157186389296597</v>
+        <v>0.003888485915539436</v>
       </c>
       <c r="N9">
-        <v>-0.01043300060825015</v>
+        <v>0.0008807158432286335</v>
       </c>
       <c r="P9">
-        <v>0.01990998647749662</v>
+        <v>-0.02074043516561741</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -892,40 +895,40 @@
         <v>36</v>
       </c>
       <c r="C10">
-        <v>0.1111478452869613</v>
+        <v>0.08493626086945043</v>
       </c>
       <c r="D10">
-        <v>0.01653835313458828</v>
+        <v>-0.003397388967895558</v>
       </c>
       <c r="E10">
-        <v>-0.01663959565989891</v>
+        <v>0.004395723055828921</v>
       </c>
       <c r="F10">
-        <v>0.02608485052121263</v>
+        <v>-0.002493612195744487</v>
       </c>
       <c r="H10">
-        <v>0.06256017064004266</v>
+        <v>0.01439081932763277</v>
       </c>
       <c r="I10">
-        <v>0.05932141033035258</v>
+        <v>0.01400192148807686</v>
       </c>
       <c r="J10">
-        <v>-0.04651390926805584</v>
+        <v>0.02806619160649582</v>
       </c>
       <c r="K10">
-        <v>0.0685452096363024</v>
+        <v>0.06099968154398726</v>
       </c>
       <c r="L10">
-        <v>0.001404247851061963</v>
+        <v>0.006446665601866624</v>
       </c>
       <c r="M10">
-        <v>-0.01390987247746812</v>
+        <v>0.02069007308360292</v>
       </c>
       <c r="N10">
-        <v>-0.0163056115764029</v>
+        <v>4.410028976401159E-05</v>
       </c>
       <c r="P10">
-        <v>0.03244116211029053</v>
+        <v>0.01728792481951699</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -934,40 +937,40 @@
         <v>37</v>
       </c>
       <c r="C11">
-        <v>0.1358745369686342</v>
+        <v>0.1734069667442786</v>
       </c>
       <c r="D11">
-        <v>0.01260884265221066</v>
+        <v>-0.01674040972561639</v>
       </c>
       <c r="E11">
-        <v>-0.01184431646107911</v>
+        <v>0.01703490087339603</v>
       </c>
       <c r="F11">
-        <v>0.007575226893806724</v>
+        <v>-0.01640896971235879</v>
       </c>
       <c r="H11">
-        <v>-0.01188672747168187</v>
+        <v>0.0004339037933561517</v>
       </c>
       <c r="I11">
-        <v>0.2622912295728074</v>
+        <v>0.2833735219269408</v>
       </c>
       <c r="J11">
-        <v>-0.02029952121310865</v>
+        <v>-0.03892130614225997</v>
       </c>
       <c r="K11">
-        <v>0.01728395982098995</v>
+        <v>0.03176677720667108</v>
       </c>
       <c r="L11">
-        <v>0.008914979228744808</v>
+        <v>0.002311662044466481</v>
       </c>
       <c r="M11">
-        <v>0.0216845664211416</v>
+        <v>0.008829621281184851</v>
       </c>
       <c r="N11">
-        <v>-0.0324035436008859</v>
+        <v>0.01438674067146962</v>
       </c>
       <c r="P11">
-        <v>-0.04662558565639641</v>
+        <v>0.017124949932998</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -976,40 +979,40 @@
         <v>38</v>
       </c>
       <c r="C12">
-        <v>-0.2807515871878968</v>
+        <v>-0.2691905232156209</v>
       </c>
       <c r="D12">
-        <v>0.02410127552531888</v>
+        <v>0.008084445347377813</v>
       </c>
       <c r="E12">
-        <v>-0.02685262571315643</v>
+        <v>-0.01130673443626938</v>
       </c>
       <c r="F12">
-        <v>0.02520786630196658</v>
+        <v>0.01585072028202881</v>
       </c>
       <c r="H12">
-        <v>-0.00512245328061332</v>
+        <v>0.02063373874534954</v>
       </c>
       <c r="I12">
-        <v>-0.009278277819569454</v>
+        <v>0.01842386396895455</v>
       </c>
       <c r="J12">
-        <v>-0.03209591963781438</v>
+        <v>-0.03593768662779616</v>
       </c>
       <c r="K12">
-        <v>-0.08290061522515381</v>
+        <v>-0.05943043111321724</v>
       </c>
       <c r="L12">
-        <v>-0.01139711384927846</v>
+        <v>-0.009682885443315418</v>
       </c>
       <c r="M12">
-        <v>0.0232395328098832</v>
+        <v>-0.007035093113403724</v>
       </c>
       <c r="N12">
-        <v>-0.01492458523114631</v>
+        <v>0.002077992371119695</v>
       </c>
       <c r="P12">
-        <v>-0.001193532298383075</v>
+        <v>0.0006039704881588195</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1020,40 +1023,40 @@
         <v>39</v>
       </c>
       <c r="C13">
-        <v>0.01986701896675474</v>
+        <v>0.03693684435747377</v>
       </c>
       <c r="D13">
-        <v>-0.001590210397552599</v>
+        <v>-0.006178450999138038</v>
       </c>
       <c r="E13">
-        <v>-0.002173502043375511</v>
+        <v>0.002630818473232739</v>
       </c>
       <c r="F13">
-        <v>0.001733967433491858</v>
+        <v>-0.0007389491815579671</v>
       </c>
       <c r="H13">
-        <v>-0.0002603355650838913</v>
+        <v>-0.004334060525362421</v>
       </c>
       <c r="I13">
-        <v>-0.002487198621799656</v>
+        <v>-0.004886890851475634</v>
       </c>
       <c r="J13">
-        <v>0.007801588349602465</v>
+        <v>0.02524531691558467</v>
       </c>
       <c r="K13">
-        <v>-0.0009315692328923081</v>
+        <v>0.02019806221592248</v>
       </c>
       <c r="L13">
-        <v>-0.02497168824292206</v>
+        <v>-0.01973799458151978</v>
       </c>
       <c r="M13">
-        <v>0.03228046257011564</v>
+        <v>-0.01003938606557544</v>
       </c>
       <c r="N13">
-        <v>0.01261563315390829</v>
+        <v>0.02344846845793873</v>
       </c>
       <c r="P13">
-        <v>-0.01052376863094216</v>
+        <v>0.00444157928166317</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1064,256 +1067,258 @@
         <v>39</v>
       </c>
       <c r="C14">
-        <v>-0.01613449153362288</v>
+        <v>-0.03585399417015976</v>
       </c>
       <c r="D14">
-        <v>-0.009066212266553067</v>
+        <v>0.009528843069153721</v>
       </c>
       <c r="E14">
-        <v>0.01235794658948665</v>
+        <v>-0.008931658437266336</v>
       </c>
       <c r="F14">
-        <v>-0.01301455825363956</v>
+        <v>0.008297053099882122</v>
       </c>
       <c r="H14">
-        <v>0.004163501540875385</v>
+        <v>0.004294169451766777</v>
       </c>
       <c r="I14">
-        <v>0.008973687743421936</v>
+        <v>-0.009954885614195422</v>
       </c>
       <c r="J14">
-        <v>6.075076634955001E-05</v>
+        <v>-0.01906984034099315</v>
       </c>
       <c r="K14">
-        <v>-0.03642492610623153</v>
+        <v>-0.04893048387721935</v>
       </c>
       <c r="L14">
-        <v>0.006050409012602253</v>
+        <v>0.009346858741874348</v>
       </c>
       <c r="M14">
-        <v>-0.02287868221967055</v>
+        <v>0.003720691156827646</v>
       </c>
       <c r="N14">
-        <v>0.002035860508965127</v>
+        <v>-0.01425665730626629</v>
       </c>
       <c r="P14">
-        <v>-0.008684666171166542</v>
+        <v>-0.01345716543428662</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15">
+        <v>-0.0111747201269888</v>
+      </c>
+      <c r="D15">
+        <v>-0.01356096217443849</v>
+      </c>
+      <c r="E15">
+        <v>0.0159225350049014</v>
+      </c>
+      <c r="F15">
+        <v>-0.01831944236477769</v>
+      </c>
+      <c r="H15">
+        <v>-0.01156704593468183</v>
+      </c>
+      <c r="I15">
+        <v>-0.007891367835654712</v>
+      </c>
+      <c r="J15">
+        <v>0.005581827763041463</v>
+      </c>
+      <c r="K15">
+        <v>0.01534665555786622</v>
+      </c>
+      <c r="L15">
+        <v>0.01568423697936948</v>
+      </c>
+      <c r="M15">
+        <v>-0.01968153793926151</v>
+      </c>
+      <c r="N15">
+        <v>0.009797171911886874</v>
+      </c>
+      <c r="P15">
+        <v>-0.006814013360560533</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C15">
-        <v>0.0155282003820501</v>
-      </c>
-      <c r="D15">
-        <v>-0.006606345151586287</v>
-      </c>
-      <c r="E15">
-        <v>0.012037500009375</v>
-      </c>
-      <c r="F15">
-        <v>-0.01072061668015417</v>
-      </c>
-      <c r="H15">
-        <v>0.01742634885658721</v>
-      </c>
-      <c r="I15">
-        <v>0.03034157858539465</v>
-      </c>
-      <c r="J15">
-        <v>0.02841615464749762</v>
-      </c>
-      <c r="K15">
-        <v>0.01901665675416419</v>
-      </c>
-      <c r="L15">
-        <v>0.01848641862160465</v>
-      </c>
-      <c r="M15">
-        <v>-0.002536271134067783</v>
-      </c>
-      <c r="N15">
-        <v>-0.014004776001194</v>
-      </c>
-      <c r="P15">
-        <v>0.0244452556113139</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="C16">
-        <v>0.02350038437509609</v>
+        <v>-0.004601378872055154</v>
       </c>
       <c r="D16">
-        <v>0.002994575248643812</v>
+        <v>0.00895516826220673</v>
       </c>
       <c r="E16">
-        <v>-0.004703519675879919</v>
+        <v>-0.008055754690230187</v>
       </c>
       <c r="F16">
-        <v>0.002993312248328062</v>
+        <v>0.007498844939953797</v>
       </c>
       <c r="H16">
-        <v>-0.02026535906633977</v>
+        <v>0.008722004796880192</v>
       </c>
       <c r="I16">
-        <v>-0.01607945951986488</v>
+        <v>0.008303810348152411</v>
       </c>
       <c r="J16">
-        <v>-0.0249005339513562</v>
+        <v>0.02162440986754561</v>
       </c>
       <c r="K16">
-        <v>0.02146140986535246</v>
+        <v>-0.01409881649995266</v>
       </c>
       <c r="L16">
-        <v>-0.005209867302466825</v>
+        <v>0.002966714902668596</v>
       </c>
       <c r="M16">
-        <v>0.00663769215942304</v>
+        <v>-0.02864294140171765</v>
       </c>
       <c r="N16">
-        <v>-0.003986829996707499</v>
+        <v>-0.001307313076292523</v>
       </c>
       <c r="P16">
-        <v>-0.003468939867234967</v>
+        <v>-0.001679253859170154</v>
       </c>
     </row>
     <row r="17" spans="1:16">
-      <c r="A17" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C17">
-        <v>0.0004987231246807811</v>
+        <v>0.003852873466114938</v>
       </c>
       <c r="D17">
-        <v>-0.001520181380045345</v>
+        <v>-0.002627875209115008</v>
       </c>
       <c r="E17">
-        <v>-0.003734096433524108</v>
+        <v>-0.002788225647529025</v>
       </c>
       <c r="F17">
-        <v>0.0115921843980461</v>
+        <v>0.007897666395906654</v>
       </c>
       <c r="H17">
-        <v>0.01060622365155591</v>
+        <v>0.008207379880295193</v>
       </c>
       <c r="I17">
-        <v>0.001017133754283439</v>
+        <v>0.00589602426784097</v>
       </c>
       <c r="J17">
-        <v>-0.02218247396985831</v>
+        <v>0.009308287535979006</v>
       </c>
       <c r="K17">
-        <v>-0.003651834912958728</v>
+        <v>-0.006848107953924316</v>
       </c>
       <c r="L17">
-        <v>-0.01660333015083254</v>
+        <v>-0.02118554983942199</v>
       </c>
       <c r="M17">
-        <v>-0.003098366274591569</v>
+        <v>-0.006068916818756672</v>
       </c>
       <c r="N17">
-        <v>-0.007601077900269476</v>
+        <v>0.01519025935961037</v>
       </c>
       <c r="P17">
-        <v>0.003615011403752851</v>
+        <v>0.0215131100125244</v>
       </c>
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C18">
-        <v>0.03187286746821687</v>
+        <v>0.0003665750546630021</v>
       </c>
       <c r="D18">
-        <v>0.002837472709368177</v>
+        <v>-0.01706006535440261</v>
       </c>
       <c r="E18">
-        <v>0.001406200851550213</v>
+        <v>0.01599774803190992</v>
       </c>
       <c r="F18">
-        <v>-0.002471000117750029</v>
+        <v>-0.01566373665854946</v>
       </c>
       <c r="H18">
-        <v>0.006812704703176175</v>
+        <v>-0.003243501825740073</v>
       </c>
       <c r="I18">
-        <v>0.009544404886101221</v>
+        <v>-0.0002331717213268688</v>
       </c>
       <c r="J18">
-        <v>-0.03716247775135183</v>
+        <v>-0.001722472111936486</v>
       </c>
       <c r="K18">
-        <v>0.01773018293254573</v>
+        <v>-0.006257021722280868</v>
       </c>
       <c r="L18">
-        <v>0.01791771297942825</v>
+        <v>-0.00848122353924894</v>
       </c>
       <c r="M18">
-        <v>0.00874250768562692</v>
+        <v>0.01297623987904959</v>
       </c>
       <c r="N18">
-        <v>-0.02232070308017577</v>
+        <v>0.009628931041157241</v>
       </c>
       <c r="P18">
-        <v>-0.008647740661935166</v>
+        <v>-0.01528274845130994</v>
       </c>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="1"/>
+      <c r="A19" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="B19" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C19">
-        <v>-4.344151086037772E-05</v>
+        <v>0.01478354132734165</v>
       </c>
       <c r="D19">
-        <v>0.007259676314919079</v>
+        <v>0.009385230039409199</v>
       </c>
       <c r="E19">
-        <v>-0.01444792711198178</v>
+        <v>-0.008471296850851873</v>
       </c>
       <c r="F19">
-        <v>0.01918341329585332</v>
+        <v>0.008910117956404716</v>
       </c>
       <c r="H19">
-        <v>0.006670953167738292</v>
+        <v>0.003179762719190508</v>
       </c>
       <c r="I19">
-        <v>-0.006618253654563414</v>
+        <v>0.0028558850102354</v>
       </c>
       <c r="J19">
-        <v>-0.0133095208319248</v>
+        <v>0.002841280019858122</v>
       </c>
       <c r="K19">
-        <v>-0.05411141552785388</v>
+        <v>0.00161794451271778</v>
       </c>
       <c r="L19">
-        <v>-0.03767529941882485</v>
+        <v>0.006570811654832465</v>
       </c>
       <c r="M19">
-        <v>-0.03539613284903321</v>
+        <v>-0.02442564942502597</v>
       </c>
       <c r="N19">
-        <v>0.01447273111818278</v>
+        <v>-0.006940673365626935</v>
       </c>
       <c r="P19">
-        <v>0.01108732927183232</v>
+        <v>-0.003908153628326145</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1322,40 +1327,40 @@
         <v>44</v>
       </c>
       <c r="C20">
-        <v>-0.03568630042157511</v>
+        <v>0.0005154509966180398</v>
       </c>
       <c r="D20">
-        <v>-0.03116917379229345</v>
+        <v>0.026469925154797</v>
       </c>
       <c r="E20">
-        <v>0.02948628437157109</v>
+        <v>-0.02186299335451973</v>
       </c>
       <c r="F20">
-        <v>-0.03368501942125486</v>
+        <v>0.01447453286698131</v>
       </c>
       <c r="H20">
-        <v>-0.04097021824255456</v>
+        <v>-0.0009267231730689269</v>
       </c>
       <c r="I20">
-        <v>-0.03183967695991924</v>
+        <v>-0.00202765352110614</v>
       </c>
       <c r="J20">
-        <v>0.05006805297456476</v>
+        <v>-0.003375264396639269</v>
       </c>
       <c r="K20">
-        <v>-0.02784836046209011</v>
+        <v>0.01005517585820703</v>
       </c>
       <c r="L20">
-        <v>-0.00311801627950407</v>
+        <v>0.02439585841583433</v>
       </c>
       <c r="M20">
-        <v>0.0131743727935932</v>
+        <v>-0.01598247779129911</v>
       </c>
       <c r="N20">
-        <v>0.02383424245856062</v>
+        <v>-0.02821534711261388</v>
       </c>
       <c r="P20">
-        <v>-0.01128828432207108</v>
+        <v>-0.04077052223882088</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1364,520 +1369,562 @@
         <v>45</v>
       </c>
       <c r="C21">
-        <v>-0.001896334974083744</v>
+        <v>-0.0182426075137043</v>
       </c>
       <c r="D21">
-        <v>0.03137363584340896</v>
+        <v>-0.01072038820481553</v>
       </c>
       <c r="E21">
-        <v>-0.03211473952868488</v>
+        <v>0.007382084455283378</v>
       </c>
       <c r="F21">
-        <v>0.02936372384093096</v>
+        <v>-0.004736314941452597</v>
       </c>
       <c r="H21">
-        <v>-0.01500379125094781</v>
+        <v>0.001104153068166123</v>
       </c>
       <c r="I21">
-        <v>-0.03873141518285379</v>
+        <v>0.003557391886295675</v>
       </c>
       <c r="J21">
-        <v>-0.0130216520044521</v>
+        <v>-0.0001814626164213171</v>
       </c>
       <c r="K21">
-        <v>-0.01240778860194715</v>
+        <v>0.004030602113224084</v>
       </c>
       <c r="L21">
-        <v>-5.227951306987826E-05</v>
+        <v>-0.01100693410427736</v>
       </c>
       <c r="M21">
-        <v>0.02264439416109854</v>
+        <v>-0.006121347124853884</v>
       </c>
       <c r="N21">
-        <v>-0.03942149335537334</v>
+        <v>0.02123853569754143</v>
       </c>
       <c r="P21">
-        <v>-0.0168302112075528</v>
+        <v>0.009067239050689561</v>
       </c>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C22">
-        <v>0.006602947650736913</v>
+        <v>-0.03097324904692996</v>
       </c>
       <c r="D22">
-        <v>-0.009921786980446745</v>
+        <v>-0.008189237415569494</v>
       </c>
       <c r="E22">
-        <v>0.004069009017252254</v>
+        <v>0.002952239158089566</v>
       </c>
       <c r="F22">
-        <v>0.002696489174122293</v>
+        <v>-0.00207936651517466</v>
       </c>
       <c r="H22">
-        <v>-0.002135961533990384</v>
+        <v>-0.01126829853073194</v>
       </c>
       <c r="I22">
-        <v>0.004501625625406406</v>
+        <v>-0.01086963374678535</v>
       </c>
       <c r="J22">
-        <v>0.0256715994088692</v>
+        <v>-0.004217680851734133</v>
       </c>
       <c r="K22">
-        <v>0.02219071604767901</v>
+        <v>-0.002198903799956152</v>
       </c>
       <c r="L22">
-        <v>-0.03507392676848169</v>
+        <v>-0.008789841375593655</v>
       </c>
       <c r="M22">
-        <v>-0.01164814191203548</v>
+        <v>0.006924958164998326</v>
       </c>
       <c r="N22">
-        <v>0.02797011999253</v>
+        <v>0.0152811425632457</v>
       </c>
       <c r="P22">
-        <v>0.01848214212053553</v>
+        <v>-0.005131532077261282</v>
       </c>
     </row>
     <row r="23" spans="1:16">
-      <c r="A23" s="1"/>
+      <c r="A23" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="B23" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C23">
-        <v>-0.008821904205476051</v>
+        <v>-0.009019495176779807</v>
       </c>
       <c r="D23">
-        <v>-0.008740112185028046</v>
+        <v>0.0006991589079663563</v>
       </c>
       <c r="E23">
-        <v>0.008516507129126782</v>
+        <v>-0.005133366445334657</v>
       </c>
       <c r="F23">
-        <v>-0.01135360933840233</v>
+        <v>0.005822652808906112</v>
       </c>
       <c r="H23">
-        <v>-0.02250560212640053</v>
+        <v>-0.01019417867976715</v>
       </c>
       <c r="I23">
-        <v>-0.02827631506907876</v>
+        <v>-0.01179171560766862</v>
       </c>
       <c r="J23">
-        <v>-0.01479844823263238</v>
+        <v>-0.007501792332143178</v>
       </c>
       <c r="K23">
-        <v>0.01810047002511751</v>
+        <v>-0.01182188456887538</v>
       </c>
       <c r="L23">
-        <v>0.01726946381736595</v>
+        <v>-0.02049908165196326</v>
       </c>
       <c r="M23">
-        <v>-0.007694641923660481</v>
+        <v>0.003621690480867619</v>
       </c>
       <c r="N23">
-        <v>0.003710699427674856</v>
+        <v>0.01407755317110213</v>
       </c>
       <c r="P23">
-        <v>-0.002619147654786913</v>
+        <v>0.002246652953866118</v>
       </c>
     </row>
     <row r="24" spans="1:16">
-      <c r="A24" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C24">
-        <v>-0.001053301763325441</v>
+        <v>0.004387561423502456</v>
       </c>
       <c r="D24">
-        <v>0.02901774725443682</v>
+        <v>0.007464518794580751</v>
       </c>
       <c r="E24">
-        <v>-0.02856133914033479</v>
+        <v>-0.008619279224771167</v>
       </c>
       <c r="F24">
-        <v>0.02145157586289396</v>
+        <v>0.007968734910749396</v>
       </c>
       <c r="H24">
-        <v>-0.02103940425985106</v>
+        <v>0.01124508947380358</v>
       </c>
       <c r="I24">
-        <v>-0.02136614634153658</v>
+        <v>0.01310514801220592</v>
       </c>
       <c r="J24">
-        <v>-0.01112029499274939</v>
+        <v>-0.02853934601245396</v>
       </c>
       <c r="K24">
-        <v>-0.006690679672669918</v>
+        <v>0.0183751575030063</v>
       </c>
       <c r="L24">
-        <v>0.002995283248820812</v>
+        <v>-0.0009056041322241653</v>
       </c>
       <c r="M24">
-        <v>-0.02181462545365636</v>
+        <v>-0.01352408271696331</v>
       </c>
       <c r="N24">
-        <v>-0.01961334490333622</v>
+        <v>-0.00621330802453232</v>
       </c>
       <c r="P24">
-        <v>-0.06115117228779307</v>
+        <v>0.0008687037467481497</v>
       </c>
     </row>
     <row r="25" spans="1:16">
-      <c r="A25" s="1"/>
+      <c r="A25" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="B25" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C25">
-        <v>-0.03524201531050383</v>
+        <v>0.000835931553437262</v>
       </c>
       <c r="D25">
-        <v>-0.001622263905565976</v>
+        <v>-0.01688186390727455</v>
       </c>
       <c r="E25">
-        <v>0.004332803583200895</v>
+        <v>0.01380366544814661</v>
       </c>
       <c r="F25">
-        <v>-0.008062902515725629</v>
+        <v>-0.008507947156317886</v>
       </c>
       <c r="H25">
-        <v>-0.006738586684646671</v>
+        <v>0.01212173702886948</v>
       </c>
       <c r="I25">
-        <v>-0.01063446565861641</v>
+        <v>0.01985263097010524</v>
       </c>
       <c r="J25">
-        <v>-0.02649069337930786</v>
+        <v>-0.01601272010311831</v>
       </c>
       <c r="K25">
-        <v>-0.006200241050060262</v>
+        <v>-0.01168534568341383</v>
       </c>
       <c r="L25">
-        <v>0.02709528077382019</v>
+        <v>-0.02284800235392009</v>
       </c>
       <c r="M25">
-        <v>-0.007373406343351585</v>
+        <v>-0.006230248953209957</v>
       </c>
       <c r="N25">
-        <v>-0.02415893403973351</v>
+        <v>0.03111187910047516</v>
       </c>
       <c r="P25">
-        <v>-0.02111475977868995</v>
+        <v>0.01928951837158073</v>
       </c>
     </row>
     <row r="26" spans="1:16">
-      <c r="A26" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C26">
-        <v>-0.04045352811338203</v>
+        <v>0.01380561184822447</v>
       </c>
       <c r="D26">
-        <v>-0.04933202133300533</v>
+        <v>-0.0004943375237735009</v>
       </c>
       <c r="E26">
-        <v>0.008637989159497289</v>
+        <v>0.003122875228915009</v>
       </c>
       <c r="F26">
-        <v>0.01875330468832617</v>
+        <v>-0.004086591427463656</v>
       </c>
       <c r="H26">
-        <v>4.840801210200303E-05</v>
+        <v>0.008674092634963704</v>
       </c>
       <c r="I26">
-        <v>0.001864071466017867</v>
+        <v>0.01161397486455899</v>
       </c>
       <c r="J26">
-        <v>0.03377601308996953</v>
+        <v>-0.02404951638008996</v>
       </c>
       <c r="K26">
-        <v>-0.03105427526356882</v>
+        <v>-0.01874448660577946</v>
       </c>
       <c r="L26">
-        <v>-0.2454845563711391</v>
+        <v>0.01128409888336395</v>
       </c>
       <c r="M26">
-        <v>0.9917307169326791</v>
+        <v>-0.003330937573237502</v>
       </c>
       <c r="N26">
-        <v>0.08829303257325813</v>
+        <v>-0.01294910576596423</v>
       </c>
       <c r="P26">
-        <v>0.0231280527820132</v>
+        <v>0.002931610485264419</v>
       </c>
     </row>
     <row r="27" spans="1:16">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C27">
-        <v>-0.0243594135898534</v>
+        <v>-0.02455005064600202</v>
       </c>
       <c r="D27">
-        <v>-0.0307830751957688</v>
+        <v>-0.05559355873574235</v>
       </c>
       <c r="E27">
-        <v>0.01941907235476809</v>
+        <v>0.01408764670750587</v>
       </c>
       <c r="F27">
-        <v>-0.0112346068086517</v>
+        <v>0.01282129865685194</v>
       </c>
       <c r="H27">
-        <v>-0.02053626513406628</v>
+        <v>-0.01885286878611475</v>
       </c>
       <c r="I27">
-        <v>-0.02613039653259913</v>
+        <v>-0.02171757840470313</v>
       </c>
       <c r="J27">
-        <v>-0.01532919487546957</v>
+        <v>0.03556309523441212</v>
       </c>
       <c r="K27">
-        <v>-0.02298608824652206</v>
+        <v>-0.05614783990991359</v>
       </c>
       <c r="L27">
-        <v>-0.06159174339793585</v>
+        <v>-0.2502081143283246</v>
       </c>
       <c r="M27">
-        <v>0.02914516928629232</v>
+        <v>0.9915926057437041</v>
       </c>
       <c r="N27">
-        <v>0.04542870385717596</v>
+        <v>0.0935154181406167</v>
       </c>
       <c r="P27">
-        <v>-0.003503780375945094</v>
+        <v>0.01661803420072136</v>
       </c>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C28">
-        <v>0.05658768814692203</v>
+        <v>-0.008950291750011668</v>
       </c>
       <c r="D28">
-        <v>0.02185054146263537</v>
+        <v>0.007420154504806179</v>
       </c>
       <c r="E28">
-        <v>-0.02584125196031299</v>
+        <v>-0.005680523171220926</v>
       </c>
       <c r="F28">
-        <v>0.02934478633619658</v>
+        <v>0.004576713399068536</v>
       </c>
       <c r="H28">
-        <v>0.003378213844553461</v>
+        <v>0.01403897038555881</v>
       </c>
       <c r="I28">
-        <v>-0.0048133692033423</v>
+        <v>0.008259839754393589</v>
       </c>
       <c r="J28">
-        <v>-0.03055205397232153</v>
+        <v>-0.02189426098406886</v>
       </c>
       <c r="K28">
-        <v>-0.04090493372623343</v>
+        <v>0.006880667123226684</v>
       </c>
       <c r="L28">
-        <v>-0.0224547776136944</v>
+        <v>0.00627077900283116</v>
       </c>
       <c r="M28">
-        <v>0.1719945204986301</v>
+        <v>0.01606804336272173</v>
       </c>
       <c r="N28">
-        <v>0.0192195408048852</v>
+        <v>-0.01267919426716777</v>
       </c>
       <c r="P28">
-        <v>-0.01797630899407725</v>
+        <v>0.005164031822561272</v>
       </c>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C29">
-        <v>-0.01479461019865255</v>
+        <v>0.0006689664267586571</v>
       </c>
       <c r="D29">
-        <v>-0.01735798033949509</v>
+        <v>0.007649970545998821</v>
       </c>
       <c r="E29">
-        <v>0.01925748931437233</v>
+        <v>0.001732371333294853</v>
       </c>
       <c r="F29">
-        <v>-0.02184016146004036</v>
+        <v>-0.003870590746823629</v>
       </c>
       <c r="H29">
-        <v>-0.01050674362668591</v>
+        <v>-0.005457545882301834</v>
       </c>
       <c r="I29">
-        <v>0.003953183488295872</v>
+        <v>-0.008030978913239154</v>
       </c>
       <c r="J29">
-        <v>0.01178219567088341</v>
+        <v>-0.03234606625311624</v>
       </c>
       <c r="K29">
-        <v>0.01303510675877669</v>
+        <v>-0.01090749816429993</v>
       </c>
       <c r="L29">
-        <v>0.01172281043070261</v>
+        <v>0.03910182079607283</v>
       </c>
       <c r="M29">
-        <v>0.02277502619375655</v>
+        <v>0.09576425893457036</v>
       </c>
       <c r="N29">
-        <v>0.02077073619268405</v>
+        <v>0.0006327843133113725</v>
       </c>
       <c r="P29">
-        <v>0.00192525948131487</v>
+        <v>-0.001011946600477864</v>
       </c>
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C30">
-        <v>0.4055806343951586</v>
+        <v>0.01148745300349812</v>
       </c>
       <c r="D30">
-        <v>0.9786929536732384</v>
+        <v>0.008151606374064254</v>
       </c>
       <c r="E30">
-        <v>-0.9999567264891817</v>
+        <v>-0.00341482900059316</v>
       </c>
       <c r="F30">
-        <v>0.9750781087695272</v>
+        <v>2.151964886078595E-05</v>
       </c>
       <c r="H30">
-        <v>0.342744180186045</v>
+        <v>0.002583179911327196</v>
       </c>
       <c r="I30">
-        <v>-0.0253442508360627</v>
+        <v>0.003067332314693292</v>
       </c>
       <c r="J30">
-        <v>-0.2322565382560409</v>
+        <v>0.007980214786345807</v>
       </c>
       <c r="K30">
-        <v>-0.000833025208256302</v>
+        <v>-0.006795229903809196</v>
       </c>
       <c r="L30">
-        <v>-0.02220747555186889</v>
+        <v>0.02453575854943034</v>
       </c>
       <c r="M30">
-        <v>0.002085938021484505</v>
+        <v>0.0047624950064998</v>
       </c>
       <c r="N30">
-        <v>-0.6850429967607492</v>
+        <v>-0.01493500878940035</v>
       </c>
       <c r="P30">
-        <v>-0.5035047493761874</v>
+        <v>-0.003199604479984178</v>
       </c>
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C31">
-        <v>0.01921820430455107</v>
+        <v>0.3997529118301165</v>
       </c>
       <c r="D31">
-        <v>0.0001796070449017612</v>
+        <v>0.9781560133022404</v>
       </c>
       <c r="E31">
-        <v>0.001462075865518966</v>
+        <v>-0.9999576087023043</v>
       </c>
       <c r="F31">
-        <v>-0.003302658825664707</v>
+        <v>0.9745376346295053</v>
       </c>
       <c r="H31">
-        <v>0.00208500052125013</v>
+        <v>0.3797241524369661</v>
       </c>
       <c r="I31">
-        <v>0.008552372138093034</v>
+        <v>0.01505420393016815</v>
       </c>
       <c r="J31">
-        <v>-0.01467734270003986</v>
+        <v>-0.2189890863228455</v>
       </c>
       <c r="K31">
-        <v>0.03337572384393096</v>
+        <v>-0.03407412654696505</v>
       </c>
       <c r="L31">
-        <v>0.01191851997962999</v>
+        <v>0.001451330458053218</v>
       </c>
       <c r="M31">
-        <v>0.03212765753191438</v>
+        <v>-0.007124473724978948</v>
       </c>
       <c r="N31">
-        <v>0.0009905762476440619</v>
+        <v>-0.6879388637415544</v>
       </c>
       <c r="P31">
-        <v>-0.01541100385275096</v>
+        <v>-0.5111039824281592</v>
       </c>
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C32">
-        <v>-0.03990732547683137</v>
+        <v>0.01027626079505043</v>
       </c>
       <c r="D32">
-        <v>0.005528551382137845</v>
+        <v>0.008363538094541522</v>
       </c>
       <c r="E32">
-        <v>-0.004624289656072414</v>
+        <v>-0.008252394570095783</v>
       </c>
       <c r="F32">
-        <v>0.005078003769500941</v>
+        <v>0.007506638604265544</v>
       </c>
       <c r="H32">
-        <v>0.01138224734556184</v>
+        <v>0.004222352616894104</v>
       </c>
       <c r="I32">
-        <v>0.009905729476432368</v>
+        <v>0.003754513590180543</v>
       </c>
       <c r="J32">
-        <v>-0.006003669865737654</v>
+        <v>-0.003871788467681959</v>
       </c>
       <c r="K32">
-        <v>-0.001695508923877231</v>
+        <v>-0.01368925811557032</v>
       </c>
       <c r="L32">
-        <v>0.005566387391596849</v>
+        <v>0.002056988338279533</v>
       </c>
       <c r="M32">
-        <v>-0.04177844244461061</v>
+        <v>0.006494041123761644</v>
       </c>
       <c r="N32">
-        <v>-0.006816138204034551</v>
+        <v>-0.004310244844409793</v>
       </c>
       <c r="P32">
-        <v>-0.01656807414201853</v>
+        <v>-0.00847142078685683</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33">
+        <v>-0.003424647976985919</v>
+      </c>
+      <c r="D33">
+        <v>-0.001061815626472625</v>
+      </c>
+      <c r="E33">
+        <v>-0.00130981176439247</v>
+      </c>
+      <c r="F33">
+        <v>0.000896480579859223</v>
+      </c>
+      <c r="H33">
+        <v>-0.006135977909439116</v>
+      </c>
+      <c r="I33">
+        <v>-0.004607951320318052</v>
+      </c>
+      <c r="J33">
+        <v>-0.02769426930123564</v>
+      </c>
+      <c r="K33">
+        <v>-0.01181995909679836</v>
+      </c>
+      <c r="L33">
+        <v>-0.01786984919479397</v>
+      </c>
+      <c r="M33">
+        <v>0.008211705832468231</v>
+      </c>
+      <c r="N33">
+        <v>0.006773944398957775</v>
+      </c>
+      <c r="P33">
+        <v>-0.008599995895999833</v>
       </c>
     </row>
   </sheetData>
@@ -1885,10 +1932,10 @@
     <mergeCell ref="C1:P1"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
